--- a/Buget/01金域世家装修预算.xlsx
+++ b/Buget/01金域世家装修预算.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8115" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="房子装修预算" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="974">
   <si>
     <t>序号</t>
   </si>
@@ -2837,10 +2837,6 @@
   </si>
   <si>
     <t>林内Rinnai RUS-16E55CWNF 16L</t>
-  </si>
-  <si>
-    <t>林内Rinnai RUS-16E55CWNF 16L</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>整体橱柜</t>
@@ -2932,11 +2928,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>包装尺寸  690x670x998mm
-尺寸  600x600x845mm</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>西门子 SN23E832TI 全自动洗碗机除菌13套独立式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3001,10 +2992,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>净水器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -3029,226 +3016,218 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>微波炉</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>台面</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>感应灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能马桶盖</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关柜中部感应灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上30公分</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>门灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>光猫</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽下</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>排风扇</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱池下</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留（吹风机/剃须刀）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶旁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱池上</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌旁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌旁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部（主，次）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功放</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视地柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>机顶盒</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响左右中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕布</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>台面</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>感应灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能马桶盖</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关柜中部感应灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上30公分</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>门灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>光猫</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽下</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>排风扇</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱池下</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留（吹风机/剃须刀）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱池上</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑桌预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑桌旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部（主，次）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换机</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功放</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视地柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络盒子</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>机顶盒</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>音响左右中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>幕布</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>台面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>沙发后墙</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -3265,10 +3244,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>客厅空调</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>墙角</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -3294,14 +3269,6 @@
   </si>
   <si>
     <t>沙发墙中上</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>饮水机</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>客餐厅中间</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3406,6 +3373,300 @@
 30*60：60（承重墙）+50（非承重）+26（厨西墙）+18（厨房烟道）+11（厨门墙）=165
 30*60：56（卫南北两面）+24（卫东西俩面）+39（卫干三面）
 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁易购择木宜居家居旗舰店</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>择木宜居 现代简约实木腿餐桌椅子组合家用小户型长方形餐桌饭桌 深胡桃色餐桌+4张黑色皮面椅子
+https://product.suning.com/0070068275/690791074.html?utm_source=union&amp;utm_medium=14&amp;utm_campaign=02a0ea2b-abe5-4660-9aa6-72412ffa4ae9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅立柱空调</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房挂件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝（Cobbe）厨房挂件太空铝置物架壁挂刀架厨卫五金套装</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>林内Rinnai RUS-16E55CWNF 16L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>择木宜居 餐桌实木餐桌椅组合饭桌 北欧餐桌 一桌四椅 深胡桃色黑色皮面(供应商直送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁/亚马逊</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅吸顶灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关和客厅开关是双控</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央净水</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水步骤2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>软水机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水步骤3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO反渗直饮</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水步骤4，三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>管线机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅中间/厨卫客厅侧墙壁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>两孔</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔带USB</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座带USB</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座，注：插座需要留到洗碗机侧面，不要留在正背面</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽-型号待定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽龙头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东/淘宝/亚马逊</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋雨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>松霖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东/天猫</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置+中央净水+软水+RO反渗透+管线机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕布</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>红叶白玻纤16:9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新风系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尼韦尔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾处理器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝克巴斯DM500</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>406mm*270mm,550w,200v,要求下水口外径：114/140/160/180</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装尺寸  690x670x998mm
+尺寸  600x600x845mm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>明基W1070+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>变焦比：1.3:1；100寸投影参数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3416,7 +3677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3577,6 +3838,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3584,6 +3846,34 @@
       <color rgb="FF262626"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3796,7 +4086,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3807,8 +4097,10 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4095,6 +4387,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4140,10 +4453,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
   </cellStyles>
@@ -4422,7 +4746,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4719,11 +5045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617698576"/>
-        <c:axId val="617703472"/>
+        <c:axId val="-744888208"/>
+        <c:axId val="-744882768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617698576"/>
+        <c:axId val="-744888208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +5088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617703472"/>
+        <c:crossAx val="-744882768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4771,7 +5097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617703472"/>
+        <c:axId val="-744882768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,7 +5149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617698576"/>
+        <c:crossAx val="-744888208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5215,13 +5541,13 @@
   <sheetPr>
     <tabColor indexed="49"/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M131" sqref="M131"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5269,10 +5595,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>9</v>
@@ -5284,17 +5610,17 @@
         <v>11</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -5308,7 +5634,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H2" s="39">
         <v>30</v>
@@ -5318,7 +5644,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="12"/>
       <c r="M2" s="24" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="N2" s="73"/>
     </row>
@@ -5326,13 +5652,13 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="100"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="33">
-        <f t="shared" ref="E3:E30" si="0">F3*H3</f>
+        <f t="shared" ref="E3:E31" si="0">F3*H3</f>
         <v>1170</v>
       </c>
       <c r="F3" s="13">
@@ -5355,8 +5681,8 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="100"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -5384,8 +5710,8 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="100"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
@@ -5409,8 +5735,8 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="100"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
@@ -5434,8 +5760,8 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5461,8 +5787,8 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
@@ -5488,8 +5814,8 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
@@ -5515,8 +5841,8 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5542,8 +5868,8 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
@@ -5569,8 +5895,8 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="62" t="s">
         <v>26</v>
       </c>
@@ -5598,8 +5924,8 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="100" t="s">
+      <c r="B13" s="109"/>
+      <c r="C13" s="107" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -5628,8 +5954,8 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="31" t="s">
         <v>31</v>
       </c>
@@ -5657,8 +5983,8 @@
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="31" t="s">
         <v>32</v>
       </c>
@@ -5686,8 +6012,8 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="101" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="108" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -5715,14 +6041,14 @@
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
@@ -5730,20 +6056,26 @@
       <c r="G17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>1500</v>
+      </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>901</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="100" t="s">
+        <v>902</v>
+      </c>
       <c r="N17" s="73"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="63" t="s">
         <v>39</v>
       </c>
@@ -5769,8 +6101,8 @@
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
@@ -5796,8 +6128,8 @@
       <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="63" t="s">
         <v>42</v>
       </c>
@@ -5825,8 +6157,8 @@
       <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
@@ -5854,8 +6186,8 @@
       <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="22" t="s">
         <v>44</v>
       </c>
@@ -5883,8 +6215,8 @@
       <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="100" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="107" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -5912,8 +6244,8 @@
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="13" t="s">
         <v>48</v>
       </c>
@@ -5941,8 +6273,8 @@
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="13" t="s">
         <v>49</v>
       </c>
@@ -5967,56 +6299,59 @@
       <c r="N25" s="73"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>24</v>
-      </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="13" t="s">
-        <v>51</v>
+      <c r="A26" s="106"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="106" t="s">
+        <v>970</v>
       </c>
       <c r="E26" s="33">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>38</v>
+        <v>4200</v>
+      </c>
+      <c r="F26" s="106">
+        <v>1</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>971</v>
       </c>
       <c r="H26" s="39">
-        <v>200</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+        <v>4200</v>
+      </c>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106" t="s">
+        <v>972</v>
+      </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="73"/>
+      <c r="M26" s="45" t="s">
+        <v>973</v>
+      </c>
+      <c r="N26" s="106"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="109"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E27" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="39"/>
+        <v>38</v>
+      </c>
+      <c r="H27" s="39">
+        <v>200</v>
+      </c>
+      <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
@@ -6025,27 +6360,26 @@
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="13" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>53</v>
       </c>
       <c r="E28" s="33">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F28" s="13">
         <v>1</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="39">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="H28" s="39"/>
       <c r="J28" s="13"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
@@ -6054,16 +6388,16 @@
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="31" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="109"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="33">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
@@ -6072,38 +6406,36 @@
         <v>55</v>
       </c>
       <c r="H29" s="39">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
-      <c r="M29" s="65"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" s="109"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="33">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F30" s="13">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H30" s="39">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -6112,113 +6444,115 @@
       <c r="M30" s="65"/>
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="66">
-        <f>SUM(E2:E30)</f>
-        <v>18435</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="F31" s="13">
+        <v>65</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="39">
+        <v>20</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="73"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="E32" s="33">
-        <f>F32*H32</f>
-        <v>1410</v>
-      </c>
-      <c r="F32" s="22">
-        <v>47</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>903</v>
-      </c>
-      <c r="H32" s="39">
         <v>30</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="N32" s="73"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="66">
+        <f>SUM(E2:E31)</f>
+        <v>24135</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="100"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="107" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="13" t="s">
-        <v>17</v>
+        <v>897</v>
       </c>
       <c r="E33" s="33">
-        <f t="shared" ref="E33:E50" si="1">F33*H33</f>
-        <v>280</v>
-      </c>
-      <c r="F33" s="13">
-        <v>14</v>
+        <f>F33*H33</f>
+        <v>1410</v>
+      </c>
+      <c r="F33" s="22">
+        <v>47</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>18</v>
+        <v>895</v>
       </c>
       <c r="H33" s="39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="24"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>893</v>
+      </c>
       <c r="N33" s="73"/>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="100"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="13" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E34" s="33">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" ref="E34:E51" si="1">F34*H34</f>
+        <v>280</v>
       </c>
       <c r="F34" s="13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H34" s="39">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -6229,25 +6563,25 @@
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="100"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="13" t="s">
-        <v>902</v>
+        <v>61</v>
       </c>
       <c r="E35" s="33">
         <f t="shared" si="1"/>
-        <v>837.00000000000011</v>
+        <v>3000</v>
       </c>
       <c r="F35" s="13">
-        <v>9.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>904</v>
+        <v>38</v>
       </c>
       <c r="H35" s="39">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -6258,25 +6592,25 @@
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="100"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="109"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="13" t="s">
-        <v>63</v>
+        <v>894</v>
       </c>
       <c r="E36" s="33">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>837.00000000000011</v>
       </c>
       <c r="F36" s="13">
-        <v>1.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>30</v>
+        <v>896</v>
       </c>
       <c r="H36" s="39">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -6287,27 +6621,25 @@
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
-        <v>38</v>
-      </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="100" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="33">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="F37" s="13">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -6318,22 +6650,24 @@
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
-        <v>41</v>
-      </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="100"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="109"/>
+      <c r="C38" s="107" t="s">
+        <v>28</v>
+      </c>
       <c r="D38" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="33">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="F38" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H38" s="39">
         <v>50</v>
@@ -6341,62 +6675,62 @@
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="24"/>
       <c r="N38" s="73"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
-        <v>42</v>
-      </c>
-      <c r="B39" s="102"/>
-      <c r="C39" s="101" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B39" s="109"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="33">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H39" s="39">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="24"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="13"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="73"/>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
-        <v>43</v>
-      </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
+        <v>42</v>
+      </c>
+      <c r="B40" s="109"/>
+      <c r="C40" s="108" t="s">
+        <v>34</v>
+      </c>
       <c r="D40" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="33">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H40" s="39">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -6406,24 +6740,26 @@
       <c r="N40" s="73"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="13">
+        <v>43</v>
+      </c>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="33">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H41" s="39">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -6433,25 +6769,25 @@
       <c r="N41" s="73"/>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
-        <v>45</v>
-      </c>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="39"/>
+        <v>38</v>
+      </c>
+      <c r="H42" s="39">
+        <v>1500</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
@@ -6461,12 +6797,12 @@
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
-        <v>46</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
+        <v>45</v>
+      </c>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="13" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E43" s="33">
         <f t="shared" si="1"/>
@@ -6476,68 +6812,66 @@
         <v>2</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="24"/>
-      <c r="M43" s="45"/>
+      <c r="M43" s="13"/>
       <c r="N43" s="73"/>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
-        <v>47</v>
-      </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="100" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E44" s="33">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F44" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="39">
-        <v>300</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="24"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="24"/>
       <c r="M44" s="45"/>
       <c r="N44" s="73"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
-        <v>48</v>
-      </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="100"/>
+        <v>47</v>
+      </c>
+      <c r="B45" s="109"/>
+      <c r="C45" s="107" t="s">
+        <v>45</v>
+      </c>
       <c r="D45" s="13" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E45" s="33">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="F45" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H45" s="39">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -6548,24 +6882,26 @@
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
-        <v>49</v>
-      </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="100"/>
+        <v>48</v>
+      </c>
+      <c r="B46" s="109"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F46" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="39">
+        <v>80</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="24"/>
@@ -6575,14 +6911,12 @@
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
-        <v>50</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="100" t="s">
-        <v>52</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B47" s="109"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="33">
         <f t="shared" si="1"/>
@@ -6592,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="13"/>
@@ -6604,16 +6938,18 @@
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
-        <v>51</v>
-      </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="100"/>
+        <v>50</v>
+      </c>
+      <c r="B48" s="109"/>
+      <c r="C48" s="107" t="s">
+        <v>52</v>
+      </c>
       <c r="D48" s="13" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E48" s="33">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
@@ -6621,9 +6957,7 @@
       <c r="G48" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="39">
-        <v>600</v>
-      </c>
+      <c r="H48" s="39"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="24"/>
@@ -6633,25 +6967,25 @@
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
-        <v>52</v>
-      </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="100"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="109"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="13" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E49" s="33">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F49" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H49" s="39">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -6662,23 +6996,25 @@
     </row>
     <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
-        <v>53</v>
-      </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="100"/>
+        <v>52</v>
+      </c>
+      <c r="B50" s="109"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="33">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F50" s="13">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="H50" s="39">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -6689,79 +7025,75 @@
     </row>
     <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
-        <v>56</v>
-      </c>
-      <c r="B51" s="103"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="66">
-        <f>SUM(E32:E50)</f>
-        <v>14927</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B51" s="109"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="33">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="39">
+        <v>400</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="73"/>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
-        <v>57</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="33">
-        <f>F52*H52</f>
-        <v>4950</v>
-      </c>
-      <c r="F52" s="13">
-        <v>165</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="H52" s="33">
-        <v>30</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="N52" s="73"/>
+        <v>56</v>
+      </c>
+      <c r="B52" s="110"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="66">
+        <f>SUM(E33:E51)</f>
+        <v>14927</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
-        <v>58</v>
-      </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="100"/>
+        <v>57</v>
+      </c>
+      <c r="B53" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>13</v>
+      </c>
       <c r="D53" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="33">
-        <f t="shared" ref="E53:E72" si="2">F53*H53</f>
-        <v>2520</v>
+        <f>F53*H53</f>
+        <v>4950</v>
       </c>
       <c r="F53" s="13">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="H53" s="33">
         <v>30</v>
@@ -6770,210 +7102,212 @@
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
       <c r="L53" s="12"/>
-      <c r="M53" s="28" t="s">
-        <v>907</v>
+      <c r="M53" s="24" t="s">
+        <v>898</v>
       </c>
       <c r="N53" s="73"/>
     </row>
     <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
-        <v>59</v>
-      </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="31" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="B54" s="109"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E54" s="33">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <f t="shared" ref="E54:E74" si="2">F54*H54</f>
+        <v>2520</v>
       </c>
       <c r="F54" s="13">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>55</v>
+        <v>889</v>
       </c>
       <c r="H54" s="33">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="12"/>
-      <c r="M54" s="67"/>
+      <c r="M54" s="28" t="s">
+        <v>899</v>
+      </c>
       <c r="N54" s="73"/>
     </row>
     <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
-        <v>60</v>
-      </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="B55" s="109"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="33">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H55" s="33">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="24"/>
+      <c r="M55" s="67"/>
       <c r="N55" s="73"/>
     </row>
     <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="110" t="s">
-        <v>768</v>
+      <c r="A56" s="13">
+        <v>60</v>
+      </c>
+      <c r="B56" s="109"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E56" s="33">
         <f t="shared" si="2"/>
-        <v>950</v>
-      </c>
-      <c r="F56" s="73">
-        <v>1</v>
-      </c>
-      <c r="G56" s="73" t="s">
-        <v>769</v>
+        <v>1000</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="H56" s="33">
-        <v>950</v>
-      </c>
-      <c r="I56" s="73" t="s">
-        <v>773</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>775</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I56" s="13"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="24" t="s">
-        <v>789</v>
-      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="24"/>
       <c r="N56" s="73"/>
     </row>
     <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="73"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="111"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="117" t="s">
+        <v>767</v>
+      </c>
       <c r="E57" s="33">
         <f t="shared" si="2"/>
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="F57" s="73">
         <v>1</v>
       </c>
       <c r="G57" s="73" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H57" s="33">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="I57" s="73" t="s">
+        <v>772</v>
+      </c>
+      <c r="J57" s="24" t="s">
         <v>774</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>776</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="70"/>
       <c r="M57" s="24" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N57" s="73"/>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="73"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="111"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="33">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="F58" s="73">
         <v>1</v>
       </c>
       <c r="G58" s="73" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H58" s="33">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="I58" s="73" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="70"/>
-      <c r="M58" s="24"/>
+      <c r="M58" s="24" t="s">
+        <v>786</v>
+      </c>
       <c r="N58" s="73"/>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13">
-        <v>61</v>
-      </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="112"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="33">
         <f t="shared" si="2"/>
-        <v>6600.0000000000009</v>
-      </c>
-      <c r="F59" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>81</v>
+        <v>550</v>
+      </c>
+      <c r="F59" s="73">
+        <v>1</v>
+      </c>
+      <c r="G59" s="73" t="s">
+        <v>769</v>
       </c>
       <c r="H59" s="33">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="24"/>
+        <v>550</v>
+      </c>
+      <c r="I59" s="73" t="s">
+        <v>776</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>777</v>
+      </c>
       <c r="K59" s="24"/>
-      <c r="L59" s="12"/>
+      <c r="L59" s="70"/>
       <c r="M59" s="24"/>
       <c r="N59" s="73"/>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
-        <v>62</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="13" t="s">
-        <v>85</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B60" s="109"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="33">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>6600.0000000000009</v>
       </c>
       <c r="F60" s="13">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H60" s="33">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="24"/>
@@ -6984,28 +7318,25 @@
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
-        <v>65</v>
-      </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="109"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E61" s="33">
         <f t="shared" si="2"/>
-        <v>12840</v>
+        <v>500</v>
       </c>
       <c r="F61" s="13">
-        <f>F52+F53+F75+F76</f>
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H61" s="33">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="24"/>
@@ -7016,198 +7347,199 @@
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
-        <v>66</v>
-      </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="13" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="B62" s="109"/>
+      <c r="C62" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>86</v>
       </c>
       <c r="E62" s="33">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>12840</v>
       </c>
       <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13"/>
+        <f>F53+F54+F77+F78</f>
+        <v>428</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" s="33">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
+      <c r="L62" s="12"/>
       <c r="M62" s="24"/>
       <c r="N62" s="73"/>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
-        <v>68</v>
-      </c>
-      <c r="B63" s="102"/>
-      <c r="C63" s="101" t="s">
-        <v>88</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B63" s="109"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" s="33">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="F63" s="22">
-        <v>1</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>55</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="33">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="13"/>
+      <c r="K63" s="24"/>
       <c r="L63" s="24"/>
-      <c r="M63" s="13"/>
+      <c r="M63" s="24"/>
       <c r="N63" s="73"/>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13">
-        <v>69</v>
-      </c>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="13" t="s">
-        <v>90</v>
+      <c r="A64" s="106"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="106" t="s">
+        <v>964</v>
       </c>
       <c r="E64" s="33">
         <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="F64" s="13">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>55</v>
+        <v>970</v>
+      </c>
+      <c r="F64" s="124">
+        <v>1</v>
+      </c>
+      <c r="G64" s="106" t="s">
+        <v>965</v>
       </c>
       <c r="H64" s="33">
-        <v>400</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="13"/>
+        <v>970</v>
+      </c>
+      <c r="I64" s="106"/>
+      <c r="J64" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>967</v>
+      </c>
       <c r="L64" s="24"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="73"/>
+      <c r="M64" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="N64" s="106"/>
     </row>
     <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
-        <v>70</v>
-      </c>
-      <c r="B65" s="102"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="22" t="s">
-        <v>91</v>
+        <v>68</v>
+      </c>
+      <c r="B65" s="109"/>
+      <c r="C65" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="E65" s="33">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="F65" s="13">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="22">
         <v>1</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H65" s="33">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="24"/>
       <c r="K65" s="13"/>
       <c r="L65" s="24"/>
-      <c r="M65" s="45"/>
+      <c r="M65" s="13"/>
       <c r="N65" s="73"/>
     </row>
     <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
-        <v>71</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="100" t="s">
-        <v>45</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="13" t="s">
-        <v>781</v>
+        <v>90</v>
       </c>
       <c r="E66" s="33">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>400</v>
       </c>
       <c r="F66" s="13">
         <v>1</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H66" s="33">
-        <v>4500</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="J66" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="K66" s="24"/>
+        <v>400</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="24"/>
-      <c r="M66" s="45" t="s">
-        <v>786</v>
-      </c>
+      <c r="M66" s="13"/>
       <c r="N66" s="73"/>
     </row>
     <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
-        <v>72</v>
-      </c>
-      <c r="B67" s="102"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="13" t="s">
-        <v>93</v>
+        <v>70</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="E67" s="33">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F67" s="13">
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H67" s="33">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="24"/>
       <c r="M67" s="45"/>
       <c r="N67" s="73"/>
     </row>
     <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
-        <v>73</v>
-      </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="100"/>
+        <v>71</v>
+      </c>
+      <c r="B68" s="109"/>
+      <c r="C68" s="107" t="s">
+        <v>45</v>
+      </c>
       <c r="D68" s="13" t="s">
-        <v>94</v>
+        <v>780</v>
       </c>
       <c r="E68" s="33">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="F68" s="13">
         <v>1</v>
@@ -7216,27 +7548,33 @@
         <v>38</v>
       </c>
       <c r="H68" s="33">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
+        <v>4500</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>782</v>
+      </c>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
-      <c r="M68" s="45"/>
+      <c r="M68" s="45" t="s">
+        <v>785</v>
+      </c>
       <c r="N68" s="73"/>
     </row>
     <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
-        <v>74</v>
-      </c>
-      <c r="B69" s="102"/>
-      <c r="C69" s="100"/>
+        <v>72</v>
+      </c>
+      <c r="B69" s="109"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="33">
         <f t="shared" si="2"/>
-        <v>3636</v>
+        <v>2000</v>
       </c>
       <c r="F69" s="13">
         <v>1</v>
@@ -7245,66 +7583,56 @@
         <v>38</v>
       </c>
       <c r="H69" s="33">
-        <v>3636</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>795</v>
-      </c>
-      <c r="J69" s="73" t="s">
-        <v>766</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="M69" s="45"/>
-      <c r="N69" s="73" t="s">
-        <v>785</v>
-      </c>
+      <c r="N69" s="73"/>
     </row>
     <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="73"/>
-      <c r="B70" s="102"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="73" t="s">
-        <v>793</v>
+      <c r="A70" s="13">
+        <v>73</v>
+      </c>
+      <c r="B70" s="109"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E70" s="33">
         <f t="shared" si="2"/>
-        <v>3698.5</v>
-      </c>
-      <c r="F70" s="73">
-        <v>1</v>
-      </c>
-      <c r="G70" s="73" t="s">
-        <v>792</v>
+        <v>1000</v>
+      </c>
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="H70" s="33">
-        <v>3698.5</v>
-      </c>
-      <c r="I70" s="73" t="s">
-        <v>796</v>
-      </c>
-      <c r="J70" s="73" t="s">
-        <v>791</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
-      <c r="M70" s="45" t="s">
-        <v>790</v>
-      </c>
-      <c r="N70" s="73" t="s">
-        <v>794</v>
-      </c>
+      <c r="M70" s="45"/>
+      <c r="N70" s="73"/>
     </row>
     <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="63" t="s">
-        <v>96</v>
+      <c r="A71" s="13">
+        <v>74</v>
+      </c>
+      <c r="B71" s="109"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E71" s="33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="F71" s="13">
         <v>1</v>
@@ -7312,242 +7640,252 @@
       <c r="G71" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="33"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
+      <c r="H71" s="33">
+        <v>3636</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="J71" s="73" t="s">
+        <v>766</v>
+      </c>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="45"/>
-      <c r="N71" s="73"/>
+      <c r="N71" s="73" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13">
-        <v>75</v>
-      </c>
-      <c r="B72" s="102"/>
-      <c r="C72" s="100"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="73" t="s">
-        <v>97</v>
+        <v>791</v>
       </c>
       <c r="E72" s="33">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>3698.5</v>
       </c>
       <c r="F72" s="73">
         <v>1</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>38</v>
+        <v>790</v>
       </c>
       <c r="H72" s="33">
-        <v>150</v>
-      </c>
-      <c r="I72" s="73"/>
-      <c r="J72" s="13"/>
+        <v>3698.5</v>
+      </c>
+      <c r="I72" s="73" t="s">
+        <v>794</v>
+      </c>
+      <c r="J72" s="73" t="s">
+        <v>789</v>
+      </c>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="73"/>
+      <c r="M72" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="N72" s="73" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="72" t="s">
-        <v>762</v>
-      </c>
-      <c r="D73" s="73" t="s">
-        <v>763</v>
+      <c r="A73" s="13"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="E73" s="33">
-        <v>350</v>
-      </c>
-      <c r="F73" s="73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="73" t="s">
-        <v>764</v>
-      </c>
-      <c r="H73" s="33">
-        <v>300</v>
-      </c>
-      <c r="I73" s="73" t="s">
-        <v>779</v>
-      </c>
-      <c r="J73" s="91" t="s">
-        <v>780</v>
-      </c>
-      <c r="K73" s="24" t="s">
-        <v>765</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="33"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="24"/>
       <c r="L73" s="24"/>
-      <c r="M73" s="90" t="s">
-        <v>788</v>
-      </c>
+      <c r="M73" s="45"/>
       <c r="N73" s="73"/>
     </row>
     <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="13">
-        <v>77</v>
-      </c>
-      <c r="B74" s="103"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="108"/>
-      <c r="H74" s="108"/>
-      <c r="I74" s="108"/>
-      <c r="J74" s="108"/>
-      <c r="K74" s="108"/>
-      <c r="L74" s="109"/>
-      <c r="M74" s="66">
-        <f>SUM(E52:E72)</f>
-        <v>49044.5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B74" s="109"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="33">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="F74" s="73">
+        <v>1</v>
+      </c>
+      <c r="G74" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="33">
+        <v>150</v>
+      </c>
+      <c r="I74" s="73"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="73"/>
     </row>
     <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13">
-        <v>78</v>
-      </c>
-      <c r="B75" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>80</v>
+      <c r="A75" s="73"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="72" t="s">
+        <v>762</v>
+      </c>
+      <c r="D75" s="73" t="s">
+        <v>763</v>
       </c>
       <c r="E75" s="33">
-        <f>F75*H75</f>
-        <v>3570</v>
-      </c>
-      <c r="F75" s="13">
-        <v>119</v>
-      </c>
-      <c r="G75" s="89" t="s">
-        <v>898</v>
-      </c>
-      <c r="H75" s="39">
-        <v>30</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="24" t="s">
-        <v>899</v>
+        <v>350</v>
+      </c>
+      <c r="F75" s="73">
+        <v>1</v>
+      </c>
+      <c r="G75" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="H75" s="33">
+        <v>300</v>
+      </c>
+      <c r="I75" s="73" t="s">
+        <v>778</v>
+      </c>
+      <c r="J75" s="91" t="s">
+        <v>779</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="L75" s="24"/>
+      <c r="M75" s="90" t="s">
+        <v>787</v>
       </c>
       <c r="N75" s="73"/>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13">
-        <v>79</v>
-      </c>
-      <c r="B76" s="102"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="33">
-        <f t="shared" ref="E76:E92" si="3">F76*H76</f>
-        <v>1800</v>
-      </c>
-      <c r="F76" s="13">
-        <v>60</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="H76" s="39">
-        <v>30</v>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="24" t="s">
-        <v>900</v>
-      </c>
-      <c r="N76" s="73"/>
+        <v>77</v>
+      </c>
+      <c r="B76" s="110"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="116"/>
+      <c r="M76" s="66">
+        <f>SUM(E53:E74)</f>
+        <v>50014.5</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="13">
+        <v>78</v>
+      </c>
+      <c r="B77" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="102"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="68" t="s">
-        <v>100</v>
-      </c>
       <c r="E77" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
+        <f>F77*H77</f>
+        <v>3570</v>
+      </c>
+      <c r="F77" s="13">
+        <v>119</v>
+      </c>
+      <c r="G77" s="89" t="s">
+        <v>890</v>
+      </c>
       <c r="H77" s="39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="24"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="24"/>
+      <c r="M77" s="24" t="s">
+        <v>891</v>
+      </c>
       <c r="N77" s="73"/>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="13">
-        <v>81</v>
-      </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="100"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="109"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E78" s="33">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f t="shared" ref="E78:E94" si="3">F78*H78</f>
+        <v>1800</v>
       </c>
       <c r="F78" s="13">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>101</v>
+        <v>890</v>
       </c>
       <c r="H78" s="39">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="24"/>
       <c r="L78" s="12"/>
-      <c r="M78" s="24"/>
+      <c r="M78" s="24" t="s">
+        <v>892</v>
+      </c>
       <c r="N78" s="73"/>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="13">
-        <v>82</v>
-      </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="13" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="B79" s="109"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E79" s="33">
         <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="F79" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -7558,30 +7896,28 @@
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="13">
-        <v>83</v>
-      </c>
-      <c r="B80" s="102"/>
-      <c r="C80" s="100"/>
+        <v>81</v>
+      </c>
+      <c r="B80" s="109"/>
+      <c r="C80" s="107"/>
       <c r="D80" s="13" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E80" s="33">
         <f t="shared" si="3"/>
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="13">
         <v>1</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H80" s="39">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="I80" s="13"/>
-      <c r="J80" s="13" t="s">
-        <v>797</v>
-      </c>
+      <c r="J80" s="13"/>
       <c r="K80" s="24"/>
       <c r="L80" s="12"/>
       <c r="M80" s="24"/>
@@ -7589,25 +7925,25 @@
     </row>
     <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="13">
-        <v>84</v>
-      </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="100"/>
+        <v>82</v>
+      </c>
+      <c r="B81" s="109"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E81" s="33">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>660</v>
       </c>
       <c r="F81" s="13">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H81" s="39">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -7618,16 +7954,16 @@
     </row>
     <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="13">
-        <v>85</v>
-      </c>
-      <c r="B82" s="102"/>
-      <c r="C82" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="B82" s="109"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E82" s="33">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F82" s="13">
         <v>1</v>
@@ -7636,10 +7972,12 @@
         <v>38</v>
       </c>
       <c r="H82" s="39">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>795</v>
+      </c>
       <c r="K82" s="24"/>
       <c r="L82" s="12"/>
       <c r="M82" s="24"/>
@@ -7647,25 +7985,25 @@
     </row>
     <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="13">
-        <v>86</v>
-      </c>
-      <c r="B83" s="102"/>
-      <c r="C83" s="100"/>
+        <v>84</v>
+      </c>
+      <c r="B83" s="109"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E83" s="33">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="13">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H83" s="39">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -7676,25 +8014,25 @@
     </row>
     <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="13">
-        <v>88</v>
-      </c>
-      <c r="B84" s="102"/>
-      <c r="C84" s="100"/>
+        <v>85</v>
+      </c>
+      <c r="B84" s="109"/>
+      <c r="C84" s="107"/>
       <c r="D84" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E84" s="33">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="F84" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H84" s="39">
-        <v>30</v>
+        <v>2500</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -7704,24 +8042,26 @@
       <c r="N84" s="73"/>
     </row>
     <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="100"/>
+      <c r="A85" s="13">
+        <v>86</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" s="33">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F85" s="13">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="H85" s="39">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -7732,25 +8072,25 @@
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="13">
-        <v>89</v>
-      </c>
-      <c r="B86" s="102"/>
-      <c r="C86" s="100"/>
+        <v>88</v>
+      </c>
+      <c r="B86" s="109"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E86" s="33">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="F86" s="13">
         <v>2</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H86" s="39">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -7760,26 +8100,24 @@
       <c r="N86" s="73"/>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="13">
-        <v>90</v>
-      </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="101" t="s">
-        <v>28</v>
-      </c>
+      <c r="A87" s="13"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="107"/>
       <c r="D87" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E87" s="33">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F87" s="13">
-        <v>1</v>
-      </c>
-      <c r="G87" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" s="39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -7790,21 +8128,25 @@
     </row>
     <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="13">
-        <v>91</v>
-      </c>
-      <c r="B88" s="102"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="68" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="B88" s="109"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E88" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
+        <v>400</v>
+      </c>
+      <c r="F88" s="13">
+        <v>2</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H88" s="39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -7815,95 +8157,93 @@
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="13">
-        <v>92</v>
-      </c>
-      <c r="B89" s="102"/>
-      <c r="C89" s="102"/>
+        <v>90</v>
+      </c>
+      <c r="B89" s="109"/>
+      <c r="C89" s="108" t="s">
+        <v>28</v>
+      </c>
       <c r="D89" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E89" s="33">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F89" s="13">
         <v>1</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="39">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
+      <c r="L89" s="12"/>
       <c r="M89" s="24"/>
       <c r="N89" s="73"/>
     </row>
     <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="13">
-        <v>93</v>
-      </c>
-      <c r="B90" s="102"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="13" t="s">
-        <v>114</v>
+        <v>91</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="E90" s="33">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="F90" s="13">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
+      <c r="L90" s="12"/>
       <c r="M90" s="24"/>
       <c r="N90" s="73"/>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="13">
-        <v>94</v>
-      </c>
-      <c r="B91" s="102"/>
-      <c r="C91" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E91" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" s="13">
         <v>1</v>
       </c>
       <c r="G91" s="13"/>
-      <c r="H91" s="33">
-        <v>0</v>
+      <c r="H91" s="39">
+        <v>100</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
       <c r="K91" s="24"/>
       <c r="L91" s="24"/>
-      <c r="M91" s="45"/>
+      <c r="M91" s="24"/>
       <c r="N91" s="73"/>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13">
-        <v>95</v>
-      </c>
-      <c r="B92" s="102"/>
-      <c r="C92" s="100"/>
+        <v>93</v>
+      </c>
+      <c r="B92" s="109"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="13" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E92" s="33">
         <f t="shared" si="3"/>
@@ -7913,121 +8253,119 @@
         <v>1</v>
       </c>
       <c r="G92" s="13"/>
-      <c r="H92" s="33">
+      <c r="H92" s="39">
         <v>100</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
       <c r="K92" s="24"/>
       <c r="L92" s="24"/>
-      <c r="M92" s="45"/>
+      <c r="M92" s="24"/>
       <c r="N92" s="73"/>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13">
-        <v>97</v>
-      </c>
-      <c r="B93" s="103"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="108"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="108"/>
-      <c r="L93" s="109"/>
-      <c r="M93" s="69">
-        <f>SUM(E75:E92)</f>
-        <v>16090</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="33">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="73"/>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="13">
-        <v>98</v>
-      </c>
-      <c r="B94" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94" s="100" t="s">
-        <v>13</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B94" s="109"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="13" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E94" s="33">
-        <f>F94*H94</f>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="F94" s="13">
         <v>1</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="G94" s="13"/>
       <c r="H94" s="33">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
       <c r="K94" s="24"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="45"/>
       <c r="N94" s="73"/>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="13">
-        <v>99</v>
-      </c>
-      <c r="B95" s="102"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E95" s="33">
-        <f t="shared" ref="E95:E107" si="4">F95*H95</f>
-        <v>600</v>
-      </c>
-      <c r="F95" s="13">
-        <v>6</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" s="33">
-        <v>100</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="73"/>
+        <v>97</v>
+      </c>
+      <c r="B95" s="110"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="115"/>
+      <c r="F95" s="115"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="115"/>
+      <c r="I95" s="115"/>
+      <c r="J95" s="115"/>
+      <c r="K95" s="115"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="69">
+        <f>SUM(E77:E94)</f>
+        <v>16090</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13">
-        <v>100</v>
-      </c>
-      <c r="B96" s="102"/>
-      <c r="C96" s="100"/>
+        <v>98</v>
+      </c>
+      <c r="B96" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="107" t="s">
+        <v>13</v>
+      </c>
       <c r="D96" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E96" s="33">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f>F96*H96</f>
+        <v>2000</v>
       </c>
       <c r="F96" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H96" s="33">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -8038,25 +8376,25 @@
     </row>
     <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13">
-        <v>101</v>
-      </c>
-      <c r="B97" s="102"/>
-      <c r="C97" s="100"/>
-      <c r="D97" s="13" t="s">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="B97" s="109"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="E97" s="33">
-        <f t="shared" si="4"/>
-        <v>270</v>
+        <f t="shared" ref="E97:E109" si="4">F97*H97</f>
+        <v>600</v>
       </c>
       <c r="F97" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H97" s="33">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -8067,25 +8405,25 @@
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="13">
-        <v>103</v>
-      </c>
-      <c r="B98" s="102"/>
-      <c r="C98" s="100"/>
+        <v>100</v>
+      </c>
+      <c r="B98" s="109"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" s="33">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F98" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H98" s="33">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -8096,25 +8434,25 @@
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="13">
-        <v>104</v>
-      </c>
-      <c r="B99" s="102"/>
-      <c r="C99" s="100"/>
+        <v>101</v>
+      </c>
+      <c r="B99" s="109"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="13" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="E99" s="33">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="F99" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H99" s="33">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -8125,176 +8463,174 @@
     </row>
     <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="13">
-        <v>109</v>
-      </c>
-      <c r="B100" s="102"/>
-      <c r="C100" s="101" t="s">
-        <v>34</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B100" s="109"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E100" s="33">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F100" s="13">
         <v>1</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H100" s="33">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="13"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="24"/>
       <c r="N100" s="73"/>
     </row>
     <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="13">
-        <v>110</v>
-      </c>
-      <c r="B101" s="102"/>
-      <c r="C101" s="102"/>
+        <v>104</v>
+      </c>
+      <c r="B101" s="109"/>
+      <c r="C101" s="107"/>
       <c r="D101" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="33">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="F101" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H101" s="33">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="13"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="24"/>
       <c r="N101" s="73"/>
     </row>
     <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="13">
-        <v>111</v>
-      </c>
-      <c r="B102" s="102"/>
-      <c r="C102" s="103"/>
+        <v>109</v>
+      </c>
+      <c r="B102" s="109"/>
+      <c r="C102" s="108" t="s">
+        <v>34</v>
+      </c>
       <c r="D102" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E102" s="33">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F102" s="13">
         <v>1</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H102" s="33">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
       <c r="L102" s="24"/>
-      <c r="M102" s="45"/>
+      <c r="M102" s="13"/>
       <c r="N102" s="73"/>
     </row>
     <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="13">
-        <v>112</v>
-      </c>
-      <c r="B103" s="102"/>
-      <c r="C103" s="100" t="s">
-        <v>45</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E103" s="33">
         <f t="shared" si="4"/>
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="F103" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H103" s="33">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
-      <c r="K103" s="24"/>
+      <c r="K103" s="13"/>
       <c r="L103" s="24"/>
-      <c r="M103" s="45"/>
+      <c r="M103" s="13"/>
       <c r="N103" s="73"/>
     </row>
     <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="13">
-        <v>113</v>
-      </c>
-      <c r="B104" s="102"/>
-      <c r="C104" s="100"/>
+        <v>111</v>
+      </c>
+      <c r="B104" s="109"/>
+      <c r="C104" s="110"/>
       <c r="D104" s="13" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E104" s="33">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F104" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H104" s="33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
-      <c r="K104" s="24"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="24"/>
       <c r="M104" s="45"/>
       <c r="N104" s="73"/>
     </row>
     <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="13">
-        <v>114</v>
-      </c>
-      <c r="B105" s="102"/>
-      <c r="C105" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="63" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="B105" s="109"/>
+      <c r="C105" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="E105" s="33">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F105" s="13">
         <v>1</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H105" s="33">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -8305,25 +8641,25 @@
     </row>
     <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="13">
-        <v>115</v>
-      </c>
-      <c r="B106" s="102"/>
-      <c r="C106" s="100"/>
+        <v>113</v>
+      </c>
+      <c r="B106" s="109"/>
+      <c r="C106" s="107"/>
       <c r="D106" s="13" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E106" s="33">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="F106" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="H106" s="33">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -8334,16 +8670,18 @@
     </row>
     <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="13">
-        <v>116</v>
-      </c>
-      <c r="B107" s="102"/>
-      <c r="C107" s="100"/>
+        <v>114</v>
+      </c>
+      <c r="B107" s="109"/>
+      <c r="C107" s="107" t="s">
+        <v>52</v>
+      </c>
       <c r="D107" s="63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E107" s="33">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F107" s="13">
         <v>1</v>
@@ -8352,7 +8690,7 @@
         <v>55</v>
       </c>
       <c r="H107" s="33">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
@@ -8363,78 +8701,96 @@
     </row>
     <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13">
-        <v>119</v>
-      </c>
-      <c r="B108" s="103"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="109"/>
-      <c r="M108" s="69">
-        <f>SUM(E94:E107)</f>
-        <v>12120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B108" s="109"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="33">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="F108" s="13">
+        <v>1</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H108" s="33">
+        <v>1500</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="73"/>
     </row>
     <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13">
-        <v>120</v>
-      </c>
-      <c r="B109" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="57"/>
+        <v>116</v>
+      </c>
+      <c r="B109" s="109"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="33">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="F109" s="13">
+        <v>1</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" s="33">
+        <v>150</v>
+      </c>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
       <c r="K109" s="24"/>
       <c r="L109" s="24"/>
-      <c r="M109" s="56"/>
+      <c r="M109" s="45"/>
       <c r="N109" s="73"/>
     </row>
     <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13">
-        <v>121</v>
-      </c>
-      <c r="B110" s="102"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="73"/>
+        <v>119</v>
+      </c>
+      <c r="B110" s="110"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="116"/>
+      <c r="M110" s="69">
+        <f>SUM(E96:E109)</f>
+        <v>12120</v>
+      </c>
     </row>
     <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13">
-        <v>122</v>
-      </c>
-      <c r="B111" s="102"/>
-      <c r="C111" s="100"/>
+        <v>120</v>
+      </c>
+      <c r="B111" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="107" t="s">
+        <v>133</v>
+      </c>
       <c r="D111" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="13"/>
@@ -8449,12 +8805,12 @@
     </row>
     <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13">
-        <v>123</v>
-      </c>
-      <c r="B112" s="102"/>
-      <c r="C112" s="100"/>
+        <v>121</v>
+      </c>
+      <c r="B112" s="109"/>
+      <c r="C112" s="107"/>
       <c r="D112" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="13"/>
@@ -8469,35 +8825,32 @@
     </row>
     <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13">
-        <v>119</v>
-      </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="108"/>
-      <c r="H113" s="108"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="108"/>
-      <c r="K113" s="108"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="69">
-        <v>800</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B113" s="109"/>
+      <c r="C113" s="107"/>
+      <c r="D113" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="73"/>
     </row>
     <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13">
-        <v>120</v>
-      </c>
-      <c r="B114" s="102"/>
-      <c r="C114" s="100" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B114" s="109"/>
+      <c r="C114" s="107"/>
       <c r="D114" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="13"/>
@@ -8507,41 +8860,40 @@
       <c r="J114" s="13"/>
       <c r="K114" s="24"/>
       <c r="L114" s="24"/>
-      <c r="M114" s="39">
-        <v>1000</v>
-      </c>
+      <c r="M114" s="56"/>
       <c r="N114" s="73"/>
     </row>
     <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13">
-        <v>121</v>
-      </c>
-      <c r="B115" s="102"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="39">
-        <v>500</v>
-      </c>
-      <c r="N115" s="73"/>
+        <v>119</v>
+      </c>
+      <c r="B115" s="109"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" s="115"/>
+      <c r="F115" s="115"/>
+      <c r="G115" s="115"/>
+      <c r="H115" s="115"/>
+      <c r="I115" s="115"/>
+      <c r="J115" s="115"/>
+      <c r="K115" s="115"/>
+      <c r="L115" s="116"/>
+      <c r="M115" s="69">
+        <v>800</v>
+      </c>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13">
-        <v>122</v>
-      </c>
-      <c r="B116" s="102"/>
-      <c r="C116" s="100"/>
+        <v>120</v>
+      </c>
+      <c r="B116" s="109"/>
+      <c r="C116" s="107" t="s">
+        <v>139</v>
+      </c>
       <c r="D116" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="13"/>
@@ -8552,18 +8904,18 @@
       <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="39">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N116" s="73"/>
     </row>
     <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="13">
-        <v>123</v>
-      </c>
-      <c r="B117" s="102"/>
-      <c r="C117" s="100"/>
+        <v>121</v>
+      </c>
+      <c r="B117" s="109"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="13"/>
@@ -8574,240 +8926,287 @@
       <c r="K117" s="24"/>
       <c r="L117" s="24"/>
       <c r="M117" s="39">
+        <v>500</v>
+      </c>
+      <c r="N117" s="73"/>
+    </row>
+    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="13">
+        <v>122</v>
+      </c>
+      <c r="B118" s="109"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="39">
+        <v>100</v>
+      </c>
+      <c r="N118" s="73"/>
+    </row>
+    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="13">
+        <v>123</v>
+      </c>
+      <c r="B119" s="109"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="39">
         <v>400</v>
       </c>
-      <c r="N117" s="73"/>
-    </row>
-    <row r="118" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="49"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="51"/>
-      <c r="K118" s="51"/>
-      <c r="L118" s="51"/>
-      <c r="M118" s="51"/>
-      <c r="N118" s="50"/>
-    </row>
-    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="104" t="s">
+      <c r="N119" s="73"/>
+    </row>
+    <row r="120" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="49"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="50"/>
+    </row>
+    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="106"/>
-      <c r="M119" s="59">
-        <f>M31+M51+M74+M93+M108+M113+M114+M115+M116+M117</f>
-        <v>113416.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="104" t="s">
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="112"/>
+      <c r="F121" s="112"/>
+      <c r="G121" s="112"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="112"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="113"/>
+      <c r="M121" s="59">
+        <f>M32+M52+M76+M95+M110+M115+M116+M117+M118+M119</f>
+        <v>120086.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="106"/>
-      <c r="M120" s="59">
-        <f>SUM(E2:E12)+E30+SUM(E32:E36)+SUM(E52:E60)+SUM(E75:E86)+SUM(E94:E99)</f>
+      <c r="B122" s="112"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="112"/>
+      <c r="E122" s="112"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="112"/>
+      <c r="I122" s="112"/>
+      <c r="J122" s="112"/>
+      <c r="K122" s="112"/>
+      <c r="L122" s="113"/>
+      <c r="M122" s="59">
+        <f>SUM(E2:E12)+E31+SUM(E33:E37)+SUM(E53:E61)+SUM(E77:E88)+SUM(E96:E101)</f>
         <v>52507</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="104" t="s">
+    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B121" s="105"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="106"/>
-      <c r="M121" s="59">
-        <f>SUM(E100:E102,E39:E43,E16:E22)</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="104" t="s">
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="112"/>
+      <c r="F123" s="112"/>
+      <c r="G123" s="112"/>
+      <c r="H123" s="112"/>
+      <c r="I123" s="112"/>
+      <c r="J123" s="112"/>
+      <c r="K123" s="112"/>
+      <c r="L123" s="113"/>
+      <c r="M123" s="59">
+        <f>SUM(E102:E104,E40:E44,E16:E22)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="106"/>
-      <c r="M122" s="59">
-        <f>SUM(E66:E72,E91:E92,E103:E104,E44:E46,E23:E26)</f>
-        <v>21244.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="104" t="s">
+      <c r="B124" s="112"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="112"/>
+      <c r="E124" s="112"/>
+      <c r="F124" s="112"/>
+      <c r="G124" s="112"/>
+      <c r="H124" s="112"/>
+      <c r="I124" s="112"/>
+      <c r="J124" s="112"/>
+      <c r="K124" s="112"/>
+      <c r="L124" s="113"/>
+      <c r="M124" s="59">
+        <f>SUM(E68:E74,E93:E94,E105:E106,E45:E47,E23:E27)</f>
+        <v>25444.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="B123" s="105"/>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="106"/>
-      <c r="M123" s="59">
-        <f>SUM(E105:E107,E48:E50,E27:E29,E63:E65)</f>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="112"/>
+      <c r="H125" s="112"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
+      <c r="L125" s="113"/>
+      <c r="M125" s="59">
+        <f>SUM(E107:E109,E49:E51,E28:E30,E65:E67)</f>
         <v>6250</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="104" t="s">
+    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="106"/>
-      <c r="M124" s="59">
+      <c r="B126" s="112"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="112"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="112"/>
+      <c r="I126" s="112"/>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="113"/>
+      <c r="M126" s="59">
         <v>2000</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="104" t="s">
+    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="B125" s="105"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="106"/>
-      <c r="M125" s="59">
-        <f>SUM(E37:E38,E13:E15,E61:E62,E88:E90)</f>
+      <c r="B127" s="112"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="112"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="112"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="112"/>
+      <c r="L127" s="113"/>
+      <c r="M127" s="59">
+        <f>SUM(E38:E39,E13:E15,E62:E63,E90:E92)</f>
         <v>18615</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="104" t="s">
+    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="106"/>
-      <c r="M126" s="59">
-        <f>SUM(M113:M117)</f>
+      <c r="B128" s="112"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="112"/>
+      <c r="E128" s="112"/>
+      <c r="F128" s="112"/>
+      <c r="G128" s="112"/>
+      <c r="H128" s="112"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="112"/>
+      <c r="K128" s="112"/>
+      <c r="L128" s="113"/>
+      <c r="M128" s="59">
+        <f>SUM(M115:M119)</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M127" s="28" t="s">
-        <v>908</v>
+    <row r="129" spans="13:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M129" s="28" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D113:L113"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D51:L51"/>
-    <mergeCell ref="D74:L74"/>
-    <mergeCell ref="D93:L93"/>
-    <mergeCell ref="D108:L108"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A125:L125"/>
-    <mergeCell ref="A126:L126"/>
-    <mergeCell ref="B2:B31"/>
-    <mergeCell ref="B32:B51"/>
-    <mergeCell ref="B52:B74"/>
-    <mergeCell ref="B75:B93"/>
-    <mergeCell ref="B94:B108"/>
-    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="D115:L115"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="D76:L76"/>
+    <mergeCell ref="D95:L95"/>
+    <mergeCell ref="D110:L110"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="A127:L127"/>
+    <mergeCell ref="A128:L128"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B52"/>
+    <mergeCell ref="B53:B76"/>
+    <mergeCell ref="B77:B95"/>
+    <mergeCell ref="B96:B110"/>
+    <mergeCell ref="B111:B119"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A119:L119"/>
-    <mergeCell ref="A120:L120"/>
     <mergeCell ref="A121:L121"/>
     <mergeCell ref="A122:L122"/>
     <mergeCell ref="A123:L123"/>
     <mergeCell ref="A124:L124"/>
-    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="A125:L125"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="C68:C74"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C52:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C109:C112"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C53:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C77:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C106"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M17" r:id="rId1" display="https://product.suning.com/0070068275/690791074.html?utm_source=union&amp;utm_medium=14&amp;utm_campaign=02a0ea2b-abe5-4660-9aa6-72412ffa4ae9"/>
+  </hyperlinks>
   <pageMargins left="0.44" right="0.53" top="0.65" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9301,7 +9700,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="114"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9336,7 +9735,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="114"/>
+      <c r="M14" s="121"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12839,167 +13238,167 @@
       <c r="N119" s="51"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="104" t="s">
+      <c r="A120" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="106"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="120"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="112"/>
+      <c r="H120" s="112"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="112"/>
+      <c r="L120" s="112"/>
+      <c r="M120" s="113"/>
       <c r="N120" s="59">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="104" t="s">
+      <c r="A121" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="105"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="106"/>
+      <c r="B121" s="112"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="112"/>
+      <c r="G121" s="112"/>
+      <c r="H121" s="112"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="112"/>
+      <c r="K121" s="112"/>
+      <c r="L121" s="112"/>
+      <c r="M121" s="113"/>
       <c r="N121" s="59">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="104" t="s">
+      <c r="A122" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="113"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="105"/>
-      <c r="M122" s="106"/>
+      <c r="B122" s="112"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="112"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="112"/>
+      <c r="I122" s="112"/>
+      <c r="J122" s="112"/>
+      <c r="K122" s="112"/>
+      <c r="L122" s="112"/>
+      <c r="M122" s="113"/>
       <c r="N122" s="59">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="104" t="s">
+      <c r="A123" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="105"/>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="105"/>
-      <c r="M123" s="106"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="120"/>
+      <c r="F123" s="112"/>
+      <c r="G123" s="112"/>
+      <c r="H123" s="112"/>
+      <c r="I123" s="112"/>
+      <c r="J123" s="112"/>
+      <c r="K123" s="112"/>
+      <c r="L123" s="112"/>
+      <c r="M123" s="113"/>
       <c r="N123" s="59">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="104" t="s">
+      <c r="A124" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="105"/>
-      <c r="M124" s="106"/>
+      <c r="B124" s="112"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="112"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="112"/>
+      <c r="G124" s="112"/>
+      <c r="H124" s="112"/>
+      <c r="I124" s="112"/>
+      <c r="J124" s="112"/>
+      <c r="K124" s="112"/>
+      <c r="L124" s="112"/>
+      <c r="M124" s="113"/>
       <c r="N124" s="59">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="104" t="s">
+      <c r="A125" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="105"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="105"/>
-      <c r="M125" s="106"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="112"/>
+      <c r="H125" s="112"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
+      <c r="L125" s="112"/>
+      <c r="M125" s="113"/>
       <c r="N125" s="59">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="113"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
-      <c r="M126" s="106"/>
+      <c r="B126" s="112"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="120"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="112"/>
+      <c r="H126" s="112"/>
+      <c r="I126" s="112"/>
+      <c r="J126" s="112"/>
+      <c r="K126" s="112"/>
+      <c r="L126" s="112"/>
+      <c r="M126" s="113"/>
       <c r="N126" s="59">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="104" t="s">
+      <c r="A127" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="105"/>
-      <c r="C127" s="105"/>
-      <c r="D127" s="105"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="105"/>
-      <c r="G127" s="105"/>
-      <c r="H127" s="105"/>
-      <c r="I127" s="105"/>
-      <c r="J127" s="105"/>
-      <c r="K127" s="105"/>
-      <c r="L127" s="105"/>
-      <c r="M127" s="106"/>
+      <c r="B127" s="112"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="112"/>
+      <c r="G127" s="112"/>
+      <c r="H127" s="112"/>
+      <c r="I127" s="112"/>
+      <c r="J127" s="112"/>
+      <c r="K127" s="112"/>
+      <c r="L127" s="112"/>
+      <c r="M127" s="113"/>
       <c r="N127" s="59">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -13625,14 +14024,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="6.875" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
@@ -13752,7 +14151,7 @@
         <v>737</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>767</v>
+        <v>907</v>
       </c>
       <c r="D5" s="83">
         <v>1</v>
@@ -13808,73 +14207,169 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="83"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="B9" s="87" t="s">
+        <v>904</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>905</v>
+      </c>
+      <c r="D9" s="87">
+        <v>1</v>
+      </c>
+      <c r="E9" s="87">
+        <v>198</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>906</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>743</v>
+      </c>
       <c r="H9" s="83"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="87" t="s">
+        <v>909</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>908</v>
+      </c>
+      <c r="D10" s="87">
+        <v>1</v>
+      </c>
+      <c r="E10" s="87">
+        <v>1449</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>910</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>911</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="83" t="s">
+        <v>946</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>944</v>
+      </c>
+      <c r="D11" s="83">
+        <v>1</v>
+      </c>
+      <c r="E11" s="83">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>947</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>945</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="B12" s="83" t="s">
+        <v>949</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>950</v>
+      </c>
+      <c r="D12" s="83">
+        <v>1</v>
+      </c>
+      <c r="E12" s="83">
+        <v>900</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>951</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>952</v>
+      </c>
+      <c r="H12" s="83" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="B13" s="83" t="s">
+        <v>953</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>954</v>
+      </c>
+      <c r="D13" s="83">
+        <v>1</v>
+      </c>
+      <c r="E13" s="83">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>955</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>945</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="B14" s="83" t="s">
+        <v>956</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>957</v>
+      </c>
+      <c r="D14" s="83">
+        <v>1</v>
+      </c>
+      <c r="E14" s="83">
+        <v>1300</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>958</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>959</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="B15" s="83" t="s">
+        <v>961</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>962</v>
+      </c>
+      <c r="D15" s="83">
+        <v>1</v>
+      </c>
+      <c r="E15" s="83">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>955</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>963</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="83"/>
@@ -14006,24 +14501,25 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="76"/>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="122" t="s">
         <v>625</v>
       </c>
       <c r="C28" s="76"/>
       <c r="D28" s="76"/>
-      <c r="E28" s="76">
+      <c r="E28" s="123">
         <f>SUM(E2:E27)</f>
-        <v>11606.5</v>
+        <v>26953.5</v>
       </c>
       <c r="F28" s="76"/>
       <c r="G28" s="76"/>
       <c r="H28" s="76"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14031,7 +14527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -17590,10 +18086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -17618,7 +18114,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>5</v>
@@ -17627,7 +18123,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I1" s="70" t="s">
         <v>11</v>
@@ -17636,14 +18132,14 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="70"/>
       <c r="B2" s="71"/>
-      <c r="C2" s="101" t="s">
-        <v>799</v>
+      <c r="C2" s="108" t="s">
+        <v>797</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F2" s="42">
         <v>1</v>
@@ -17655,12 +18151,12 @@
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="102"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="73" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F3" s="42">
         <v>1</v>
@@ -17669,39 +18165,36 @@
       <c r="H3" s="71"/>
       <c r="I3" s="70"/>
       <c r="L3" s="97" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="M3" s="97"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="73" t="s">
-        <v>827</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>855</v>
-      </c>
-      <c r="F4" s="42">
-        <v>1</v>
-      </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="70"/>
-      <c r="L4" s="97" t="s">
-        <v>884</v>
-      </c>
+      <c r="A4" s="105"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="106" t="s">
+        <v>913</v>
+      </c>
+      <c r="E4" s="106"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105" t="s">
+        <v>914</v>
+      </c>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
       <c r="B5" s="71"/>
-      <c r="C5" s="102"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="73" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
@@ -17710,18 +18203,18 @@
       <c r="H5" s="71"/>
       <c r="I5" s="70"/>
       <c r="L5" s="97" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="92" t="s">
-        <v>854</v>
+      <c r="C6" s="109"/>
+      <c r="D6" s="73" t="s">
+        <v>823</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -17729,254 +18222,266 @@
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
       <c r="I6" s="70"/>
+      <c r="L6" s="97" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="73">
-        <v>1</v>
-      </c>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>850</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="106">
+        <v>1</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>796</v>
+      </c>
+      <c r="C8" s="107" t="s">
         <v>798</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>800</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>825</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>823</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="73">
-        <v>2</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="100"/>
       <c r="D8" s="73" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F8" s="73">
         <v>1</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="73"/>
-      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="73">
-        <v>3</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="100"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="73" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="F9" s="73">
         <v>1</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I9" s="24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A10" s="73">
-        <v>4</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="73" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F10" s="73">
         <v>1</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="73">
-        <v>5</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="73" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F11" s="73">
         <v>1</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="73">
-        <v>6</v>
-      </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="109"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="73" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F12" s="73">
         <v>1</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="101" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="73">
-        <v>7</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="92" t="s">
-        <v>807</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>829</v>
-      </c>
-      <c r="F13" s="92">
-        <v>1</v>
-      </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="94"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="73" t="s">
+        <v>804</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>810</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="24" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="73">
-        <v>8</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="100"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="92" t="s">
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="E14" s="92" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="F14" s="92">
         <v>1</v>
       </c>
       <c r="G14" s="93"/>
       <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
+      <c r="I14" s="94" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
-        <v>9</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="92" t="s">
-        <v>863</v>
+        <v>915</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="F15" s="92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="93"/>
       <c r="H15" s="92"/>
       <c r="I15" s="94" t="s">
-        <v>886</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="73">
-        <v>10</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="100"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="92" t="s">
-        <v>817</v>
+        <v>918</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>868</v>
+        <v>919</v>
       </c>
       <c r="F16" s="92">
         <v>1</v>
       </c>
       <c r="G16" s="93"/>
       <c r="H16" s="92"/>
-      <c r="I16" s="94"/>
+      <c r="I16" s="94" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="73">
-        <v>11</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="95" t="s">
-        <v>831</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>809</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="92" t="s">
+        <v>924</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>926</v>
       </c>
       <c r="F17" s="92">
         <v>1</v>
       </c>
       <c r="G17" s="93"/>
       <c r="H17" s="92"/>
-      <c r="I17" s="94"/>
+      <c r="I17" s="94" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="73">
-        <v>11</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="100" t="s">
-        <v>818</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B18" s="109"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="92" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="F18" s="92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="93"/>
       <c r="H18" s="92"/>
-      <c r="I18" s="94"/>
+      <c r="I18" s="94" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="73">
-        <v>12</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="100"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="109"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="92" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="F19" s="92">
         <v>1</v>
@@ -17986,33 +18491,41 @@
       <c r="I19" s="94"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="92" t="s">
-        <v>820</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>835</v>
+      <c r="A20" s="73">
+        <v>11</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="95" t="s">
+        <v>826</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>806</v>
       </c>
       <c r="F20" s="92">
         <v>1</v>
       </c>
       <c r="G20" s="93"/>
       <c r="H20" s="92"/>
-      <c r="I20" s="94"/>
+      <c r="I20" s="94" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="73">
+        <v>11</v>
+      </c>
+      <c r="B21" s="109"/>
+      <c r="C21" s="107" t="s">
+        <v>813</v>
+      </c>
       <c r="D21" s="92" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="E21" s="92" t="s">
         <v>832</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="92">
         <v>1</v>
       </c>
       <c r="G21" s="93"/>
@@ -18020,111 +18533,109 @@
       <c r="I21" s="94"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="73">
+        <v>12</v>
+      </c>
+      <c r="B22" s="109"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="92" t="s">
+        <v>814</v>
+      </c>
+      <c r="E22" s="92" t="s">
         <v>831</v>
       </c>
-      <c r="E22" s="92" t="s">
-        <v>832</v>
-      </c>
-      <c r="F22" s="96">
+      <c r="F22" s="92">
         <v>1</v>
       </c>
       <c r="G22" s="93"/>
       <c r="H22" s="92"/>
       <c r="I22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="73">
-        <v>13</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="100"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="73"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="92" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F23" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="93"/>
       <c r="H23" s="92"/>
-      <c r="I23" s="94"/>
+      <c r="I23" s="94" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="73">
-        <v>14</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="101" t="s">
-        <v>838</v>
-      </c>
+      <c r="A24" s="73"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="92" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>823</v>
-      </c>
-      <c r="F24" s="92">
+        <v>827</v>
+      </c>
+      <c r="F24" s="96">
         <v>1</v>
       </c>
       <c r="G24" s="93"/>
       <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
-        <v>15</v>
-      </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="92" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="E25" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="F25" s="92">
-        <v>2</v>
+        <v>827</v>
+      </c>
+      <c r="F25" s="96">
+        <v>1</v>
       </c>
       <c r="G25" s="93"/>
       <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A26" s="73">
-        <v>16</v>
-      </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="109"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="92" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="F26" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="93"/>
       <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="73">
-        <v>17</v>
-      </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="109"/>
+      <c r="C27" s="108" t="s">
+        <v>833</v>
+      </c>
       <c r="D27" s="92" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E27" s="92" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="F27" s="92">
         <v>1</v>
@@ -18135,214 +18646,240 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="73">
-        <v>18</v>
-      </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="92" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F28" s="92">
         <v>2</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
+      <c r="I28" s="92" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="73">
-        <v>19</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="92" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="E29" s="92" t="s">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="F29" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
+      <c r="I29" s="92" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="73">
-        <v>20</v>
-      </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="92" t="s">
+        <v>841</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="F30" s="92">
+        <v>2</v>
+      </c>
       <c r="G30" s="93"/>
       <c r="H30" s="92"/>
-      <c r="I30" s="94"/>
+      <c r="I30" s="92" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="73">
-        <v>14</v>
-      </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="101" t="s">
-        <v>839</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="92" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="E31" s="92" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F31" s="92">
         <v>2</v>
       </c>
       <c r="G31" s="93"/>
       <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I31" s="92" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="73">
-        <v>15</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="92" t="s">
-        <v>852</v>
+        <v>933</v>
       </c>
       <c r="E32" s="92" t="s">
-        <v>857</v>
+        <v>934</v>
       </c>
       <c r="F32" s="92">
         <v>1</v>
       </c>
       <c r="G32" s="93"/>
       <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
+      <c r="I32" s="92" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="73">
-        <v>16</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="92" t="s">
-        <v>853</v>
-      </c>
-      <c r="E33" s="92" t="s">
-        <v>857</v>
-      </c>
-      <c r="F33" s="92">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="93"/>
       <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="73">
-        <v>17</v>
-      </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="96" t="s">
-        <v>856</v>
+        <v>14</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="108" t="s">
+        <v>834</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>845</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F34" s="92">
         <v>1</v>
       </c>
       <c r="G34" s="93"/>
       <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
+      <c r="I34" s="105" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="73">
-        <v>18</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="92" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F35" s="92">
         <v>1</v>
       </c>
       <c r="G35" s="93"/>
       <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="I35" s="92" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="73">
-        <v>19</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="92" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="E36" s="92" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F36" s="92">
         <v>1</v>
       </c>
       <c r="G36" s="93"/>
       <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="I36" s="92" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="92" t="s">
-        <v>860</v>
+      <c r="A37" s="73">
+        <v>17</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="96" t="s">
+        <v>851</v>
       </c>
       <c r="E37" s="92" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F37" s="92">
         <v>1</v>
       </c>
       <c r="G37" s="93"/>
       <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
+      <c r="I37" s="92" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="73">
+        <v>18</v>
+      </c>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="92" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E38" s="92" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F38" s="92">
         <v>1</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
+      <c r="I38" s="92" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="73">
+        <v>19</v>
+      </c>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="92" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="E39" s="92" t="s">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="F39" s="92">
         <v>1</v>
@@ -18353,13 +18890,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="73"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="92" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="E40" s="92" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="F40" s="92">
         <v>1</v>
@@ -18370,104 +18907,108 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="73"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="92" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="E41" s="92" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="F41" s="92">
         <v>1</v>
       </c>
       <c r="G41" s="93"/>
       <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
+      <c r="I41" s="92" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="73"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="102"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="92" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="E42" s="92" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="F42" s="92">
         <v>1</v>
       </c>
       <c r="G42" s="93"/>
       <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
+      <c r="I42" s="92" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="73"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="92" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E43" s="92" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="F43" s="92">
         <v>1</v>
       </c>
       <c r="G43" s="93"/>
       <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
+      <c r="I43" s="92" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="73"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="92" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="E44" s="92" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="F44" s="92">
         <v>1</v>
       </c>
       <c r="G44" s="93"/>
       <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
+      <c r="I44" s="101" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="73">
-        <v>20</v>
-      </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="92" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E45" s="92" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="F45" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="93"/>
       <c r="H45" s="92"/>
-      <c r="I45" s="94"/>
+      <c r="I45" s="92" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="73">
-        <v>14</v>
-      </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="101" t="s">
-        <v>840</v>
-      </c>
+      <c r="A46" s="73"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="92" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="E46" s="92" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="F46" s="92">
         <v>1</v>
@@ -18477,16 +19018,14 @@
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="73">
-        <v>15</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="92" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F47" s="92">
         <v>1</v>
@@ -18497,31 +19036,39 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="73">
-        <v>16</v>
-      </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
+        <v>20</v>
+      </c>
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="92" t="s">
-        <v>891</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
+        <v>858</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="F48" s="92">
+        <v>2</v>
+      </c>
       <c r="G48" s="93"/>
       <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
+      <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="73">
-        <v>17</v>
-      </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
+        <v>14</v>
+      </c>
+      <c r="B49" s="109"/>
+      <c r="C49" s="108" t="s">
+        <v>835</v>
+      </c>
       <c r="D49" s="92" t="s">
-        <v>892</v>
-      </c>
-      <c r="E49" s="92"/>
+        <v>859</v>
+      </c>
+      <c r="E49" s="92" t="s">
+        <v>860</v>
+      </c>
       <c r="F49" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="93"/>
       <c r="H49" s="92"/>
@@ -18529,61 +19076,71 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="73">
-        <v>18</v>
-      </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
+        <v>15</v>
+      </c>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="E50" s="92"/>
+        <v>861</v>
+      </c>
+      <c r="E50" s="92" t="s">
+        <v>862</v>
+      </c>
       <c r="F50" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="93"/>
       <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
+      <c r="I50" s="92" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="73">
-        <v>19</v>
-      </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="92" t="s">
+        <v>883</v>
+      </c>
       <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
+      <c r="F51" s="92">
+        <v>1</v>
+      </c>
       <c r="G51" s="93"/>
       <c r="H51" s="92"/>
       <c r="I51" s="92"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="73">
-        <v>20</v>
-      </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="92" t="s">
+        <v>884</v>
+      </c>
       <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
+      <c r="F52" s="92">
+        <v>2</v>
+      </c>
       <c r="G52" s="93"/>
       <c r="H52" s="92"/>
-      <c r="I52" s="94"/>
+      <c r="I52" s="92"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="73">
-        <v>14</v>
-      </c>
-      <c r="B53" s="102"/>
-      <c r="C53" s="101" t="s">
-        <v>841</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="92" t="s">
-        <v>825</v>
+        <v>885</v>
       </c>
       <c r="E53" s="92"/>
       <c r="F53" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="93"/>
       <c r="H53" s="92"/>
@@ -18591,46 +19148,40 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="73">
-        <v>15</v>
-      </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="92" t="s">
-        <v>888</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="92"/>
-      <c r="F54" s="92">
-        <v>1</v>
-      </c>
+      <c r="F54" s="92"/>
       <c r="G54" s="93"/>
       <c r="H54" s="92"/>
       <c r="I54" s="92"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="73">
-        <v>16</v>
-      </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="92" t="s">
-        <v>889</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B55" s="109"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="92"/>
-      <c r="F55" s="92">
-        <v>2</v>
-      </c>
+      <c r="F55" s="92"/>
       <c r="G55" s="93"/>
       <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
+      <c r="I55" s="94"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="73">
-        <v>17</v>
-      </c>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
+        <v>14</v>
+      </c>
+      <c r="B56" s="109"/>
+      <c r="C56" s="108" t="s">
+        <v>836</v>
+      </c>
       <c r="D56" s="92" t="s">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="E56" s="92"/>
       <c r="F56" s="92">
@@ -18638,20 +19189,22 @@
       </c>
       <c r="G56" s="93"/>
       <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
+      <c r="I56" s="92" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="73">
-        <v>18</v>
-      </c>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
+        <v>15</v>
+      </c>
+      <c r="B57" s="109"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="92" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="E57" s="92"/>
       <c r="F57" s="92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="92"/>
@@ -18659,44 +19212,50 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="73">
-        <v>19</v>
-      </c>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="92" t="s">
+        <v>881</v>
+      </c>
       <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
+      <c r="F58" s="92">
+        <v>2</v>
+      </c>
       <c r="G58" s="93"/>
       <c r="H58" s="92"/>
       <c r="I58" s="92"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="73">
-        <v>20</v>
-      </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="92" t="s">
+        <v>882</v>
+      </c>
       <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
+      <c r="F59" s="92">
+        <v>1</v>
+      </c>
       <c r="G59" s="93"/>
       <c r="H59" s="92"/>
-      <c r="I59" s="94"/>
+      <c r="I59" s="92"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="73">
-        <v>14</v>
-      </c>
-      <c r="B60" s="102"/>
-      <c r="C60" s="101" t="s">
-        <v>842</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="92" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="E60" s="92"/>
       <c r="F60" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="92"/>
@@ -18704,66 +19263,74 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="73">
-        <v>15</v>
-      </c>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="92" t="s">
-        <v>894</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="92"/>
       <c r="E61" s="92"/>
-      <c r="F61" s="92">
-        <v>1</v>
-      </c>
+      <c r="F61" s="92"/>
       <c r="G61" s="93"/>
       <c r="H61" s="92"/>
       <c r="I61" s="92"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="73">
-        <v>16</v>
-      </c>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
+        <v>20</v>
+      </c>
+      <c r="B62" s="109"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="92"/>
       <c r="E62" s="92"/>
       <c r="F62" s="92"/>
       <c r="G62" s="93"/>
       <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
+      <c r="I62" s="94"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="73">
-        <v>17</v>
-      </c>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="B63" s="109"/>
+      <c r="C63" s="108" t="s">
+        <v>837</v>
+      </c>
+      <c r="D63" s="92" t="s">
+        <v>879</v>
+      </c>
       <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
+      <c r="F63" s="92">
+        <v>1</v>
+      </c>
       <c r="G63" s="93"/>
       <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
+      <c r="I63" s="102" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="73">
-        <v>18</v>
-      </c>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="92"/>
+        <v>15</v>
+      </c>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="92" t="s">
+        <v>886</v>
+      </c>
       <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
+      <c r="F64" s="92">
+        <v>1</v>
+      </c>
       <c r="G64" s="93"/>
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="73">
-        <v>19</v>
-      </c>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
+        <v>16</v>
+      </c>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="92"/>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -18773,50 +19340,89 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="73">
-        <v>20</v>
-      </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="103"/>
+        <v>17</v>
+      </c>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="92"/>
       <c r="E66" s="92"/>
       <c r="F66" s="92"/>
       <c r="G66" s="93"/>
       <c r="H66" s="92"/>
-      <c r="I66" s="94"/>
+      <c r="I66" s="92"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="73">
+        <v>18</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="73">
+        <v>19</v>
+      </c>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="73">
+        <v>20</v>
+      </c>
+      <c r="B69" s="109"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="94"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="73">
         <v>30</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="107" t="s">
-        <v>895</v>
-      </c>
-      <c r="E67" s="108"/>
-      <c r="F67" s="98">
-        <f>SUM(F2:F66)</f>
-        <v>65</v>
-      </c>
-      <c r="G67" s="98"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="66"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="114" t="s">
+        <v>887</v>
+      </c>
+      <c r="E70" s="115"/>
+      <c r="F70" s="98">
+        <f>SUM(F2:F69)</f>
+        <v>69</v>
+      </c>
+      <c r="G70" s="98"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B7:B67"/>
-    <mergeCell ref="C7:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C31:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B8:B70"/>
+    <mergeCell ref="C8:C20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C63:C69"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Buget/01金域世家装修预算.xlsx
+++ b/Buget/01金域世家装修预算.xlsx
@@ -19,6 +19,7 @@
     <sheet name="支出总日志" sheetId="5" r:id="rId5"/>
     <sheet name="支出日志参考" sheetId="7" r:id="rId6"/>
     <sheet name="插座" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1032">
   <si>
     <t>序号</t>
   </si>
@@ -2805,18 +2806,6 @@
   </si>
   <si>
     <t xml:space="preserve"> NETGEAR网件GS108E v3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋叶原HDMI高清线10米（2.0）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>安普六类千兆网线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋叶原200芯10米音箱线</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2968,31 +2957,107 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾处理器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上30公分</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙面上部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙面上部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>水槽下</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>台面</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>感应灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能马桶盖</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关柜中部感应灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上30公分</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>顶灯</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>冰箱</t>
+    <t>门灯</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>洗碗机</t>
+    <t>光猫</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>抽油烟机</t>
+    <t>水槽下</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>热水器</t>
+    <t>浴霸</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>垃圾处理器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
+    <t>排风扇</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3000,19 +3065,115 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>地上30公分</t>
+    <t>马桶旁</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>墙面上部</t>
+    <t>洗漱池上</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>墙面上部</t>
+    <t>顶部</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>水槽下</t>
+    <t>餐厅</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑桌旁</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>功放</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视地柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络盒子</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>机顶盒</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响左右中</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>幕布</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头灯</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3020,214 +3181,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>感应灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能马桶盖</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关柜中部感应灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上30公分</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>门灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>光猫</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽下</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>排风扇</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱池下</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留（吹风机/剃须刀）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱池上</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑桌预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑桌旁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部（主，次）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAS</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换机</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功放</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视地柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络盒子</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>机顶盒</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>音响左右中</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>幕布</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>台面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>沙发后墙</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -3279,10 +3232,6 @@
   </si>
   <si>
     <t>白光（2700-3000k）--适合用在工作区、书房</t>
-  </si>
-  <si>
-    <t>电饭煲、豆浆机、面包机等</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>洗衣机</t>
@@ -3389,51 +3338,11 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>厨房挂件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡贝（Cobbe）厨房挂件太空铝置物架壁挂刀架厨卫五金套装</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>林内Rinnai RUS-16E55CWNF 16L</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>择木宜居 餐桌实木餐桌椅组合饭桌 北欧餐桌 一桌四椅 深胡桃色黑色皮面(供应商直送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏宁/亚马逊</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅吸顶灯</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关和客厅开关是双控</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央净水</t>
+    <t>软水机</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3441,35 +3350,23 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>净水步骤2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>软水机</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>净水步骤3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>RO反渗直饮</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
+    <t>三孔带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>三孔插座</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>三孔带开关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤箱</t>
+    <t>整体柜</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3477,23 +3374,15 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>整体柜</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座带开关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座带开关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>三孔插座</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>净水步骤4，三孔插座</t>
+    <t>管线机</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>客餐厅中间/厨卫客厅侧墙壁</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -3501,42 +3390,10 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>三孔插座</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>管线机</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>客餐厅中间/厨卫客厅侧墙壁</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>两孔</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>三孔插座</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座插座带开关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座带开关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>三孔插座</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>5孔带USB</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -3545,14 +3402,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>三孔插座，注：插座需要留到洗碗机侧面，不要留在正背面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>水槽-型号待定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>厨房</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3561,10 +3410,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>京东/淘宝/亚马逊</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>水槽</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3589,10 +3434,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>前置+中央净水+软水+RO反渗透+管线机</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3618,10 +3459,6 @@
   </si>
   <si>
     <t>新风系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍尼韦尔</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3668,6 +3505,404 @@
   <si>
     <t>变焦比：1.3:1；100寸投影参数</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>待购买</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬装完成购买</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新风系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱电</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>软水机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">沁园（QINYUAN）QQ-T1 前置过滤器 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱电</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭影院</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭影院</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDMI线</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日线六类千兆网线*100米</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋叶原HDMI线2.0版4K高清线8米两根</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华敏华真牌ETB 2*2.5平方4N无氧铜喇叭线*30米</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下FY-E15PMA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔带开关插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>三孔带开关插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水步骤4，五孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>五孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座*3
+电饭煲、豆浆机、面包机等</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>两孔*2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需电源</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需电源</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔*2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔带开关*1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5孔插座带开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqara智能开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶灯干区</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqara智能开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqara智能开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqara智能开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aqara智能开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通开关</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>待选购</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>待选名称</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetGear R7000</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netgear x4s r780</t>
+  </si>
+  <si>
+    <t>幕布</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>红叶</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>XQG100-WM14U561HW</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前价</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史低价</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议入手价</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~4200</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">产品尺寸（深x宽x高）mm 718x794x1810十字对开门，风冷，变频
+总容积(升)456 冷冻室(升)81 变温室(升)81 冷藏室(升) 294 冷冻能力(kg/24h) 12
+ 制冷循环 三循环 能效等级 1 级 耗电量(KWh/24h) 0.82 </t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">博世（BOSCH） XQG100-WAU28560HW </t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5899-600</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000-4200</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>容声（Ronshen）BCD-456WD11FP</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4799-600</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信（Hisense）BCD-442WTVBPI/Q</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4599-600</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>容声 BCD-322WKM1MPCA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>国美-中原万达店</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天鹅 TD100-14522WDG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩恩-摩恩水槽套装 22178-MCL7594C+7029</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁易购</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>净水系统</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨下RO反渗透</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>管线机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3677,7 +3912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3874,6 +4109,17 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4100,7 +4346,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4345,11 +4591,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4371,9 +4612,6 @@
     <xf numFmtId="7" fontId="7" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4390,12 +4628,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4406,6 +4638,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4453,14 +4748,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4746,9 +5035,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5045,11 +5332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-744888208"/>
-        <c:axId val="-744882768"/>
+        <c:axId val="131161360"/>
+        <c:axId val="131154832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-744888208"/>
+        <c:axId val="131161360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,7 +5375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744882768"/>
+        <c:crossAx val="131154832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5097,7 +5384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-744882768"/>
+        <c:axId val="131154832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-744888208"/>
+        <c:crossAx val="131161360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5547,7 +5834,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5595,10 +5882,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>9</v>
@@ -5610,17 +5897,17 @@
         <v>11</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -5634,7 +5921,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="H2" s="39">
         <v>30</v>
@@ -5644,7 +5931,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="12"/>
       <c r="M2" s="24" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="N2" s="73"/>
     </row>
@@ -5652,8 +5939,8 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
@@ -5681,8 +5968,8 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="124"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -5710,8 +5997,8 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="124"/>
       <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
@@ -5735,8 +6022,8 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
@@ -5760,8 +6047,8 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
@@ -5787,8 +6074,8 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
@@ -5814,8 +6101,8 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="107"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
@@ -5841,8 +6128,8 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="31" t="s">
         <v>24</v>
       </c>
@@ -5868,8 +6155,8 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
@@ -5895,8 +6182,8 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="62" t="s">
         <v>26</v>
       </c>
@@ -5924,8 +6211,8 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="107" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="124" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -5954,8 +6241,8 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="124"/>
       <c r="D14" s="31" t="s">
         <v>31</v>
       </c>
@@ -5983,8 +6270,8 @@
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="31" t="s">
         <v>32</v>
       </c>
@@ -6012,8 +6299,8 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="126"/>
+      <c r="C16" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -6041,8 +6328,8 @@
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
@@ -6061,12 +6348,12 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="100" t="s">
-        <v>902</v>
+      <c r="M17" s="96" t="s">
+        <v>889</v>
       </c>
       <c r="N17" s="73"/>
     </row>
@@ -6074,8 +6361,8 @@
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="63" t="s">
         <v>39</v>
       </c>
@@ -6101,8 +6388,8 @@
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
@@ -6128,8 +6415,8 @@
       <c r="A20" s="13">
         <v>18</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="63" t="s">
         <v>42</v>
       </c>
@@ -6157,8 +6444,8 @@
       <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="13" t="s">
         <v>43</v>
       </c>
@@ -6186,8 +6473,8 @@
       <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="22" t="s">
         <v>44</v>
       </c>
@@ -6215,8 +6502,8 @@
       <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="107" t="s">
+      <c r="B23" s="126"/>
+      <c r="C23" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -6244,8 +6531,8 @@
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="107"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="13" t="s">
         <v>48</v>
       </c>
@@ -6273,8 +6560,8 @@
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="107"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="13" t="s">
         <v>49</v>
       </c>
@@ -6299,42 +6586,42 @@
       <c r="N25" s="73"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="106" t="s">
-        <v>970</v>
+      <c r="A26" s="100"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="100" t="s">
+        <v>929</v>
       </c>
       <c r="E26" s="33">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="F26" s="106">
-        <v>1</v>
-      </c>
-      <c r="G26" s="106" t="s">
-        <v>971</v>
+      <c r="F26" s="100">
+        <v>1</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>930</v>
       </c>
       <c r="H26" s="39">
         <v>4200</v>
       </c>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106" t="s">
-        <v>972</v>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100" t="s">
+        <v>931</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="45" t="s">
-        <v>973</v>
-      </c>
-      <c r="N26" s="106"/>
+        <v>932</v>
+      </c>
+      <c r="N26" s="100"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13">
         <v>24</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="13" t="s">
         <v>51</v>
       </c>
@@ -6362,8 +6649,8 @@
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="107" t="s">
+      <c r="B28" s="126"/>
+      <c r="C28" s="124" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="63" t="s">
@@ -6390,8 +6677,8 @@
       <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="13" t="s">
         <v>54</v>
       </c>
@@ -6419,8 +6706,8 @@
       <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="107"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="31" t="s">
         <v>56</v>
       </c>
@@ -6448,7 +6735,7 @@
       <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="12" t="s">
         <v>57</v>
       </c>
@@ -6479,19 +6766,19 @@
       <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="110"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="133"/>
       <c r="M32" s="66">
         <f>SUM(E2:E31)</f>
         <v>24135</v>
@@ -6501,14 +6788,14 @@
       <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E33" s="33">
         <f>F33*H33</f>
@@ -6518,7 +6805,7 @@
         <v>47</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="H33" s="39">
         <v>30</v>
@@ -6528,7 +6815,7 @@
       <c r="K33" s="24"/>
       <c r="L33" s="12"/>
       <c r="M33" s="24" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="N33" s="73"/>
     </row>
@@ -6536,8 +6823,8 @@
       <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="107"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -6565,8 +6852,8 @@
       <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="107"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="13" t="s">
         <v>61</v>
       </c>
@@ -6594,10 +6881,10 @@
       <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="107"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="13" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="E36" s="33">
         <f t="shared" si="1"/>
@@ -6607,7 +6894,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="H36" s="39">
         <v>90</v>
@@ -6623,8 +6910,8 @@
       <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="107"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="124"/>
       <c r="D37" s="13" t="s">
         <v>63</v>
       </c>
@@ -6652,8 +6939,8 @@
       <c r="A38" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="107" t="s">
+      <c r="B38" s="126"/>
+      <c r="C38" s="124" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -6683,8 +6970,8 @@
       <c r="A39" s="13">
         <v>41</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="107"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="124"/>
       <c r="D39" s="13" t="s">
         <v>65</v>
       </c>
@@ -6712,8 +6999,8 @@
       <c r="A40" s="13">
         <v>42</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="108" t="s">
+      <c r="B40" s="126"/>
+      <c r="C40" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -6743,8 +7030,8 @@
       <c r="A41" s="13">
         <v>43</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
       <c r="D41" s="13" t="s">
         <v>68</v>
       </c>
@@ -6770,8 +7057,8 @@
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
       <c r="D42" s="13" t="s">
         <v>69</v>
       </c>
@@ -6799,8 +7086,8 @@
       <c r="A43" s="13">
         <v>45</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="13" t="s">
         <v>70</v>
       </c>
@@ -6826,8 +7113,8 @@
       <c r="A44" s="13">
         <v>46</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="13" t="s">
         <v>43</v>
       </c>
@@ -6853,8 +7140,8 @@
       <c r="A45" s="13">
         <v>47</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="107" t="s">
+      <c r="B45" s="126"/>
+      <c r="C45" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -6884,8 +7171,8 @@
       <c r="A46" s="13">
         <v>48</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="107"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="13" t="s">
         <v>73</v>
       </c>
@@ -6913,8 +7200,8 @@
       <c r="A47" s="13">
         <v>49</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="107"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="13" t="s">
         <v>74</v>
       </c>
@@ -6940,8 +7227,8 @@
       <c r="A48" s="13">
         <v>50</v>
       </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="107" t="s">
+      <c r="B48" s="126"/>
+      <c r="C48" s="124" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -6969,8 +7256,8 @@
       <c r="A49" s="13">
         <v>51</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="107"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="124"/>
       <c r="D49" s="13" t="s">
         <v>54</v>
       </c>
@@ -6998,8 +7285,8 @@
       <c r="A50" s="13">
         <v>52</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="107"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="13" t="s">
         <v>76</v>
       </c>
@@ -7027,8 +7314,8 @@
       <c r="A51" s="13">
         <v>53</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="107"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="13" t="s">
         <v>77</v>
       </c>
@@ -7054,19 +7341,19 @@
       <c r="A52" s="13">
         <v>56</v>
       </c>
-      <c r="B52" s="110"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="64"/>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="116"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="133"/>
       <c r="M52" s="66">
         <f>SUM(E33:E51)</f>
         <v>14927</v>
@@ -7076,10 +7363,10 @@
       <c r="A53" s="13">
         <v>57</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="13" t="s">
@@ -7093,7 +7380,7 @@
         <v>165</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="H53" s="33">
         <v>30</v>
@@ -7103,7 +7390,7 @@
       <c r="K53" s="24"/>
       <c r="L53" s="12"/>
       <c r="M53" s="24" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="N53" s="73"/>
     </row>
@@ -7111,8 +7398,8 @@
       <c r="A54" s="13">
         <v>58</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="107"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="13" t="s">
         <v>82</v>
       </c>
@@ -7124,7 +7411,7 @@
         <v>84</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="H54" s="33">
         <v>30</v>
@@ -7134,7 +7421,7 @@
       <c r="K54" s="24"/>
       <c r="L54" s="12"/>
       <c r="M54" s="28" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="N54" s="73"/>
     </row>
@@ -7142,8 +7429,8 @@
       <c r="A55" s="13">
         <v>59</v>
       </c>
-      <c r="B55" s="109"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="31" t="s">
         <v>83</v>
       </c>
@@ -7171,8 +7458,8 @@
       <c r="A56" s="13">
         <v>60</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="107"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="13" t="s">
         <v>61</v>
       </c>
@@ -7198,10 +7485,10 @@
     </row>
     <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="73"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="117" t="s">
-        <v>767</v>
+      <c r="B57" s="126"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="134" t="s">
+        <v>764</v>
       </c>
       <c r="E57" s="33">
         <f t="shared" si="2"/>
@@ -7211,29 +7498,29 @@
         <v>1</v>
       </c>
       <c r="G57" s="73" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H57" s="33">
         <v>950</v>
       </c>
       <c r="I57" s="73" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="70"/>
       <c r="M57" s="24" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="N57" s="73"/>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="73"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="126"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="33">
         <f t="shared" si="2"/>
         <v>650</v>
@@ -7242,29 +7529,29 @@
         <v>1</v>
       </c>
       <c r="G58" s="73" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H58" s="33">
         <v>650</v>
       </c>
       <c r="I58" s="73" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="70"/>
       <c r="M58" s="24" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="N58" s="73"/>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="73"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="126"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="135"/>
       <c r="E59" s="33">
         <f t="shared" si="2"/>
         <v>550</v>
@@ -7273,16 +7560,16 @@
         <v>1</v>
       </c>
       <c r="G59" s="73" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H59" s="33">
         <v>550</v>
       </c>
       <c r="I59" s="73" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K59" s="24"/>
       <c r="L59" s="70"/>
@@ -7293,9 +7580,9 @@
       <c r="A60" s="13">
         <v>61</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="136"/>
       <c r="E60" s="33">
         <f t="shared" si="2"/>
         <v>6600.0000000000009</v>
@@ -7320,8 +7607,8 @@
       <c r="A61" s="13">
         <v>62</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="107"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="13" t="s">
         <v>85</v>
       </c>
@@ -7349,8 +7636,8 @@
       <c r="A62" s="13">
         <v>65</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="107" t="s">
+      <c r="B62" s="126"/>
+      <c r="C62" s="124" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="31" t="s">
@@ -7381,8 +7668,8 @@
       <c r="A63" s="13">
         <v>66</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="107"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="13" t="s">
         <v>87</v>
       </c>
@@ -7405,44 +7692,44 @@
       <c r="N63" s="73"/>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="106"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="106" t="s">
-        <v>964</v>
+      <c r="A64" s="100"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="100" t="s">
+        <v>923</v>
       </c>
       <c r="E64" s="33">
         <f t="shared" si="2"/>
         <v>970</v>
       </c>
-      <c r="F64" s="124">
-        <v>1</v>
-      </c>
-      <c r="G64" s="106" t="s">
-        <v>965</v>
+      <c r="F64" s="102">
+        <v>1</v>
+      </c>
+      <c r="G64" s="100" t="s">
+        <v>924</v>
       </c>
       <c r="H64" s="33">
         <v>970</v>
       </c>
-      <c r="I64" s="106"/>
+      <c r="I64" s="100"/>
       <c r="J64" s="24" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>967</v>
+        <v>926</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24" t="s">
-        <v>968</v>
-      </c>
-      <c r="N64" s="106"/>
+        <v>927</v>
+      </c>
+      <c r="N64" s="100"/>
     </row>
     <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>68</v>
       </c>
-      <c r="B65" s="109"/>
-      <c r="C65" s="108" t="s">
+      <c r="B65" s="126"/>
+      <c r="C65" s="125" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -7472,8 +7759,8 @@
       <c r="A66" s="13">
         <v>69</v>
       </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
       <c r="D66" s="13" t="s">
         <v>90</v>
       </c>
@@ -7501,8 +7788,8 @@
       <c r="A67" s="13">
         <v>70</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="110"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="127"/>
       <c r="D67" s="22" t="s">
         <v>91</v>
       </c>
@@ -7530,12 +7817,12 @@
       <c r="A68" s="13">
         <v>71</v>
       </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="107" t="s">
+      <c r="B68" s="126"/>
+      <c r="C68" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E68" s="33">
         <f t="shared" si="2"/>
@@ -7551,15 +7838,15 @@
         <v>4500</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
       <c r="M68" s="45" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="N68" s="73"/>
     </row>
@@ -7567,8 +7854,8 @@
       <c r="A69" s="13">
         <v>72</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="124"/>
       <c r="D69" s="13" t="s">
         <v>93</v>
       </c>
@@ -7596,8 +7883,8 @@
       <c r="A70" s="13">
         <v>73</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="107"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="13" t="s">
         <v>94</v>
       </c>
@@ -7625,8 +7912,8 @@
       <c r="A71" s="13">
         <v>74</v>
       </c>
-      <c r="B71" s="109"/>
-      <c r="C71" s="107"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="13" t="s">
         <v>95</v>
       </c>
@@ -7644,24 +7931,24 @@
         <v>3636</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J71" s="73" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="45"/>
       <c r="N71" s="73" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="73"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="107"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="124"/>
       <c r="D72" s="73" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E72" s="33">
         <f t="shared" si="2"/>
@@ -7671,30 +7958,30 @@
         <v>1</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H72" s="33">
         <v>3698.5</v>
       </c>
       <c r="I72" s="73" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J72" s="73" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="45" t="s">
-        <v>969</v>
+        <v>928</v>
       </c>
       <c r="N72" s="73" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="13"/>
-      <c r="B73" s="109"/>
-      <c r="C73" s="107"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="124"/>
       <c r="D73" s="63" t="s">
         <v>96</v>
       </c>
@@ -7720,8 +8007,8 @@
       <c r="A74" s="13">
         <v>75</v>
       </c>
-      <c r="B74" s="109"/>
-      <c r="C74" s="107"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="124"/>
       <c r="D74" s="73" t="s">
         <v>97</v>
       </c>
@@ -7747,12 +8034,12 @@
     </row>
     <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="73"/>
-      <c r="B75" s="109"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="72" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D75" s="73" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E75" s="33">
         <v>350</v>
@@ -7761,23 +8048,23 @@
         <v>1</v>
       </c>
       <c r="G75" s="73" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H75" s="33">
         <v>300</v>
       </c>
       <c r="I75" s="73" t="s">
-        <v>778</v>
-      </c>
-      <c r="J75" s="91" t="s">
-        <v>779</v>
+        <v>775</v>
+      </c>
+      <c r="J75" s="88" t="s">
+        <v>776</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="L75" s="24"/>
-      <c r="M75" s="90" t="s">
-        <v>787</v>
+      <c r="M75" s="87" t="s">
+        <v>784</v>
       </c>
       <c r="N75" s="73"/>
     </row>
@@ -7785,19 +8072,19 @@
       <c r="A76" s="13">
         <v>77</v>
       </c>
-      <c r="B76" s="110"/>
+      <c r="B76" s="127"/>
       <c r="C76" s="64"/>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="116"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="133"/>
       <c r="M76" s="66">
         <f>SUM(E53:E74)</f>
         <v>50014.5</v>
@@ -7807,10 +8094,10 @@
       <c r="A77" s="13">
         <v>78</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="107" t="s">
+      <c r="C77" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -7823,8 +8110,8 @@
       <c r="F77" s="13">
         <v>119</v>
       </c>
-      <c r="G77" s="89" t="s">
-        <v>890</v>
+      <c r="G77" s="86" t="s">
+        <v>877</v>
       </c>
       <c r="H77" s="39">
         <v>30</v>
@@ -7834,7 +8121,7 @@
       <c r="K77" s="24"/>
       <c r="L77" s="12"/>
       <c r="M77" s="24" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="N77" s="73"/>
     </row>
@@ -7842,8 +8129,8 @@
       <c r="A78" s="13">
         <v>79</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="107"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="13" t="s">
         <v>82</v>
       </c>
@@ -7855,7 +8142,7 @@
         <v>60</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="H78" s="39">
         <v>30</v>
@@ -7865,7 +8152,7 @@
       <c r="K78" s="24"/>
       <c r="L78" s="12"/>
       <c r="M78" s="24" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="N78" s="73"/>
     </row>
@@ -7873,8 +8160,8 @@
       <c r="A79" s="13">
         <v>80</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="107"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="68" t="s">
         <v>100</v>
       </c>
@@ -7898,8 +8185,8 @@
       <c r="A80" s="13">
         <v>81</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="107"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="13" t="s">
         <v>61</v>
       </c>
@@ -7927,8 +8214,8 @@
       <c r="A81" s="13">
         <v>82</v>
       </c>
-      <c r="B81" s="109"/>
-      <c r="C81" s="107"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="13" t="s">
         <v>102</v>
       </c>
@@ -7956,8 +8243,8 @@
       <c r="A82" s="13">
         <v>83</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="107"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="13" t="s">
         <v>103</v>
       </c>
@@ -7976,7 +8263,7 @@
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="K82" s="24"/>
       <c r="L82" s="12"/>
@@ -7987,8 +8274,8 @@
       <c r="A83" s="13">
         <v>84</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="107"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="13" t="s">
         <v>104</v>
       </c>
@@ -8016,8 +8303,8 @@
       <c r="A84" s="13">
         <v>85</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="107"/>
+      <c r="B84" s="126"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="13" t="s">
         <v>105</v>
       </c>
@@ -8045,8 +8332,8 @@
       <c r="A85" s="13">
         <v>86</v>
       </c>
-      <c r="B85" s="109"/>
-      <c r="C85" s="107"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="13" t="s">
         <v>106</v>
       </c>
@@ -8074,8 +8361,8 @@
       <c r="A86" s="13">
         <v>88</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="107"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="13" t="s">
         <v>107</v>
       </c>
@@ -8101,8 +8388,8 @@
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="107"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="13" t="s">
         <v>108</v>
       </c>
@@ -8130,8 +8417,8 @@
       <c r="A88" s="13">
         <v>89</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="107"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="13" t="s">
         <v>110</v>
       </c>
@@ -8159,8 +8446,8 @@
       <c r="A89" s="13">
         <v>90</v>
       </c>
-      <c r="B89" s="109"/>
-      <c r="C89" s="108" t="s">
+      <c r="B89" s="126"/>
+      <c r="C89" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D89" s="13" t="s">
@@ -8188,8 +8475,8 @@
       <c r="A90" s="13">
         <v>91</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
+      <c r="B90" s="126"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="68" t="s">
         <v>112</v>
       </c>
@@ -8213,8 +8500,8 @@
       <c r="A91" s="13">
         <v>92</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
+      <c r="B91" s="126"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="13" t="s">
         <v>113</v>
       </c>
@@ -8240,8 +8527,8 @@
       <c r="A92" s="13">
         <v>93</v>
       </c>
-      <c r="B92" s="109"/>
-      <c r="C92" s="110"/>
+      <c r="B92" s="126"/>
+      <c r="C92" s="127"/>
       <c r="D92" s="13" t="s">
         <v>114</v>
       </c>
@@ -8267,8 +8554,8 @@
       <c r="A93" s="13">
         <v>94</v>
       </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="107" t="s">
+      <c r="B93" s="126"/>
+      <c r="C93" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D93" s="68" t="s">
@@ -8296,8 +8583,8 @@
       <c r="A94" s="13">
         <v>95</v>
       </c>
-      <c r="B94" s="109"/>
-      <c r="C94" s="107"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="13" t="s">
         <v>97</v>
       </c>
@@ -8323,19 +8610,19 @@
       <c r="A95" s="13">
         <v>97</v>
       </c>
-      <c r="B95" s="110"/>
+      <c r="B95" s="127"/>
       <c r="C95" s="61"/>
-      <c r="D95" s="114" t="s">
+      <c r="D95" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="115"/>
-      <c r="F95" s="115"/>
-      <c r="G95" s="115"/>
-      <c r="H95" s="115"/>
-      <c r="I95" s="115"/>
-      <c r="J95" s="115"/>
-      <c r="K95" s="115"/>
-      <c r="L95" s="116"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="132"/>
+      <c r="G95" s="132"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="132"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="132"/>
+      <c r="L95" s="133"/>
       <c r="M95" s="69">
         <f>SUM(E77:E94)</f>
         <v>16090</v>
@@ -8345,10 +8632,10 @@
       <c r="A96" s="13">
         <v>98</v>
       </c>
-      <c r="B96" s="108" t="s">
+      <c r="B96" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="107" t="s">
+      <c r="C96" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="13" t="s">
@@ -8378,8 +8665,8 @@
       <c r="A97" s="13">
         <v>99</v>
       </c>
-      <c r="B97" s="109"/>
-      <c r="C97" s="107"/>
+      <c r="B97" s="126"/>
+      <c r="C97" s="124"/>
       <c r="D97" s="31" t="s">
         <v>119</v>
       </c>
@@ -8407,8 +8694,8 @@
       <c r="A98" s="13">
         <v>100</v>
       </c>
-      <c r="B98" s="109"/>
-      <c r="C98" s="107"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="124"/>
       <c r="D98" s="13" t="s">
         <v>120</v>
       </c>
@@ -8436,8 +8723,8 @@
       <c r="A99" s="13">
         <v>101</v>
       </c>
-      <c r="B99" s="109"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="124"/>
       <c r="D99" s="13" t="s">
         <v>15</v>
       </c>
@@ -8465,8 +8752,8 @@
       <c r="A100" s="13">
         <v>103</v>
       </c>
-      <c r="B100" s="109"/>
-      <c r="C100" s="107"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="124"/>
       <c r="D100" s="13" t="s">
         <v>121</v>
       </c>
@@ -8494,8 +8781,8 @@
       <c r="A101" s="13">
         <v>104</v>
       </c>
-      <c r="B101" s="109"/>
-      <c r="C101" s="107"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="124"/>
       <c r="D101" s="13" t="s">
         <v>122</v>
       </c>
@@ -8523,8 +8810,8 @@
       <c r="A102" s="13">
         <v>109</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="108" t="s">
+      <c r="B102" s="126"/>
+      <c r="C102" s="125" t="s">
         <v>34</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -8554,8 +8841,8 @@
       <c r="A103" s="13">
         <v>110</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
       <c r="D103" s="13" t="s">
         <v>124</v>
       </c>
@@ -8583,8 +8870,8 @@
       <c r="A104" s="13">
         <v>111</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="110"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="127"/>
       <c r="D104" s="13" t="s">
         <v>125</v>
       </c>
@@ -8612,8 +8899,8 @@
       <c r="A105" s="13">
         <v>112</v>
       </c>
-      <c r="B105" s="109"/>
-      <c r="C105" s="107" t="s">
+      <c r="B105" s="126"/>
+      <c r="C105" s="124" t="s">
         <v>45</v>
       </c>
       <c r="D105" s="13" t="s">
@@ -8643,8 +8930,8 @@
       <c r="A106" s="13">
         <v>113</v>
       </c>
-      <c r="B106" s="109"/>
-      <c r="C106" s="107"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="13" t="s">
         <v>97</v>
       </c>
@@ -8672,8 +8959,8 @@
       <c r="A107" s="13">
         <v>114</v>
       </c>
-      <c r="B107" s="109"/>
-      <c r="C107" s="107" t="s">
+      <c r="B107" s="126"/>
+      <c r="C107" s="124" t="s">
         <v>52</v>
       </c>
       <c r="D107" s="63" t="s">
@@ -8703,8 +8990,8 @@
       <c r="A108" s="13">
         <v>115</v>
       </c>
-      <c r="B108" s="109"/>
-      <c r="C108" s="107"/>
+      <c r="B108" s="126"/>
+      <c r="C108" s="124"/>
       <c r="D108" s="13" t="s">
         <v>128</v>
       </c>
@@ -8732,8 +9019,8 @@
       <c r="A109" s="13">
         <v>116</v>
       </c>
-      <c r="B109" s="109"/>
-      <c r="C109" s="107"/>
+      <c r="B109" s="126"/>
+      <c r="C109" s="124"/>
       <c r="D109" s="63" t="s">
         <v>130</v>
       </c>
@@ -8761,19 +9048,19 @@
       <c r="A110" s="13">
         <v>119</v>
       </c>
-      <c r="B110" s="110"/>
+      <c r="B110" s="127"/>
       <c r="C110" s="61"/>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E110" s="115"/>
-      <c r="F110" s="115"/>
-      <c r="G110" s="115"/>
-      <c r="H110" s="115"/>
-      <c r="I110" s="115"/>
-      <c r="J110" s="115"/>
-      <c r="K110" s="115"/>
-      <c r="L110" s="116"/>
+      <c r="E110" s="132"/>
+      <c r="F110" s="132"/>
+      <c r="G110" s="132"/>
+      <c r="H110" s="132"/>
+      <c r="I110" s="132"/>
+      <c r="J110" s="132"/>
+      <c r="K110" s="132"/>
+      <c r="L110" s="133"/>
       <c r="M110" s="69">
         <f>SUM(E96:E109)</f>
         <v>12120</v>
@@ -8783,10 +9070,10 @@
       <c r="A111" s="13">
         <v>120</v>
       </c>
-      <c r="B111" s="108" t="s">
+      <c r="B111" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="107" t="s">
+      <c r="C111" s="124" t="s">
         <v>133</v>
       </c>
       <c r="D111" s="13" t="s">
@@ -8807,8 +9094,8 @@
       <c r="A112" s="13">
         <v>121</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="107"/>
+      <c r="B112" s="126"/>
+      <c r="C112" s="124"/>
       <c r="D112" s="13" t="s">
         <v>135</v>
       </c>
@@ -8827,8 +9114,8 @@
       <c r="A113" s="13">
         <v>122</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="107"/>
+      <c r="B113" s="126"/>
+      <c r="C113" s="124"/>
       <c r="D113" s="13" t="s">
         <v>136</v>
       </c>
@@ -8847,8 +9134,8 @@
       <c r="A114" s="13">
         <v>123</v>
       </c>
-      <c r="B114" s="109"/>
-      <c r="C114" s="107"/>
+      <c r="B114" s="126"/>
+      <c r="C114" s="124"/>
       <c r="D114" s="13" t="s">
         <v>137</v>
       </c>
@@ -8867,19 +9154,19 @@
       <c r="A115" s="13">
         <v>119</v>
       </c>
-      <c r="B115" s="109"/>
+      <c r="B115" s="126"/>
       <c r="C115" s="61"/>
-      <c r="D115" s="114" t="s">
+      <c r="D115" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="E115" s="115"/>
-      <c r="F115" s="115"/>
-      <c r="G115" s="115"/>
-      <c r="H115" s="115"/>
-      <c r="I115" s="115"/>
-      <c r="J115" s="115"/>
-      <c r="K115" s="115"/>
-      <c r="L115" s="116"/>
+      <c r="E115" s="132"/>
+      <c r="F115" s="132"/>
+      <c r="G115" s="132"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="132"/>
+      <c r="J115" s="132"/>
+      <c r="K115" s="132"/>
+      <c r="L115" s="133"/>
       <c r="M115" s="69">
         <v>800</v>
       </c>
@@ -8888,8 +9175,8 @@
       <c r="A116" s="13">
         <v>120</v>
       </c>
-      <c r="B116" s="109"/>
-      <c r="C116" s="107" t="s">
+      <c r="B116" s="126"/>
+      <c r="C116" s="124" t="s">
         <v>139</v>
       </c>
       <c r="D116" s="13" t="s">
@@ -8912,8 +9199,8 @@
       <c r="A117" s="13">
         <v>121</v>
       </c>
-      <c r="B117" s="109"/>
-      <c r="C117" s="107"/>
+      <c r="B117" s="126"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="13" t="s">
         <v>141</v>
       </c>
@@ -8934,8 +9221,8 @@
       <c r="A118" s="13">
         <v>122</v>
       </c>
-      <c r="B118" s="109"/>
-      <c r="C118" s="107"/>
+      <c r="B118" s="126"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="13" t="s">
         <v>142</v>
       </c>
@@ -8956,8 +9243,8 @@
       <c r="A119" s="13">
         <v>123</v>
       </c>
-      <c r="B119" s="109"/>
-      <c r="C119" s="107"/>
+      <c r="B119" s="126"/>
+      <c r="C119" s="124"/>
       <c r="D119" s="13" t="s">
         <v>143</v>
       </c>
@@ -8991,159 +9278,159 @@
       <c r="N120" s="50"/>
     </row>
     <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="111" t="s">
+      <c r="A121" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="B121" s="112"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="112"/>
-      <c r="G121" s="112"/>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="113"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="129"/>
+      <c r="F121" s="129"/>
+      <c r="G121" s="129"/>
+      <c r="H121" s="129"/>
+      <c r="I121" s="129"/>
+      <c r="J121" s="129"/>
+      <c r="K121" s="129"/>
+      <c r="L121" s="130"/>
       <c r="M121" s="59">
         <f>M32+M52+M76+M95+M110+M115+M116+M117+M118+M119</f>
         <v>120086.5</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="111" t="s">
+      <c r="A122" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B122" s="112"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="112"/>
-      <c r="F122" s="112"/>
-      <c r="G122" s="112"/>
-      <c r="H122" s="112"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="112"/>
-      <c r="K122" s="112"/>
-      <c r="L122" s="113"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
+      <c r="E122" s="129"/>
+      <c r="F122" s="129"/>
+      <c r="G122" s="129"/>
+      <c r="H122" s="129"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="130"/>
       <c r="M122" s="59">
         <f>SUM(E2:E12)+E31+SUM(E33:E37)+SUM(E53:E61)+SUM(E77:E88)+SUM(E96:E101)</f>
         <v>52507</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="111" t="s">
+      <c r="A123" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B123" s="112"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
-      <c r="F123" s="112"/>
-      <c r="G123" s="112"/>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="112"/>
-      <c r="L123" s="113"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="129"/>
+      <c r="F123" s="129"/>
+      <c r="G123" s="129"/>
+      <c r="H123" s="129"/>
+      <c r="I123" s="129"/>
+      <c r="J123" s="129"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="130"/>
       <c r="M123" s="59">
         <f>SUM(E102:E104,E40:E44,E16:E22)</f>
         <v>13000</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="111" t="s">
+      <c r="A124" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="112"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112"/>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="112"/>
-      <c r="L124" s="113"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
+      <c r="E124" s="129"/>
+      <c r="F124" s="129"/>
+      <c r="G124" s="129"/>
+      <c r="H124" s="129"/>
+      <c r="I124" s="129"/>
+      <c r="J124" s="129"/>
+      <c r="K124" s="129"/>
+      <c r="L124" s="130"/>
       <c r="M124" s="59">
         <f>SUM(E68:E74,E93:E94,E105:E106,E45:E47,E23:E27)</f>
         <v>25444.5</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="111" t="s">
+      <c r="A125" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="112"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112"/>
-      <c r="L125" s="113"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="129"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="129"/>
+      <c r="H125" s="129"/>
+      <c r="I125" s="129"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="129"/>
+      <c r="L125" s="130"/>
       <c r="M125" s="59">
         <f>SUM(E107:E109,E49:E51,E28:E30,E65:E67)</f>
         <v>6250</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="B126" s="112"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="112"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="112"/>
-      <c r="L126" s="113"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="129"/>
+      <c r="H126" s="129"/>
+      <c r="I126" s="129"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="130"/>
       <c r="M126" s="59">
         <v>2000</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="111" t="s">
+      <c r="A127" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="112"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="113"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="129"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="129"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="129"/>
+      <c r="L127" s="130"/>
       <c r="M127" s="59">
         <f>SUM(E38:E39,E13:E15,E62:E63,E90:E92)</f>
         <v>18615</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="111" t="s">
+      <c r="A128" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="B128" s="112"/>
-      <c r="C128" s="112"/>
-      <c r="D128" s="112"/>
-      <c r="E128" s="112"/>
-      <c r="F128" s="112"/>
-      <c r="G128" s="112"/>
-      <c r="H128" s="112"/>
-      <c r="I128" s="112"/>
-      <c r="J128" s="112"/>
-      <c r="K128" s="112"/>
-      <c r="L128" s="113"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="129"/>
+      <c r="F128" s="129"/>
+      <c r="G128" s="129"/>
+      <c r="H128" s="129"/>
+      <c r="I128" s="129"/>
+      <c r="J128" s="129"/>
+      <c r="K128" s="129"/>
+      <c r="L128" s="130"/>
       <c r="M128" s="59">
         <f>SUM(M115:M119)</f>
         <v>2800</v>
@@ -9151,7 +9438,7 @@
     </row>
     <row r="129" spans="13:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M129" s="28" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -9700,7 +9987,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="121"/>
+      <c r="M13" s="138"/>
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9735,7 +10022,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="121"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13238,167 +13525,167 @@
       <c r="N119" s="51"/>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="111" t="s">
+      <c r="A120" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="112"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="120"/>
-      <c r="F120" s="112"/>
-      <c r="G120" s="112"/>
-      <c r="H120" s="112"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="112"/>
-      <c r="L120" s="112"/>
-      <c r="M120" s="113"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="129"/>
+      <c r="E120" s="137"/>
+      <c r="F120" s="129"/>
+      <c r="G120" s="129"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="129"/>
+      <c r="L120" s="129"/>
+      <c r="M120" s="130"/>
       <c r="N120" s="59">
         <f>SUM(E2:E118)</f>
         <v>70291</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="111" t="s">
+      <c r="A121" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="112"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="120"/>
-      <c r="F121" s="112"/>
-      <c r="G121" s="112"/>
-      <c r="H121" s="112"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="112"/>
-      <c r="L121" s="112"/>
-      <c r="M121" s="113"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="129"/>
+      <c r="E121" s="137"/>
+      <c r="F121" s="129"/>
+      <c r="G121" s="129"/>
+      <c r="H121" s="129"/>
+      <c r="I121" s="129"/>
+      <c r="J121" s="129"/>
+      <c r="K121" s="129"/>
+      <c r="L121" s="129"/>
+      <c r="M121" s="130"/>
       <c r="N121" s="59">
         <f>SUMIF(C$2:C$118,C2,E$2:E$118)</f>
         <v>40124</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="111" t="s">
+      <c r="A122" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="B122" s="112"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="112"/>
-      <c r="E122" s="120"/>
-      <c r="F122" s="112"/>
-      <c r="G122" s="112"/>
-      <c r="H122" s="112"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="112"/>
-      <c r="K122" s="112"/>
-      <c r="L122" s="112"/>
-      <c r="M122" s="113"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
+      <c r="E122" s="137"/>
+      <c r="F122" s="129"/>
+      <c r="G122" s="129"/>
+      <c r="H122" s="129"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="129"/>
+      <c r="M122" s="130"/>
       <c r="N122" s="59">
         <f>SUMIF(C$2:C$118,C23,E$2:E$118)</f>
         <v>7960</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="111" t="s">
+      <c r="A123" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="112"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="120"/>
-      <c r="F123" s="112"/>
-      <c r="G123" s="112"/>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="112"/>
-      <c r="L123" s="112"/>
-      <c r="M123" s="113"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="129"/>
+      <c r="D123" s="129"/>
+      <c r="E123" s="137"/>
+      <c r="F123" s="129"/>
+      <c r="G123" s="129"/>
+      <c r="H123" s="129"/>
+      <c r="I123" s="129"/>
+      <c r="J123" s="129"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="129"/>
+      <c r="M123" s="130"/>
       <c r="N123" s="59">
         <f>SUMIF(C$2:C$118,C28,E$2:E$118)</f>
         <v>6730</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="111" t="s">
+      <c r="A124" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="112"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="112"/>
-      <c r="E124" s="120"/>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112"/>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="112"/>
-      <c r="L124" s="112"/>
-      <c r="M124" s="113"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="129"/>
+      <c r="D124" s="129"/>
+      <c r="E124" s="137"/>
+      <c r="F124" s="129"/>
+      <c r="G124" s="129"/>
+      <c r="H124" s="129"/>
+      <c r="I124" s="129"/>
+      <c r="J124" s="129"/>
+      <c r="K124" s="129"/>
+      <c r="L124" s="129"/>
+      <c r="M124" s="130"/>
       <c r="N124" s="59">
         <f>SUMIF(C$2:C$118,C50,E$2:E$118)+SUMIF(C$2:C$118,C66,E$2:E$118)</f>
         <v>2426</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="111" t="s">
+      <c r="A125" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="112"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="120"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112"/>
-      <c r="L125" s="112"/>
-      <c r="M125" s="113"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="129"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="137"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="129"/>
+      <c r="H125" s="129"/>
+      <c r="I125" s="129"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="129"/>
+      <c r="L125" s="129"/>
+      <c r="M125" s="130"/>
       <c r="N125" s="59">
         <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="112"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="112"/>
-      <c r="E126" s="120"/>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112"/>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="112"/>
-      <c r="L126" s="112"/>
-      <c r="M126" s="113"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="137"/>
+      <c r="F126" s="129"/>
+      <c r="G126" s="129"/>
+      <c r="H126" s="129"/>
+      <c r="I126" s="129"/>
+      <c r="J126" s="129"/>
+      <c r="K126" s="129"/>
+      <c r="L126" s="129"/>
+      <c r="M126" s="130"/>
       <c r="N126" s="59">
         <f>SUMIF(C$2:C$118,C12,E$2:E$118)</f>
         <v>8456</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="111" t="s">
+      <c r="A127" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
-      <c r="E127" s="120"/>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112"/>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="112"/>
-      <c r="M127" s="113"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="129"/>
+      <c r="D127" s="129"/>
+      <c r="E127" s="137"/>
+      <c r="F127" s="129"/>
+      <c r="G127" s="129"/>
+      <c r="H127" s="129"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="129"/>
+      <c r="L127" s="129"/>
+      <c r="M127" s="130"/>
       <c r="N127" s="59">
         <f>N120-N121-N122-N123-N124-N125-N126</f>
         <v>2595</v>
@@ -14022,10 +14309,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14033,7 +14320,7 @@
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="6.875" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="29.375" bestFit="1" customWidth="1"/>
@@ -14049,7 +14336,7 @@
       <c r="C1" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="108" t="s">
         <v>741</v>
       </c>
       <c r="E1" s="76" t="s">
@@ -14069,16 +14356,16 @@
       <c r="A2" s="82">
         <v>43080</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="109" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="85" t="s">
         <v>756</v>
       </c>
-      <c r="D2" s="83">
-        <v>1</v>
-      </c>
-      <c r="E2" s="83">
+      <c r="D2" s="109">
+        <v>1</v>
+      </c>
+      <c r="E2" s="115">
         <v>993</v>
       </c>
       <c r="F2" s="83" t="s">
@@ -14095,16 +14382,16 @@
       <c r="A3" s="82">
         <v>43081</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="109" t="s">
         <v>745</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="85" t="s">
         <v>757</v>
       </c>
-      <c r="D3" s="83">
-        <v>1</v>
-      </c>
-      <c r="E3" s="84">
+      <c r="D3" s="109">
+        <v>1</v>
+      </c>
+      <c r="E3" s="116">
         <v>3698.5</v>
       </c>
       <c r="F3" s="83" t="s">
@@ -14121,16 +14408,16 @@
       <c r="A4" s="82">
         <v>43095</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="109" t="s">
         <v>748</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="85" t="s">
         <v>758</v>
       </c>
-      <c r="D4" s="83">
-        <v>1</v>
-      </c>
-      <c r="E4" s="83">
+      <c r="D4" s="109">
+        <v>1</v>
+      </c>
+      <c r="E4" s="115">
         <v>279</v>
       </c>
       <c r="F4" s="83" t="s">
@@ -14144,19 +14431,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="82">
+      <c r="A5" s="114">
         <v>43096</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="109" t="s">
         <v>737</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>907</v>
-      </c>
-      <c r="D5" s="83">
-        <v>1</v>
-      </c>
-      <c r="E5" s="83">
+      <c r="C5" s="85" t="s">
+        <v>891</v>
+      </c>
+      <c r="D5" s="109">
+        <v>1</v>
+      </c>
+      <c r="E5" s="115">
         <v>3636</v>
       </c>
       <c r="F5" s="83" t="s">
@@ -14170,253 +14457,317 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="88" t="s">
-        <v>759</v>
-      </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="A6" s="114">
+        <v>43168</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>953</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="D6" s="110">
+        <v>1</v>
+      </c>
+      <c r="E6" s="117">
+        <v>330</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>938</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>939</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88" t="s">
-        <v>760</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="A7" s="114">
+        <v>43168</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>950</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>954</v>
+      </c>
+      <c r="D7" s="110">
+        <v>1</v>
+      </c>
+      <c r="E7" s="115">
+        <v>300</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>937</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>940</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88" t="s">
-        <v>761</v>
-      </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="A8" s="114">
+        <v>43168</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>951</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>956</v>
+      </c>
+      <c r="D8" s="110">
+        <v>1</v>
+      </c>
+      <c r="E8" s="117">
+        <v>352</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>936</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>941</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="87" t="s">
-        <v>904</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>905</v>
-      </c>
-      <c r="D9" s="87">
-        <v>1</v>
-      </c>
-      <c r="E9" s="87">
-        <v>198</v>
+      <c r="A9" s="114">
+        <v>43167</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>945</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>946</v>
+      </c>
+      <c r="D9" s="111">
+        <v>1</v>
+      </c>
+      <c r="E9" s="118">
+        <v>428</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>743</v>
-      </c>
-      <c r="H9" s="83"/>
+        <v>948</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="82">
+        <v>43176</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>921</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>957</v>
+      </c>
+      <c r="D10" s="109">
+        <v>1</v>
+      </c>
+      <c r="E10" s="115">
+        <v>9500</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>915</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>922</v>
+      </c>
+      <c r="H10" s="83" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="82">
+        <v>43210</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D11" s="109">
+        <v>1</v>
+      </c>
+      <c r="E11" s="115">
+        <v>3459</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="82">
+        <v>43210</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D12" s="109">
+        <v>1</v>
+      </c>
+      <c r="E12" s="115">
+        <v>4198</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="82">
+        <v>43214</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>908</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D13" s="109">
+        <v>1</v>
+      </c>
+      <c r="E13" s="115">
+        <v>1799</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>907</v>
+      </c>
+      <c r="H13" s="83" t="s">
         <v>909</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>908</v>
-      </c>
-      <c r="D10" s="87">
-        <v>1</v>
-      </c>
-      <c r="E10" s="87">
-        <v>1449</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>910</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>911</v>
-      </c>
-      <c r="H10" s="83" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83" t="s">
-        <v>946</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>944</v>
-      </c>
-      <c r="D11" s="83">
-        <v>1</v>
-      </c>
-      <c r="E11" s="83">
-        <v>1500</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>947</v>
-      </c>
-      <c r="G11" s="83" t="s">
-        <v>945</v>
-      </c>
-      <c r="H11" s="83" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83" t="s">
-        <v>949</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>950</v>
-      </c>
-      <c r="D12" s="83">
-        <v>1</v>
-      </c>
-      <c r="E12" s="83">
-        <v>900</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>951</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>952</v>
-      </c>
-      <c r="H12" s="83" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83" t="s">
-        <v>953</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>954</v>
-      </c>
-      <c r="D13" s="83">
-        <v>1</v>
-      </c>
-      <c r="E13" s="83">
-        <v>5000</v>
-      </c>
-      <c r="F13" s="83" t="s">
-        <v>955</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>945</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83" t="s">
-        <v>956</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>957</v>
-      </c>
-      <c r="D14" s="83">
-        <v>1</v>
-      </c>
-      <c r="E14" s="83">
-        <v>1300</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>958</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>959</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="83"/>
-      <c r="B15" s="83" t="s">
-        <v>961</v>
+      <c r="B15" s="109" t="s">
+        <v>944</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>962</v>
-      </c>
-      <c r="D15" s="83">
-        <v>1</v>
-      </c>
-      <c r="E15" s="83">
-        <v>5000</v>
+        <v>943</v>
+      </c>
+      <c r="D15" s="109">
+        <v>1</v>
+      </c>
+      <c r="E15" s="115">
+        <v>2600</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>963</v>
+        <v>907</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>961</v>
+        <v>914</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="B16" s="109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D16" s="109">
+        <v>1</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
+      <c r="B17" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D17" s="109">
+        <v>1</v>
+      </c>
+      <c r="H17" s="83" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="B18" s="109" t="s">
+        <v>910</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>911</v>
+      </c>
+      <c r="D18" s="109">
+        <v>1</v>
+      </c>
+      <c r="E18" s="115">
+        <v>899</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>912</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>913</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
+      <c r="B19" s="109" t="s">
+        <v>916</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>917</v>
+      </c>
+      <c r="D19" s="109">
+        <v>1</v>
+      </c>
+      <c r="E19" s="115">
+        <v>1300</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>918</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>919</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="83"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="83"/>
       <c r="G20" s="83"/>
       <c r="H20" s="83"/>
@@ -14425,8 +14776,8 @@
       <c r="A21" s="83"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
       <c r="H21" s="83"/>
@@ -14435,8 +14786,8 @@
       <c r="A22" s="83"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
@@ -14445,8 +14796,8 @@
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
@@ -14455,8 +14806,8 @@
       <c r="A24" s="83"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="83"/>
       <c r="G24" s="83"/>
       <c r="H24" s="83"/>
@@ -14465,8 +14816,8 @@
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
       <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="83"/>
       <c r="G25" s="83"/>
       <c r="H25" s="83"/>
@@ -14475,48 +14826,95 @@
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="82">
-        <v>43105</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>755</v>
-      </c>
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="83">
-        <v>1</v>
-      </c>
-      <c r="E27" s="83">
-        <v>3000</v>
-      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="83"/>
       <c r="G27" s="83"/>
-      <c r="H27" s="83" t="s">
+      <c r="H27" s="83"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="139" t="s">
+        <v>934</v>
+      </c>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="82">
+        <v>43105</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>755</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83">
+        <v>1</v>
+      </c>
+      <c r="E30" s="104">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="76"/>
-      <c r="B28" s="122" t="s">
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="76"/>
+      <c r="B31" s="101" t="s">
         <v>625</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="123">
-        <f>SUM(E2:E27)</f>
-        <v>26953.5</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="106">
+        <f>SUM(E2:E30)</f>
+        <v>36771.5</v>
+      </c>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D32" s="103" t="s">
+        <v>933</v>
+      </c>
+      <c r="E32" s="106">
+        <f>SUM(E13:E19)</f>
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="107"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:H28"/>
+  </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14527,8 +14925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18086,10 +18484,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:I70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18097,7 +18495,7 @@
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -18114,7 +18512,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>5</v>
@@ -18123,1306 +18521,1631 @@
         <v>7</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>770</v>
-      </c>
-      <c r="I1" s="70" t="s">
+        <v>767</v>
+      </c>
+      <c r="I1" s="112" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="70"/>
       <c r="B2" s="71"/>
-      <c r="C2" s="108" t="s">
-        <v>797</v>
+      <c r="C2" s="125" t="s">
+        <v>794</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F2" s="42">
         <v>1</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
-      <c r="I2" s="70"/>
+      <c r="I2" s="112" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="109"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="73" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="F3" s="42">
         <v>1</v>
       </c>
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
-      <c r="I3" s="70"/>
-      <c r="L3" s="97" t="s">
-        <v>875</v>
-      </c>
-      <c r="M3" s="97"/>
+      <c r="I3" s="112"/>
+      <c r="L3" s="93" t="s">
+        <v>863</v>
+      </c>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="106" t="s">
-        <v>913</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105" t="s">
-        <v>914</v>
-      </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="112"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
       <c r="B5" s="71"/>
-      <c r="C5" s="109"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="73" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="F5" s="42">
         <v>1</v>
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
-      <c r="I5" s="70"/>
-      <c r="L5" s="97" t="s">
-        <v>876</v>
+      <c r="I5" s="112"/>
+      <c r="L5" s="93" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="73" t="s">
-        <v>823</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>850</v>
-      </c>
-      <c r="F6" s="42">
-        <v>1</v>
-      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="70"/>
-      <c r="L6" s="97" t="s">
-        <v>877</v>
+      <c r="I6" s="112"/>
+      <c r="L6" s="93" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="70"/>
       <c r="B7" s="71"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="92" t="s">
-        <v>849</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>850</v>
-      </c>
-      <c r="F7" s="42">
-        <v>1</v>
-      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
-      <c r="I7" s="70"/>
+      <c r="I7" s="112"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="106">
-        <v>1</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>796</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>798</v>
+      <c r="A8" s="100">
+        <v>1</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>793</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>795</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F8" s="73">
         <v>1</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="73"/>
+      <c r="I8" s="112" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="73">
         <v>2</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="107"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="73" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F9" s="73">
         <v>1</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="24" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="I9" s="113" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="73">
         <v>3</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="73" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F10" s="73">
         <v>1</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="73"/>
-      <c r="I10" s="24" t="s">
-        <v>943</v>
+      <c r="I10" s="113" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="73">
         <v>4</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="124"/>
       <c r="D11" s="73" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F11" s="73">
         <v>1</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="73"/>
-      <c r="I11" s="24" t="s">
-        <v>927</v>
+      <c r="I11" s="113" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="73">
         <v>5</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="73" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F12" s="73">
         <v>1</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="73"/>
-      <c r="I12" s="101" t="s">
-        <v>928</v>
+      <c r="I12" s="119" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="73">
         <v>6</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="73" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F13" s="73">
         <v>1</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="73"/>
-      <c r="I13" s="24" t="s">
-        <v>929</v>
+      <c r="I13" s="113" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="73">
         <v>7</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="92" t="s">
-        <v>921</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>824</v>
-      </c>
-      <c r="F14" s="92">
-        <v>1</v>
-      </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94" t="s">
-        <v>930</v>
+      <c r="B14" s="126"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="89" t="s">
+        <v>894</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>819</v>
+      </c>
+      <c r="F14" s="89">
+        <v>1</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="92" t="s">
-        <v>915</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>916</v>
-      </c>
-      <c r="F15" s="92">
-        <v>1</v>
-      </c>
-      <c r="G15" s="93"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="94" t="s">
-        <v>917</v>
-      </c>
+      <c r="A15" s="100"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89" t="s">
+        <v>965</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="92" t="s">
-        <v>918</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>919</v>
-      </c>
-      <c r="F16" s="92">
-        <v>1</v>
-      </c>
-      <c r="G16" s="93"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="94" t="s">
-        <v>920</v>
+      <c r="A16" s="100"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="89" t="s">
+        <v>892</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>893</v>
+      </c>
+      <c r="F16" s="89">
+        <v>1</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="73">
         <v>8</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="92" t="s">
-        <v>924</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>926</v>
-      </c>
-      <c r="F17" s="92">
-        <v>1</v>
-      </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="94" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="126"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="89" t="s">
+        <v>896</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>898</v>
+      </c>
+      <c r="F17" s="89">
+        <v>1</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A18" s="73">
         <v>9</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="92" t="s">
-        <v>858</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>811</v>
-      </c>
-      <c r="F18" s="92">
+      <c r="B18" s="126"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="89" t="s">
+        <v>846</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="F18" s="89">
         <v>3</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="94" t="s">
-        <v>878</v>
+      <c r="G18" s="90"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="73">
         <v>10</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="92" t="s">
-        <v>812</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>863</v>
-      </c>
-      <c r="F19" s="92">
-        <v>1</v>
-      </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="94"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="89" t="s">
+        <v>808</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>851</v>
+      </c>
+      <c r="F19" s="89">
+        <v>1</v>
+      </c>
+      <c r="G19" s="90"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="73">
         <v>11</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="95" t="s">
-        <v>826</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>806</v>
-      </c>
-      <c r="F20" s="92">
-        <v>1</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="94" t="s">
-        <v>923</v>
+      <c r="B20" s="126"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="91" t="s">
+        <v>821</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20" s="89">
+        <v>1</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="73">
         <v>11</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="107" t="s">
-        <v>813</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>799</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>832</v>
-      </c>
-      <c r="F21" s="92">
-        <v>1</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="94"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="124" t="s">
+        <v>809</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>984</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>825</v>
+      </c>
+      <c r="F21" s="89">
+        <v>1</v>
+      </c>
+      <c r="G21" s="90"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="112" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="73">
+      <c r="A22" s="113"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="112"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="73">
         <v>12</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="92" t="s">
-        <v>814</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>831</v>
-      </c>
-      <c r="F22" s="92">
-        <v>1</v>
-      </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="94"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="92" t="s">
-        <v>815</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>830</v>
-      </c>
-      <c r="F23" s="92">
-        <v>1</v>
-      </c>
-      <c r="G23" s="93"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="94" t="s">
-        <v>931</v>
-      </c>
+      <c r="B23" s="126"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="89" t="s">
+        <v>810</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>824</v>
+      </c>
+      <c r="F23" s="89">
+        <v>1</v>
+      </c>
+      <c r="G23" s="90"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="92" t="s">
-        <v>825</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>827</v>
-      </c>
-      <c r="F24" s="96">
-        <v>1</v>
-      </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="94"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="89" t="s">
+        <v>811</v>
+      </c>
+      <c r="E24" s="89" t="s">
+        <v>823</v>
+      </c>
+      <c r="F24" s="89">
+        <v>1</v>
+      </c>
+      <c r="G24" s="90"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="92" t="s">
-        <v>826</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>827</v>
-      </c>
-      <c r="F25" s="96">
-        <v>1</v>
-      </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="94"/>
-    </row>
-    <row r="26" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="73">
-        <v>13</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="92" t="s">
-        <v>829</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>828</v>
+      <c r="B25" s="126"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="89" t="s">
+        <v>820</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>822</v>
+      </c>
+      <c r="F25" s="92">
+        <v>1</v>
+      </c>
+      <c r="G25" s="90"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="73"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="89" t="s">
+        <v>821</v>
+      </c>
+      <c r="E26" s="89" t="s">
+        <v>822</v>
       </c>
       <c r="F26" s="92">
-        <v>2</v>
-      </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="94"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="90"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="73">
-        <v>14</v>
-      </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="108" t="s">
-        <v>833</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>838</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>818</v>
-      </c>
-      <c r="F27" s="92">
-        <v>1</v>
-      </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
+        <v>13</v>
+      </c>
+      <c r="B27" s="126"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="73">
-        <v>15</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="92" t="s">
-        <v>842</v>
-      </c>
-      <c r="E28" s="92" t="s">
-        <v>839</v>
-      </c>
-      <c r="F28" s="92">
-        <v>2</v>
-      </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92" t="s">
-        <v>931</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="125" t="s">
+        <v>826</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="73">
-        <v>16</v>
-      </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="92" t="s">
-        <v>840</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="F29" s="92">
-        <v>2</v>
-      </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92" t="s">
-        <v>940</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="73">
-        <v>17</v>
-      </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="92" t="s">
-        <v>841</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="F30" s="92">
+        <v>16</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="89" t="s">
+        <v>831</v>
+      </c>
+      <c r="E30" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="F30" s="89">
         <v>2</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92" t="s">
-        <v>932</v>
+      <c r="G30" s="90"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="73">
+        <v>17</v>
+      </c>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="89" t="s">
+        <v>832</v>
+      </c>
+      <c r="E31" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="F31" s="89">
+        <v>2</v>
+      </c>
+      <c r="G31" s="90"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="73">
         <v>18</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="92" t="s">
-        <v>843</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>844</v>
-      </c>
-      <c r="F31" s="92">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="89" t="s">
+        <v>833</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="F32" s="89">
         <v>2</v>
       </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="73">
+      <c r="G32" s="90"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="73">
         <v>19</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="92" t="s">
-        <v>933</v>
-      </c>
-      <c r="E32" s="92" t="s">
-        <v>934</v>
-      </c>
-      <c r="F32" s="92">
-        <v>1</v>
-      </c>
-      <c r="G32" s="93"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="73">
-        <v>20</v>
-      </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="94"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="89" t="s">
+        <v>901</v>
+      </c>
+      <c r="E33" s="89" t="s">
+        <v>902</v>
+      </c>
+      <c r="F33" s="89">
+        <v>1</v>
+      </c>
+      <c r="G33" s="90"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="73">
-        <v>14</v>
-      </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="108" t="s">
-        <v>834</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>845</v>
-      </c>
-      <c r="E34" s="92" t="s">
-        <v>846</v>
-      </c>
-      <c r="F34" s="92">
-        <v>1</v>
-      </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="105" t="s">
-        <v>914</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B34" s="126"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="73">
-        <v>15</v>
-      </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="92" t="s">
-        <v>847</v>
-      </c>
-      <c r="E35" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F35" s="92">
-        <v>1</v>
-      </c>
-      <c r="G35" s="93"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92" t="s">
-        <v>935</v>
+        <v>14</v>
+      </c>
+      <c r="B35" s="126"/>
+      <c r="C35" s="125" t="s">
+        <v>827</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>835</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="F35" s="89">
+        <v>1</v>
+      </c>
+      <c r="G35" s="90"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="112" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="73">
-        <v>16</v>
-      </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="92" t="s">
-        <v>848</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F36" s="92">
-        <v>1</v>
-      </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92" t="s">
-        <v>932</v>
+        <v>15</v>
+      </c>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="89" t="s">
+        <v>836</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F36" s="89">
+        <v>1</v>
+      </c>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="73">
-        <v>17</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="96" t="s">
-        <v>851</v>
-      </c>
-      <c r="E37" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F37" s="92">
-        <v>1</v>
-      </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92" t="s">
-        <v>932</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="89" t="s">
+        <v>837</v>
+      </c>
+      <c r="E37" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F37" s="89">
+        <v>1</v>
+      </c>
+      <c r="G37" s="90"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="73">
-        <v>18</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="92" t="s">
-        <v>853</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F38" s="92">
-        <v>1</v>
-      </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92" t="s">
-        <v>936</v>
+        <v>839</v>
+      </c>
+      <c r="E38" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F38" s="89">
+        <v>1</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="73">
+        <v>18</v>
+      </c>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="89" t="s">
+        <v>841</v>
+      </c>
+      <c r="E39" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F39" s="89">
+        <v>1</v>
+      </c>
+      <c r="G39" s="90"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="73">
         <v>19</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="92" t="s">
-        <v>854</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F39" s="92">
-        <v>1</v>
-      </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="92" t="s">
-        <v>855</v>
-      </c>
-      <c r="E40" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F40" s="92">
-        <v>1</v>
-      </c>
-      <c r="G40" s="93"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="89" t="s">
+        <v>842</v>
+      </c>
+      <c r="E40" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F40" s="89">
+        <v>1</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="73"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="92" t="s">
-        <v>856</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F41" s="92">
-        <v>1</v>
-      </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92" t="s">
-        <v>932</v>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="89" t="s">
+        <v>843</v>
+      </c>
+      <c r="E41" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F41" s="89">
+        <v>2</v>
+      </c>
+      <c r="G41" s="90"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="73"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="92" t="s">
-        <v>865</v>
-      </c>
-      <c r="E42" s="92" t="s">
-        <v>864</v>
-      </c>
-      <c r="F42" s="92">
-        <v>1</v>
-      </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92" t="s">
-        <v>941</v>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="89" t="s">
+        <v>844</v>
+      </c>
+      <c r="E42" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F42" s="89">
+        <v>1</v>
+      </c>
+      <c r="G42" s="90"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="73"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="92" t="s">
-        <v>866</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>867</v>
-      </c>
-      <c r="F43" s="92">
-        <v>1</v>
-      </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92" t="s">
-        <v>937</v>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="89" t="s">
+        <v>853</v>
+      </c>
+      <c r="E43" s="89" t="s">
+        <v>852</v>
+      </c>
+      <c r="F43" s="89">
+        <v>1</v>
+      </c>
+      <c r="G43" s="90"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="73"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="92" t="s">
-        <v>903</v>
-      </c>
-      <c r="E44" s="92" t="s">
-        <v>868</v>
-      </c>
-      <c r="F44" s="92">
-        <v>1</v>
-      </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="101" t="s">
-        <v>938</v>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="89" t="s">
+        <v>854</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>855</v>
+      </c>
+      <c r="F44" s="89">
+        <v>1</v>
+      </c>
+      <c r="G44" s="90"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="73"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="92" t="s">
-        <v>869</v>
-      </c>
-      <c r="E45" s="92" t="s">
-        <v>870</v>
-      </c>
-      <c r="F45" s="92">
-        <v>1</v>
-      </c>
-      <c r="G45" s="93"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92" t="s">
-        <v>932</v>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="89" t="s">
+        <v>890</v>
+      </c>
+      <c r="E45" s="89" t="s">
+        <v>856</v>
+      </c>
+      <c r="F45" s="89">
+        <v>1</v>
+      </c>
+      <c r="G45" s="90"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="119" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="73"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="92" t="s">
-        <v>871</v>
-      </c>
-      <c r="E46" s="92" t="s">
-        <v>872</v>
-      </c>
-      <c r="F46" s="92">
-        <v>1</v>
-      </c>
-      <c r="G46" s="93"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="89" t="s">
+        <v>857</v>
+      </c>
+      <c r="E46" s="89" t="s">
+        <v>858</v>
+      </c>
+      <c r="F46" s="89">
+        <v>1</v>
+      </c>
+      <c r="G46" s="90"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="73"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="92" t="s">
-        <v>873</v>
-      </c>
-      <c r="E47" s="92" t="s">
-        <v>874</v>
-      </c>
-      <c r="F47" s="92">
-        <v>1</v>
-      </c>
-      <c r="G47" s="93"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="89" t="s">
+        <v>859</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>860</v>
+      </c>
+      <c r="F47" s="89">
+        <v>1</v>
+      </c>
+      <c r="G47" s="90"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="73">
-        <v>20</v>
-      </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="92" t="s">
-        <v>858</v>
-      </c>
-      <c r="E48" s="92" t="s">
-        <v>852</v>
-      </c>
-      <c r="F48" s="92">
-        <v>2</v>
-      </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="94"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="89" t="s">
+        <v>861</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>862</v>
+      </c>
+      <c r="F48" s="89">
+        <v>1</v>
+      </c>
+      <c r="G48" s="90"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="73">
-        <v>14</v>
-      </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="108" t="s">
-        <v>835</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>859</v>
-      </c>
-      <c r="E49" s="92" t="s">
-        <v>860</v>
-      </c>
-      <c r="F49" s="92">
-        <v>1</v>
-      </c>
-      <c r="G49" s="93"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
+        <v>20</v>
+      </c>
+      <c r="B49" s="126"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="89" t="s">
+        <v>846</v>
+      </c>
+      <c r="E49" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="F49" s="89">
+        <v>2</v>
+      </c>
+      <c r="G49" s="90"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="73">
-        <v>15</v>
-      </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="92" t="s">
-        <v>861</v>
-      </c>
-      <c r="E50" s="92" t="s">
-        <v>862</v>
-      </c>
-      <c r="F50" s="92">
-        <v>1</v>
-      </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92" t="s">
-        <v>942</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="126"/>
+      <c r="C50" s="125" t="s">
+        <v>828</v>
+      </c>
+      <c r="D50" s="89" t="s">
+        <v>847</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>848</v>
+      </c>
+      <c r="F50" s="89">
+        <v>1</v>
+      </c>
+      <c r="G50" s="90"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="121" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="73">
-        <v>16</v>
-      </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="92" t="s">
-        <v>883</v>
-      </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92">
-        <v>1</v>
-      </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="89" t="s">
+        <v>849</v>
+      </c>
+      <c r="E51" s="89" t="s">
+        <v>850</v>
+      </c>
+      <c r="F51" s="89">
+        <v>1</v>
+      </c>
+      <c r="G51" s="90"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="73">
-        <v>17</v>
-      </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="92" t="s">
-        <v>884</v>
-      </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92">
-        <v>2</v>
-      </c>
-      <c r="G52" s="93"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="89" t="s">
+        <v>870</v>
+      </c>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89">
+        <v>1</v>
+      </c>
+      <c r="G52" s="90"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="73">
-        <v>18</v>
-      </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="92" t="s">
-        <v>885</v>
-      </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92">
+        <v>17</v>
+      </c>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="89" t="s">
+        <v>871</v>
+      </c>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89">
         <v>2</v>
       </c>
-      <c r="G53" s="93"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="73">
-        <v>19</v>
-      </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
+        <v>18</v>
+      </c>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="89" t="s">
+        <v>872</v>
+      </c>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89">
+        <v>2</v>
+      </c>
+      <c r="G54" s="90"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="73">
-        <v>20</v>
-      </c>
-      <c r="B55" s="109"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="94"/>
+        <v>19</v>
+      </c>
+      <c r="B55" s="126"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="73">
-        <v>14</v>
-      </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="108" t="s">
-        <v>836</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>820</v>
-      </c>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92">
-        <v>1</v>
-      </c>
-      <c r="G56" s="93"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92" t="s">
-        <v>942</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B56" s="126"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="90"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="73">
-        <v>15</v>
-      </c>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="92" t="s">
-        <v>880</v>
-      </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92">
-        <v>1</v>
-      </c>
-      <c r="G57" s="93"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="B57" s="126"/>
+      <c r="C57" s="125" t="s">
+        <v>829</v>
+      </c>
+      <c r="D57" s="89" t="s">
+        <v>816</v>
+      </c>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89">
+        <v>1</v>
+      </c>
+      <c r="G57" s="90"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="121" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="73">
-        <v>16</v>
-      </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="92" t="s">
-        <v>881</v>
-      </c>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92">
-        <v>2</v>
-      </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
+        <v>15</v>
+      </c>
+      <c r="B58" s="126"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="89" t="s">
+        <v>867</v>
+      </c>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89">
+        <v>1</v>
+      </c>
+      <c r="G58" s="90"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="73">
-        <v>17</v>
-      </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="92" t="s">
-        <v>882</v>
-      </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92">
-        <v>1</v>
-      </c>
-      <c r="G59" s="93"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="B59" s="126"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="89" t="s">
+        <v>868</v>
+      </c>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89">
+        <v>2</v>
+      </c>
+      <c r="G59" s="90"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="73">
-        <v>18</v>
-      </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="92" t="s">
-        <v>857</v>
-      </c>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92">
-        <v>2</v>
-      </c>
-      <c r="G60" s="93"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="89" t="s">
+        <v>869</v>
+      </c>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89">
+        <v>1</v>
+      </c>
+      <c r="G60" s="90"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="73">
-        <v>19</v>
-      </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
+        <v>18</v>
+      </c>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="89" t="s">
+        <v>845</v>
+      </c>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89">
+        <v>2</v>
+      </c>
+      <c r="G61" s="90"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="73">
-        <v>20</v>
-      </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="94"/>
+        <v>19</v>
+      </c>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="73">
-        <v>14</v>
-      </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="108" t="s">
-        <v>837</v>
-      </c>
-      <c r="D63" s="92" t="s">
-        <v>879</v>
-      </c>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92">
-        <v>1</v>
-      </c>
-      <c r="G63" s="93"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="102" t="s">
-        <v>939</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="73">
-        <v>15</v>
-      </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="92" t="s">
-        <v>886</v>
-      </c>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92">
-        <v>1</v>
-      </c>
-      <c r="G64" s="93"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="B64" s="126"/>
+      <c r="C64" s="125" t="s">
+        <v>830</v>
+      </c>
+      <c r="D64" s="89" t="s">
+        <v>866</v>
+      </c>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89">
+        <v>1</v>
+      </c>
+      <c r="G64" s="90"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="119" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="73">
-        <v>16</v>
-      </c>
-      <c r="B65" s="109"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
+        <v>15</v>
+      </c>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="89" t="s">
+        <v>873</v>
+      </c>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89">
+        <v>1</v>
+      </c>
+      <c r="G65" s="90"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="73">
-        <v>17</v>
-      </c>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="73">
-        <v>18</v>
-      </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="73">
-        <v>19</v>
-      </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
+        <v>18</v>
+      </c>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="73">
-        <v>20</v>
-      </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="94"/>
+        <v>19</v>
+      </c>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="73">
+        <v>20</v>
+      </c>
+      <c r="B70" s="126"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="73">
         <v>30</v>
       </c>
-      <c r="B70" s="110"/>
-      <c r="C70" s="72"/>
-      <c r="D70" s="114" t="s">
-        <v>887</v>
-      </c>
-      <c r="E70" s="115"/>
-      <c r="F70" s="98">
-        <f>SUM(F2:F69)</f>
-        <v>69</v>
-      </c>
-      <c r="G70" s="98"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="66"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="131" t="s">
+        <v>874</v>
+      </c>
+      <c r="E71" s="132"/>
+      <c r="F71" s="94">
+        <f>SUM(F2:F70)</f>
+        <v>62</v>
+      </c>
+      <c r="G71" s="94"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B8:B70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B8:B71"/>
     <mergeCell ref="C8:C20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C34"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C35:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C64:C70"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="109"/>
+    <col min="3" max="3" width="34.875" style="109" customWidth="1"/>
+    <col min="4" max="4" width="69.625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="109"/>
+    <col min="8" max="16384" width="9" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E1" s="109" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="109" t="s">
+        <v>991</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>992</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>997</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>993</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>994</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>995</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I2" s="120" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J2" s="120" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="109">
+        <v>1</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>996</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="109">
+        <v>2</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="109">
+        <v>3</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="109">
+        <v>4</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I6" s="120">
+        <v>4200</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="109" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H7" s="120">
+        <v>5200</v>
+      </c>
+      <c r="I7" s="120">
+        <v>4400</v>
+      </c>
+      <c r="J7" s="120" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="A8" s="109">
+        <v>5</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I8" s="120">
+        <v>3599</v>
+      </c>
+      <c r="J8" s="120">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="109">
+        <v>6</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I9" s="120">
+        <v>3399</v>
+      </c>
+      <c r="J9" s="120">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="109">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="109">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="109">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="109">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="109">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="109">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="109">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="109">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="109">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="109">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Buget/01金域世家装修预算.xlsx
+++ b/Buget/01金域世家装修预算.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PersonnelInfo\HomeDesign\HomeDesign\Buget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Doc\装修\HomeDesign\Buget\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38B35DC6-C329-4FF1-B99D-99B9A3248102}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8115" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8115" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="房子装修预算" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">房子装修决算!$A$1:$N$118</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">房子装修预算!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1076">
   <si>
     <t>序号</t>
   </si>
@@ -3414,47 +3415,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>淋雨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>松霖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>京东/天猫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>净水系统</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>淘宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幕布</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>红叶白玻纤16:9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>天猫</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>家电</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3904,15 +3869,227 @@
     <t>管线机</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>黑板漆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色黑板漆水性油漆墙面乳胶漆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭影院</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redleaf红叶电动投影仪幕布100寸16:9白玻纤灰玻纤+支架</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>永乐二七店</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>华帝</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学路灯世界</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式田园床</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>万客隆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>美标 优家 4/6升加长型一体座便器加智能盖板 虹吸马桶CCAS2090-7SL2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊中国</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫浴</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴室五金件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡贝毛巾架太空铝卫生间浴室置物架浴巾架卫浴五金挂件套装</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>花洒</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜感应灯</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>面盆龙头</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶喷枪</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>晾衣架</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机龙头</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房五金件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调-主卧</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调次卧</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视-客厅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>投影仪</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光播放机</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴帘挂杆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘*3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装费</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗碗机安装费150+延长质保3年498</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>华帝烟机灶具（烟机120，灶具345）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气费安装</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>台下盆水槽支架</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -4119,6 +4296,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4755,7 +4933,7 @@
   <cellStyles count="6">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
@@ -4774,7 +4952,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4840,6 +5018,11 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4865,6 +5048,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4890,6 +5078,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4915,6 +5108,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4940,6 +5138,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4965,6 +5168,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -4990,6 +5198,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-1999-4FDB-84B3-4A18E997CC10}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5097,6 +5310,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1999-4FDB-84B3-4A18E997CC10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5197,7 +5415,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5322,6 +5540,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE2C-4BC8-9D24-9916A402F72D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5510,7 +5733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3107" name="图表 3"/>
+        <xdr:cNvPr id="3107" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000230C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5542,7 +5771,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3108" name="图表 4"/>
+        <xdr:cNvPr id="3108" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000240C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5824,7 +6059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="49"/>
   </sheetPr>
@@ -5837,7 +6072,7 @@
       <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" style="26" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="26" customWidth="1"/>
@@ -5856,7 +6091,7 @@
     <col min="252" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5900,7 +6135,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5935,7 +6170,7 @@
       </c>
       <c r="N2" s="73"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -5964,7 +6199,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="73"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -5993,7 +6228,7 @@
       <c r="M4" s="24"/>
       <c r="N4" s="73"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -6018,7 +6253,7 @@
       <c r="M5" s="24"/>
       <c r="N5" s="73"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -6043,7 +6278,7 @@
       <c r="M6" s="24"/>
       <c r="N6" s="73"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -6070,7 +6305,7 @@
       <c r="M7" s="24"/>
       <c r="N7" s="73"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -6097,7 +6332,7 @@
       <c r="M8" s="65"/>
       <c r="N8" s="73"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -6124,7 +6359,7 @@
       <c r="M9" s="65"/>
       <c r="N9" s="73"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -6151,7 +6386,7 @@
       <c r="M10" s="65"/>
       <c r="N10" s="73"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -6178,7 +6413,7 @@
       <c r="M11" s="24"/>
       <c r="N11" s="73"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -6207,7 +6442,7 @@
       <c r="M12" s="65"/>
       <c r="N12" s="73"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -6237,7 +6472,7 @@
       <c r="L13" s="12"/>
       <c r="N13" s="73"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -6266,7 +6501,7 @@
       <c r="M14" s="65"/>
       <c r="N14" s="73"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -6295,7 +6530,7 @@
       <c r="M15" s="65"/>
       <c r="N15" s="73"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -6324,7 +6559,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="73"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -6357,7 +6592,7 @@
       </c>
       <c r="N17" s="73"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -6384,7 +6619,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="73"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -6411,7 +6646,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -6440,7 +6675,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -6469,7 +6704,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -6498,7 +6733,7 @@
       <c r="M22" s="45"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -6527,7 +6762,7 @@
       <c r="M23" s="45"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -6556,7 +6791,7 @@
       <c r="M24" s="45"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -6585,12 +6820,12 @@
       <c r="M25" s="45"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="100"/>
       <c r="B26" s="126"/>
       <c r="C26" s="124"/>
       <c r="D26" s="100" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="E26" s="33">
         <f t="shared" si="0"/>
@@ -6600,23 +6835,23 @@
         <v>1</v>
       </c>
       <c r="G26" s="100" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="H26" s="39">
         <v>4200</v>
       </c>
       <c r="I26" s="100"/>
       <c r="J26" s="100" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="45" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="N26" s="100"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="13">
         <v>24</v>
       </c>
@@ -6645,7 +6880,7 @@
       <c r="M27" s="45"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -6673,7 +6908,7 @@
       <c r="M28" s="45"/>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="13">
         <v>27</v>
       </c>
@@ -6702,7 +6937,7 @@
       <c r="M29" s="45"/>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="13">
         <v>28</v>
       </c>
@@ -6731,7 +6966,7 @@
       <c r="M30" s="65"/>
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="26.25" customHeight="1">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -6762,7 +6997,7 @@
       <c r="M31" s="65"/>
       <c r="N31" s="73"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="13">
         <v>30</v>
       </c>
@@ -6784,7 +7019,7 @@
         <v>24135</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="13">
         <v>31</v>
       </c>
@@ -6819,7 +7054,7 @@
       </c>
       <c r="N33" s="73"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -6848,7 +7083,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="73"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="13">
         <v>33</v>
       </c>
@@ -6877,7 +7112,7 @@
       <c r="M35" s="24"/>
       <c r="N35" s="73"/>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="13">
         <v>34</v>
       </c>
@@ -6906,7 +7141,7 @@
       <c r="M36" s="24"/>
       <c r="N36" s="73"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -6935,7 +7170,7 @@
       <c r="M37" s="24"/>
       <c r="N37" s="73"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="13">
         <v>38</v>
       </c>
@@ -6966,7 +7201,7 @@
       <c r="M38" s="24"/>
       <c r="N38" s="73"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="13">
         <v>41</v>
       </c>
@@ -6995,7 +7230,7 @@
       <c r="M39" s="24"/>
       <c r="N39" s="73"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13">
         <v>42</v>
       </c>
@@ -7026,7 +7261,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="73"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="13">
         <v>43</v>
       </c>
@@ -7055,7 +7290,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="73"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -7082,7 +7317,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="73"/>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="13">
         <v>45</v>
       </c>
@@ -7109,7 +7344,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="73"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="13">
         <v>46</v>
       </c>
@@ -7136,7 +7371,7 @@
       <c r="M44" s="45"/>
       <c r="N44" s="73"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="13">
         <v>47</v>
       </c>
@@ -7167,7 +7402,7 @@
       <c r="M45" s="45"/>
       <c r="N45" s="73"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="13">
         <v>48</v>
       </c>
@@ -7196,7 +7431,7 @@
       <c r="M46" s="45"/>
       <c r="N46" s="73"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="13">
         <v>49</v>
       </c>
@@ -7223,7 +7458,7 @@
       <c r="M47" s="45"/>
       <c r="N47" s="73"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="13">
         <v>50</v>
       </c>
@@ -7252,7 +7487,7 @@
       <c r="M48" s="45"/>
       <c r="N48" s="73"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="13">
         <v>51</v>
       </c>
@@ -7281,7 +7516,7 @@
       <c r="M49" s="45"/>
       <c r="N49" s="73"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="13">
         <v>52</v>
       </c>
@@ -7310,7 +7545,7 @@
       <c r="M50" s="45"/>
       <c r="N50" s="73"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="13">
         <v>53</v>
       </c>
@@ -7337,7 +7572,7 @@
       <c r="M51" s="45"/>
       <c r="N51" s="73"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="13">
         <v>56</v>
       </c>
@@ -7359,7 +7594,7 @@
         <v>14927</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="13">
         <v>57</v>
       </c>
@@ -7394,7 +7629,7 @@
       </c>
       <c r="N53" s="73"/>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="13">
         <v>58</v>
       </c>
@@ -7425,7 +7660,7 @@
       </c>
       <c r="N54" s="73"/>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="13">
         <v>59</v>
       </c>
@@ -7454,7 +7689,7 @@
       <c r="M55" s="67"/>
       <c r="N55" s="73"/>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="13">
         <v>60</v>
       </c>
@@ -7483,7 +7718,7 @@
       <c r="M56" s="24"/>
       <c r="N56" s="73"/>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="73"/>
       <c r="B57" s="126"/>
       <c r="C57" s="124"/>
@@ -7516,7 +7751,7 @@
       </c>
       <c r="N57" s="73"/>
     </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="73"/>
       <c r="B58" s="126"/>
       <c r="C58" s="124"/>
@@ -7547,7 +7782,7 @@
       </c>
       <c r="N58" s="73"/>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="73"/>
       <c r="B59" s="126"/>
       <c r="C59" s="124"/>
@@ -7576,7 +7811,7 @@
       <c r="M59" s="24"/>
       <c r="N59" s="73"/>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="13">
         <v>61</v>
       </c>
@@ -7603,7 +7838,7 @@
       <c r="M60" s="24"/>
       <c r="N60" s="73"/>
     </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="13">
         <v>62</v>
       </c>
@@ -7632,7 +7867,7 @@
       <c r="M61" s="24"/>
       <c r="N61" s="73"/>
     </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="13">
         <v>65</v>
       </c>
@@ -7664,7 +7899,7 @@
       <c r="M62" s="24"/>
       <c r="N62" s="73"/>
     </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="13">
         <v>66</v>
       </c>
@@ -7691,12 +7926,12 @@
       <c r="M63" s="24"/>
       <c r="N63" s="73"/>
     </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="100"/>
       <c r="B64" s="126"/>
       <c r="C64" s="98"/>
       <c r="D64" s="100" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E64" s="33">
         <f t="shared" si="2"/>
@@ -7706,25 +7941,25 @@
         <v>1</v>
       </c>
       <c r="G64" s="100" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="H64" s="33">
         <v>970</v>
       </c>
       <c r="I64" s="100"/>
       <c r="J64" s="24" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="24" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="N64" s="100"/>
     </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="13">
         <v>68</v>
       </c>
@@ -7755,7 +7990,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="73"/>
     </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="13">
         <v>69</v>
       </c>
@@ -7784,7 +8019,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="73"/>
     </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="13">
         <v>70</v>
       </c>
@@ -7813,7 +8048,7 @@
       <c r="M67" s="45"/>
       <c r="N67" s="73"/>
     </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="13">
         <v>71</v>
       </c>
@@ -7850,7 +8085,7 @@
       </c>
       <c r="N68" s="73"/>
     </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="13">
         <v>72</v>
       </c>
@@ -7879,7 +8114,7 @@
       <c r="M69" s="45"/>
       <c r="N69" s="73"/>
     </row>
-    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="13">
         <v>73</v>
       </c>
@@ -7908,7 +8143,7 @@
       <c r="M70" s="45"/>
       <c r="N70" s="73"/>
     </row>
-    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="13">
         <v>74</v>
       </c>
@@ -7943,7 +8178,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="73"/>
       <c r="B72" s="126"/>
       <c r="C72" s="124"/>
@@ -7972,13 +8207,13 @@
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="45" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="N72" s="73" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="13"/>
       <c r="B73" s="126"/>
       <c r="C73" s="124"/>
@@ -8003,7 +8238,7 @@
       <c r="M73" s="45"/>
       <c r="N73" s="73"/>
     </row>
-    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="13">
         <v>75</v>
       </c>
@@ -8032,7 +8267,7 @@
       <c r="M74" s="45"/>
       <c r="N74" s="73"/>
     </row>
-    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="73"/>
       <c r="B75" s="126"/>
       <c r="C75" s="72" t="s">
@@ -8068,7 +8303,7 @@
       </c>
       <c r="N75" s="73"/>
     </row>
-    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="13">
         <v>77</v>
       </c>
@@ -8090,7 +8325,7 @@
         <v>50014.5</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="13">
         <v>78</v>
       </c>
@@ -8125,7 +8360,7 @@
       </c>
       <c r="N77" s="73"/>
     </row>
-    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="13">
         <v>79</v>
       </c>
@@ -8156,7 +8391,7 @@
       </c>
       <c r="N78" s="73"/>
     </row>
-    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="13">
         <v>80</v>
       </c>
@@ -8181,7 +8416,7 @@
       <c r="M79" s="24"/>
       <c r="N79" s="73"/>
     </row>
-    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="13">
         <v>81</v>
       </c>
@@ -8210,7 +8445,7 @@
       <c r="M80" s="24"/>
       <c r="N80" s="73"/>
     </row>
-    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="13">
         <v>82</v>
       </c>
@@ -8239,7 +8474,7 @@
       <c r="M81" s="24"/>
       <c r="N81" s="73"/>
     </row>
-    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="13">
         <v>83</v>
       </c>
@@ -8270,7 +8505,7 @@
       <c r="M82" s="24"/>
       <c r="N82" s="73"/>
     </row>
-    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="13">
         <v>84</v>
       </c>
@@ -8299,7 +8534,7 @@
       <c r="M83" s="24"/>
       <c r="N83" s="73"/>
     </row>
-    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="13">
         <v>85</v>
       </c>
@@ -8328,7 +8563,7 @@
       <c r="M84" s="24"/>
       <c r="N84" s="73"/>
     </row>
-    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="13">
         <v>86</v>
       </c>
@@ -8357,7 +8592,7 @@
       <c r="M85" s="24"/>
       <c r="N85" s="73"/>
     </row>
-    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="13">
         <v>88</v>
       </c>
@@ -8386,7 +8621,7 @@
       <c r="M86" s="24"/>
       <c r="N86" s="73"/>
     </row>
-    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="126"/>
       <c r="C87" s="124"/>
@@ -8413,7 +8648,7 @@
       <c r="M87" s="24"/>
       <c r="N87" s="73"/>
     </row>
-    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="13">
         <v>89</v>
       </c>
@@ -8442,7 +8677,7 @@
       <c r="M88" s="24"/>
       <c r="N88" s="73"/>
     </row>
-    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="13">
         <v>90</v>
       </c>
@@ -8471,7 +8706,7 @@
       <c r="M89" s="24"/>
       <c r="N89" s="73"/>
     </row>
-    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="13">
         <v>91</v>
       </c>
@@ -8496,7 +8731,7 @@
       <c r="M90" s="24"/>
       <c r="N90" s="73"/>
     </row>
-    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="13">
         <v>92</v>
       </c>
@@ -8523,7 +8758,7 @@
       <c r="M91" s="24"/>
       <c r="N91" s="73"/>
     </row>
-    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="13">
         <v>93</v>
       </c>
@@ -8550,7 +8785,7 @@
       <c r="M92" s="24"/>
       <c r="N92" s="73"/>
     </row>
-    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="13">
         <v>94</v>
       </c>
@@ -8579,7 +8814,7 @@
       <c r="M93" s="45"/>
       <c r="N93" s="73"/>
     </row>
-    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="13">
         <v>95</v>
       </c>
@@ -8606,7 +8841,7 @@
       <c r="M94" s="45"/>
       <c r="N94" s="73"/>
     </row>
-    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="13">
         <v>97</v>
       </c>
@@ -8628,7 +8863,7 @@
         <v>16090</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="13">
         <v>98</v>
       </c>
@@ -8661,7 +8896,7 @@
       <c r="M96" s="24"/>
       <c r="N96" s="73"/>
     </row>
-    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="13">
         <v>99</v>
       </c>
@@ -8690,7 +8925,7 @@
       <c r="M97" s="24"/>
       <c r="N97" s="73"/>
     </row>
-    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="13">
         <v>100</v>
       </c>
@@ -8719,7 +8954,7 @@
       <c r="M98" s="24"/>
       <c r="N98" s="73"/>
     </row>
-    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="13">
         <v>101</v>
       </c>
@@ -8748,7 +8983,7 @@
       <c r="M99" s="24"/>
       <c r="N99" s="73"/>
     </row>
-    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="13">
         <v>103</v>
       </c>
@@ -8777,7 +9012,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="73"/>
     </row>
-    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="13">
         <v>104</v>
       </c>
@@ -8806,7 +9041,7 @@
       <c r="M101" s="24"/>
       <c r="N101" s="73"/>
     </row>
-    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="13">
         <v>109</v>
       </c>
@@ -8837,7 +9072,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="73"/>
     </row>
-    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="13">
         <v>110</v>
       </c>
@@ -8866,7 +9101,7 @@
       <c r="M103" s="13"/>
       <c r="N103" s="73"/>
     </row>
-    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="13">
         <v>111</v>
       </c>
@@ -8895,7 +9130,7 @@
       <c r="M104" s="45"/>
       <c r="N104" s="73"/>
     </row>
-    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="13">
         <v>112</v>
       </c>
@@ -8926,7 +9161,7 @@
       <c r="M105" s="45"/>
       <c r="N105" s="73"/>
     </row>
-    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="13">
         <v>113</v>
       </c>
@@ -8955,7 +9190,7 @@
       <c r="M106" s="45"/>
       <c r="N106" s="73"/>
     </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="13">
         <v>114</v>
       </c>
@@ -8986,7 +9221,7 @@
       <c r="M107" s="45"/>
       <c r="N107" s="73"/>
     </row>
-    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="13">
         <v>115</v>
       </c>
@@ -9015,7 +9250,7 @@
       <c r="M108" s="45"/>
       <c r="N108" s="73"/>
     </row>
-    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="13">
         <v>116</v>
       </c>
@@ -9044,7 +9279,7 @@
       <c r="M109" s="45"/>
       <c r="N109" s="73"/>
     </row>
-    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="13">
         <v>119</v>
       </c>
@@ -9066,7 +9301,7 @@
         <v>12120</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A111" s="13">
         <v>120</v>
       </c>
@@ -9090,7 +9325,7 @@
       <c r="M111" s="56"/>
       <c r="N111" s="73"/>
     </row>
-    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="13">
         <v>121</v>
       </c>
@@ -9110,7 +9345,7 @@
       <c r="M112" s="56"/>
       <c r="N112" s="73"/>
     </row>
-    <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="13">
         <v>122</v>
       </c>
@@ -9130,7 +9365,7 @@
       <c r="M113" s="56"/>
       <c r="N113" s="73"/>
     </row>
-    <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="13">
         <v>123</v>
       </c>
@@ -9150,7 +9385,7 @@
       <c r="M114" s="56"/>
       <c r="N114" s="73"/>
     </row>
-    <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="13">
         <v>119</v>
       </c>
@@ -9171,7 +9406,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="13">
         <v>120</v>
       </c>
@@ -9195,7 +9430,7 @@
       </c>
       <c r="N116" s="73"/>
     </row>
-    <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="13">
         <v>121</v>
       </c>
@@ -9217,7 +9452,7 @@
       </c>
       <c r="N117" s="73"/>
     </row>
-    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="13">
         <v>122</v>
       </c>
@@ -9239,7 +9474,7 @@
       </c>
       <c r="N118" s="73"/>
     </row>
-    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="13">
         <v>123</v>
       </c>
@@ -9261,7 +9496,7 @@
       </c>
       <c r="N119" s="73"/>
     </row>
-    <row r="120" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="49"/>
       <c r="B120" s="51"/>
       <c r="C120" s="51"/>
@@ -9277,7 +9512,7 @@
       <c r="M120" s="51"/>
       <c r="N120" s="50"/>
     </row>
-    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="128" t="s">
         <v>144</v>
       </c>
@@ -9297,7 +9532,7 @@
         <v>120086.5</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="128" t="s">
         <v>145</v>
       </c>
@@ -9317,7 +9552,7 @@
         <v>52507</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="128" t="s">
         <v>146</v>
       </c>
@@ -9337,7 +9572,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="128" t="s">
         <v>147</v>
       </c>
@@ -9357,7 +9592,7 @@
         <v>25444.5</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="128" t="s">
         <v>148</v>
       </c>
@@ -9377,7 +9612,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="128" t="s">
         <v>149</v>
       </c>
@@ -9396,7 +9631,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="128" t="s">
         <v>150</v>
       </c>
@@ -9416,7 +9651,7 @@
         <v>18615</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A128" s="128" t="s">
         <v>151</v>
       </c>
@@ -9436,7 +9671,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="129" spans="13:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="13:13" ht="51.75" customHeight="1">
       <c r="M129" s="28" t="s">
         <v>887</v>
       </c>
@@ -9490,7 +9725,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M17" r:id="rId1" display="https://product.suning.com/0070068275/690791074.html?utm_source=union&amp;utm_medium=14&amp;utm_campaign=02a0ea2b-abe5-4660-9aa6-72412ffa4ae9"/>
+    <hyperlink ref="M17" r:id="rId1" display="https://product.suning.com/0070068275/690791074.html?utm_source=union&amp;utm_medium=14&amp;utm_campaign=02a0ea2b-abe5-4660-9aa6-72412ffa4ae9" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.44" right="0.53" top="0.65" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
@@ -9499,7 +9734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1">
     <tabColor indexed="33"/>
   </sheetPr>
@@ -9512,7 +9747,7 @@
       <selection pane="bottomRight" activeCell="N120" sqref="A1:O127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="22" customWidth="1"/>
@@ -9532,7 +9767,7 @@
     <col min="253" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="22" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -9576,7 +9811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -9609,7 +9844,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -9642,7 +9877,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -9675,7 +9910,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="40"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -9710,7 +9945,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -9745,7 +9980,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -9780,7 +10015,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -9815,7 +10050,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="40"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -9850,7 +10085,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -9885,7 +10120,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -9920,7 +10155,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -9955,7 +10190,7 @@
       <c r="M12" s="24"/>
       <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -9990,7 +10225,7 @@
       <c r="M13" s="138"/>
       <c r="N13" s="40"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -10025,7 +10260,7 @@
       <c r="M14" s="138"/>
       <c r="N14" s="40"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -10060,7 +10295,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -10095,7 +10330,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -10130,7 +10365,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -10165,7 +10400,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -10200,7 +10435,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -10235,7 +10470,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -10270,7 +10505,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -10303,7 +10538,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -10338,7 +10573,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -10373,7 +10608,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -10408,7 +10643,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -10441,7 +10676,7 @@
       <c r="M26" s="44"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -10476,7 +10711,7 @@
       <c r="M27" s="24"/>
       <c r="N27" s="40"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -10511,7 +10746,7 @@
       <c r="M28" s="44"/>
       <c r="N28" s="45"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -10546,7 +10781,7 @@
       <c r="M29" s="44"/>
       <c r="N29" s="45"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -10581,7 +10816,7 @@
       <c r="M30" s="24"/>
       <c r="N30" s="40"/>
     </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -10616,7 +10851,7 @@
       <c r="M31" s="24"/>
       <c r="N31" s="40"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -10651,7 +10886,7 @@
       <c r="M32" s="24"/>
       <c r="N32" s="40"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -10684,7 +10919,7 @@
       <c r="M33" s="44"/>
       <c r="N33" s="45"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -10719,7 +10954,7 @@
       <c r="M34" s="24"/>
       <c r="N34" s="40"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -10754,7 +10989,7 @@
       <c r="M35" s="24"/>
       <c r="N35" s="40"/>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -10789,7 +11024,7 @@
       <c r="M36" s="44"/>
       <c r="N36" s="40"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -10824,7 +11059,7 @@
       <c r="M37" s="12"/>
       <c r="N37" s="41"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -10859,7 +11094,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="41"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -10894,7 +11129,7 @@
       <c r="M39" s="12"/>
       <c r="N39" s="41"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -10929,7 +11164,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="41"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -10962,7 +11197,7 @@
       <c r="M41" s="46"/>
       <c r="N41" s="24"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -10997,7 +11232,7 @@
       <c r="M42" s="24"/>
       <c r="N42" s="41"/>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -11030,7 +11265,7 @@
       <c r="M43" s="44"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -11063,7 +11298,7 @@
       <c r="M44" s="44"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -11096,7 +11331,7 @@
       <c r="M45" s="44"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -11129,7 +11364,7 @@
       <c r="M46" s="44"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -11164,7 +11399,7 @@
       <c r="M47" s="24"/>
       <c r="N47" s="40"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -11197,7 +11432,7 @@
       <c r="M48" s="44"/>
       <c r="N48" s="45"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -11230,7 +11465,7 @@
       <c r="M49" s="44"/>
       <c r="N49" s="45"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -11263,7 +11498,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="45"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -11298,7 +11533,7 @@
       <c r="M51" s="24"/>
       <c r="N51" s="40"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -11331,7 +11566,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="45"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -11366,7 +11601,7 @@
       <c r="M53" s="24"/>
       <c r="N53" s="40"/>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -11397,7 +11632,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="45"/>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -11432,7 +11667,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="41"/>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -11467,7 +11702,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="41"/>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -11502,7 +11737,7 @@
       <c r="M57" s="12"/>
       <c r="N57" s="41"/>
     </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -11537,7 +11772,7 @@
       <c r="M58" s="12"/>
       <c r="N58" s="41"/>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -11572,7 +11807,7 @@
       <c r="M59" s="12"/>
       <c r="N59" s="41"/>
     </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -11607,7 +11842,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="41"/>
     </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -11642,7 +11877,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="41"/>
     </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -11677,7 +11912,7 @@
       <c r="M62" s="12"/>
       <c r="N62" s="41"/>
     </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -11712,7 +11947,7 @@
       <c r="M63" s="12"/>
       <c r="N63" s="41"/>
     </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -11747,7 +11982,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="41"/>
     </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -11782,7 +12017,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="41"/>
     </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -11815,7 +12050,7 @@
       <c r="M66" s="44"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -11845,7 +12080,7 @@
       <c r="M67" s="24"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -11875,7 +12110,7 @@
       <c r="M68" s="24"/>
       <c r="N68" s="18"/>
     </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -11910,7 +12145,7 @@
       <c r="M69" s="44"/>
       <c r="N69" s="45"/>
     </row>
-    <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -11945,7 +12180,7 @@
       <c r="M70" s="44"/>
       <c r="N70" s="45"/>
     </row>
-    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -11980,7 +12215,7 @@
       <c r="M71" s="24"/>
       <c r="N71" s="40"/>
     </row>
-    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -12015,7 +12250,7 @@
       <c r="M72" s="24"/>
       <c r="N72" s="40"/>
     </row>
-    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -12050,7 +12285,7 @@
       <c r="M73" s="24"/>
       <c r="N73" s="40"/>
     </row>
-    <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -12085,7 +12320,7 @@
       <c r="M74" s="44"/>
       <c r="N74" s="45"/>
     </row>
-    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -12120,7 +12355,7 @@
       <c r="M75" s="24"/>
       <c r="N75" s="40"/>
     </row>
-    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -12155,7 +12390,7 @@
       <c r="M76" s="12"/>
       <c r="N76" s="41"/>
     </row>
-    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -12190,7 +12425,7 @@
       <c r="M77" s="12"/>
       <c r="N77" s="41"/>
     </row>
-    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -12225,7 +12460,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="41"/>
     </row>
-    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -12260,7 +12495,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="41"/>
     </row>
-    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -12295,7 +12530,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="41"/>
     </row>
-    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -12330,7 +12565,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="41"/>
     </row>
-    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -12365,7 +12600,7 @@
       <c r="M82" s="12"/>
       <c r="N82" s="41"/>
     </row>
-    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -12400,7 +12635,7 @@
       <c r="M83" s="12"/>
       <c r="N83" s="41"/>
     </row>
-    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -12435,7 +12670,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="41"/>
     </row>
-    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -12470,7 +12705,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="41"/>
     </row>
-    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -12505,7 +12740,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="41"/>
     </row>
-    <row r="87" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -12540,7 +12775,7 @@
       <c r="M87" s="53"/>
       <c r="N87" s="41"/>
     </row>
-    <row r="88" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -12575,7 +12810,7 @@
       <c r="M88" s="53"/>
       <c r="N88" s="41"/>
     </row>
-    <row r="89" spans="1:14" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" s="23" customFormat="1" ht="27" customHeight="1">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -12610,7 +12845,7 @@
       <c r="M89" s="53"/>
       <c r="N89" s="41"/>
     </row>
-    <row r="90" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -12645,7 +12880,7 @@
       <c r="M90" s="53"/>
       <c r="N90" s="41"/>
     </row>
-    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -12678,7 +12913,7 @@
       <c r="M91" s="24"/>
       <c r="N91" s="40"/>
     </row>
-    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -12714,7 +12949,7 @@
       <c r="M92" s="24"/>
       <c r="N92" s="18"/>
     </row>
-    <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -12749,7 +12984,7 @@
       <c r="M93" s="46"/>
       <c r="N93" s="24"/>
     </row>
-    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -12784,7 +13019,7 @@
       <c r="M94" s="12"/>
       <c r="N94" s="41"/>
     </row>
-    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -12819,7 +13054,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="41"/>
     </row>
-    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -12852,7 +13087,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="40"/>
     </row>
-    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -12887,7 +13122,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="40"/>
     </row>
-    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -12922,7 +13157,7 @@
       <c r="M98" s="24"/>
       <c r="N98" s="18"/>
     </row>
-    <row r="99" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -12957,7 +13192,7 @@
       <c r="M99" s="44"/>
       <c r="N99" s="45"/>
     </row>
-    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -12992,7 +13227,7 @@
       <c r="M100" s="24"/>
       <c r="N100" s="40"/>
     </row>
-    <row r="101" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -13025,7 +13260,7 @@
       <c r="M101" s="44"/>
       <c r="N101" s="45"/>
     </row>
-    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -13060,7 +13295,7 @@
       <c r="M102" s="24"/>
       <c r="N102" s="40"/>
     </row>
-    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -13086,7 +13321,7 @@
       <c r="M103" s="44"/>
       <c r="N103" s="55"/>
     </row>
-    <row r="104" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -13110,7 +13345,7 @@
       <c r="M104" s="44"/>
       <c r="N104" s="56"/>
     </row>
-    <row r="105" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -13134,7 +13369,7 @@
       <c r="M105" s="44"/>
       <c r="N105" s="56"/>
     </row>
-    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -13160,7 +13395,7 @@
       <c r="M106" s="44"/>
       <c r="N106" s="55"/>
     </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="13"/>
       <c r="B107" s="12" t="s">
         <v>57</v>
@@ -13184,7 +13419,7 @@
       <c r="M107" s="44"/>
       <c r="N107" s="55"/>
     </row>
-    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A108" s="13">
         <v>106</v>
       </c>
@@ -13212,7 +13447,7 @@
       <c r="M108" s="44"/>
       <c r="N108" s="52"/>
     </row>
-    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="13">
         <v>107</v>
       </c>
@@ -13247,7 +13482,7 @@
       <c r="M109" s="24"/>
       <c r="N109" s="52"/>
     </row>
-    <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A110" s="13">
         <v>108</v>
       </c>
@@ -13274,7 +13509,7 @@
       <c r="M110" s="44"/>
       <c r="N110" s="39"/>
     </row>
-    <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A111" s="13">
         <v>109</v>
       </c>
@@ -13296,7 +13531,7 @@
       <c r="M111" s="44"/>
       <c r="N111" s="39"/>
     </row>
-    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A112" s="13">
         <v>110</v>
       </c>
@@ -13322,7 +13557,7 @@
       <c r="M112" s="44"/>
       <c r="N112" s="52"/>
     </row>
-    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="13">
         <v>111</v>
       </c>
@@ -13351,7 +13586,7 @@
       <c r="M113" s="44"/>
       <c r="N113" s="52"/>
     </row>
-    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A114" s="13">
         <v>112</v>
       </c>
@@ -13386,7 +13621,7 @@
       <c r="M114" s="44"/>
       <c r="N114" s="52"/>
     </row>
-    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="13">
         <v>113</v>
       </c>
@@ -13412,7 +13647,7 @@
       <c r="M115" s="44"/>
       <c r="N115" s="52"/>
     </row>
-    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A116" s="13">
         <v>114</v>
       </c>
@@ -13438,7 +13673,7 @@
       <c r="M116" s="44"/>
       <c r="N116" s="52"/>
     </row>
-    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A117" s="13">
         <v>115</v>
       </c>
@@ -13473,7 +13708,7 @@
       <c r="M117" s="24"/>
       <c r="N117" s="52"/>
     </row>
-    <row r="118" spans="1:15" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" s="24" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A118" s="13">
         <v>116</v>
       </c>
@@ -13508,7 +13743,7 @@
       <c r="N118" s="52"/>
       <c r="O118" s="58"/>
     </row>
-    <row r="119" spans="1:15" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A119" s="49"/>
       <c r="B119" s="50"/>
       <c r="C119" s="50"/>
@@ -13524,7 +13759,7 @@
       <c r="M119" s="51"/>
       <c r="N119" s="51"/>
     </row>
-    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A120" s="128" t="s">
         <v>144</v>
       </c>
@@ -13545,7 +13780,7 @@
         <v>70291</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A121" s="128" t="s">
         <v>145</v>
       </c>
@@ -13566,7 +13801,7 @@
         <v>40124</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A122" s="128" t="s">
         <v>146</v>
       </c>
@@ -13587,7 +13822,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="128" t="s">
         <v>147</v>
       </c>
@@ -13608,7 +13843,7 @@
         <v>6730</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A124" s="128" t="s">
         <v>148</v>
       </c>
@@ -13629,7 +13864,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A125" s="128" t="s">
         <v>149</v>
       </c>
@@ -13649,7 +13884,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A126" s="128" t="s">
         <v>150</v>
       </c>
@@ -13670,7 +13905,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A127" s="128" t="s">
         <v>151</v>
       </c>
@@ -13692,7 +13927,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N118">
+  <autoFilter ref="A1:N118" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="4">
       <customFilters and="1">
         <customFilter operator="notEqual" val=" "/>
@@ -13718,14 +13953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
@@ -13735,13 +13970,13 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1"/>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -13749,7 +13984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>155</v>
       </c>
@@ -13758,7 +13993,7 @@
         <v>17597</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -13767,7 +14002,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
@@ -13776,7 +14011,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>79</v>
       </c>
@@ -13785,7 +14020,7 @@
         <v>17302</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
@@ -13794,7 +14029,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>204</v>
       </c>
@@ -13803,7 +14038,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
@@ -13812,7 +14047,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>225</v>
       </c>
@@ -13821,20 +14056,20 @@
         <v>70291</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="18" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="18" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -13842,7 +14077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
         <v>13</v>
@@ -13852,7 +14087,7 @@
         <v>40124</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="B17" s="11" t="s">
         <v>28</v>
       </c>
@@ -13861,7 +14096,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
         <v>34</v>
@@ -13871,7 +14106,7 @@
         <v>6730</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
@@ -13880,7 +14115,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>227</v>
       </c>
@@ -13889,7 +14124,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>149</v>
@@ -13899,7 +14134,7 @@
         <v>8456</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="B22" s="11" t="s">
         <v>57</v>
       </c>
@@ -13908,7 +14143,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="B23" s="4" t="s">
         <v>225</v>
       </c>
@@ -13917,12 +14152,12 @@
         <v>70291</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="25.5" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1">
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
@@ -13936,7 +14171,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="B28" s="12" t="s">
         <v>79</v>
       </c>
@@ -13950,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="B29" s="12" t="s">
         <v>155</v>
       </c>
@@ -13964,7 +14199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="B30" s="12" t="s">
         <v>155</v>
       </c>
@@ -13978,7 +14213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
@@ -13992,7 +14227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
       <c r="B32" s="12" t="s">
         <v>99</v>
       </c>
@@ -14006,7 +14241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="16.5" customHeight="1">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
@@ -14020,7 +14255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="16.5" customHeight="1">
       <c r="B34" s="12" t="s">
         <v>12</v>
       </c>
@@ -14034,7 +14269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="16.5" customHeight="1">
       <c r="B35" s="12" t="s">
         <v>79</v>
       </c>
@@ -14048,7 +14283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="16.5" customHeight="1">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
@@ -14062,7 +14297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16.5" customHeight="1">
       <c r="B37" s="12" t="s">
         <v>204</v>
       </c>
@@ -14076,7 +14311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16.5" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>99</v>
       </c>
@@ -14090,7 +14325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="16.5" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>79</v>
       </c>
@@ -14104,7 +14339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="16.5" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>99</v>
       </c>
@@ -14118,7 +14353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
         <v>230</v>
       </c>
@@ -14132,7 +14367,7 @@
         <v>0.71585584687468851</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5">
       <c r="B42" s="21" t="s">
         <v>231</v>
       </c>
@@ -14147,20 +14382,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:B32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="67.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
@@ -14168,13 +14403,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>234</v>
       </c>
@@ -14182,13 +14417,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="74" t="s">
         <v>236</v>
       </c>
@@ -14196,13 +14431,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -14210,88 +14445,88 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="28.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="28.5">
       <c r="A21" s="75" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="42.75">
       <c r="A24" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="28.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -14308,14 +14543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
@@ -14326,7 +14561,7 @@
     <col min="8" max="8" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="76" t="s">
         <v>626</v>
       </c>
@@ -14352,7 +14587,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="82">
         <v>43080</v>
       </c>
@@ -14378,7 +14613,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="82">
         <v>43081</v>
       </c>
@@ -14404,7 +14639,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="82">
         <v>43095</v>
       </c>
@@ -14430,7 +14665,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="114">
         <v>43096</v>
       </c>
@@ -14456,15 +14691,15 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="114">
         <v>43168</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D6" s="110">
         <v>1</v>
@@ -14473,24 +14708,24 @@
         <v>330</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="114">
         <v>43168</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="D7" s="110">
         <v>1</v>
@@ -14499,24 +14734,24 @@
         <v>300</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="114">
         <v>43168</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D8" s="110">
         <v>1</v>
@@ -14525,24 +14760,24 @@
         <v>352</v>
       </c>
       <c r="F8" s="83" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="114">
         <v>43167</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D9" s="111">
         <v>1</v>
@@ -14551,24 +14786,24 @@
         <v>428</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="H9" s="83" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="82">
         <v>43176</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D10" s="109">
         <v>1</v>
@@ -14577,24 +14812,24 @@
         <v>9500</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="82">
         <v>43210</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D11" s="109">
         <v>1</v>
@@ -14603,24 +14838,24 @@
         <v>3459</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="82">
         <v>43210</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="109">
         <v>1</v>
@@ -14629,14 +14864,14 @@
         <v>4198</v>
       </c>
       <c r="F12" s="83" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="G12" s="83"/>
       <c r="H12" s="83" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="82">
         <v>43214</v>
       </c>
@@ -14644,7 +14879,7 @@
         <v>908</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D13" s="109">
         <v>1</v>
@@ -14653,7 +14888,7 @@
         <v>1799</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="G13" s="83" t="s">
         <v>907</v>
@@ -14662,178 +14897,325 @@
         <v>909</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="83"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="82">
+        <v>43237</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D14" s="109">
+        <v>1</v>
+      </c>
+      <c r="E14" s="115">
+        <v>1468</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="82">
+        <v>43238</v>
+      </c>
       <c r="B15" s="109" t="s">
-        <v>944</v>
+        <v>1023</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>943</v>
+        <v>1024</v>
       </c>
       <c r="D15" s="109">
         <v>1</v>
       </c>
       <c r="E15" s="115">
-        <v>2600</v>
+        <v>48</v>
       </c>
       <c r="F15" s="83" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G15" s="83" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="82">
+        <v>43257</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>935</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>934</v>
+      </c>
+      <c r="D16" s="109">
+        <v>1</v>
+      </c>
+      <c r="E16" s="115">
+        <v>2780</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>911</v>
+      </c>
+      <c r="G16" s="83" t="s">
         <v>907</v>
       </c>
-      <c r="H15" s="83" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="109" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D16" s="109">
-        <v>1</v>
-      </c>
       <c r="H16" s="83" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="82">
+        <v>43264</v>
+      </c>
       <c r="B17" s="109" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="D17" s="109">
         <v>1</v>
       </c>
+      <c r="E17" s="115">
+        <v>1558</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>911</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>743</v>
+      </c>
       <c r="H17" s="83" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="83"/>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="82">
+        <v>43264</v>
+      </c>
       <c r="B18" s="109" t="s">
-        <v>910</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="83" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D18" s="109">
+        <v>1</v>
+      </c>
+      <c r="E18" s="115">
+        <v>668</v>
+      </c>
+      <c r="F18" s="83" t="s">
         <v>911</v>
       </c>
-      <c r="D18" s="109">
-        <v>1</v>
-      </c>
-      <c r="E18" s="115">
-        <v>899</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>912</v>
-      </c>
       <c r="G18" s="83" t="s">
-        <v>913</v>
+        <v>1044</v>
       </c>
       <c r="H18" s="83" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="82">
+        <v>43265</v>
+      </c>
       <c r="B19" s="109" t="s">
-        <v>916</v>
+        <v>1029</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>917</v>
+        <v>1038</v>
       </c>
       <c r="D19" s="109">
         <v>1</v>
       </c>
       <c r="E19" s="115">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>918</v>
+        <v>1036</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>919</v>
+        <v>1031</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="82">
+        <v>43267</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>1037</v>
+      </c>
       <c r="C20" s="83"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="83"/>
+      <c r="D20" s="109">
+        <v>1</v>
+      </c>
+      <c r="E20" s="115">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>1039</v>
+      </c>
       <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="104"/>
+      <c r="H20" s="83" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="82">
+        <v>43287</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D21" s="109">
+        <v>1</v>
+      </c>
+      <c r="E21" s="115">
+        <v>648</v>
+      </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83"/>
       <c r="H21" s="83"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="104"/>
+    <row r="22" spans="1:8">
+      <c r="A22" s="82">
+        <v>43289</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D22" s="109">
+        <v>1</v>
+      </c>
+      <c r="E22" s="115">
+        <v>465</v>
+      </c>
       <c r="F22" s="83"/>
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+    <row r="23" spans="1:8">
+      <c r="A23" s="82">
+        <v>43295</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D23" s="109">
+        <v>1</v>
+      </c>
+      <c r="E23" s="115">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="82">
+        <v>43295</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>1034</v>
+      </c>
       <c r="C24" s="83"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="83"/>
+      <c r="D24" s="109">
+        <v>1</v>
+      </c>
+      <c r="E24" s="104">
+        <v>2100</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="82">
+        <v>43297</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D25" s="109">
+        <v>1</v>
+      </c>
+      <c r="E25" s="104">
+        <v>2049</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="82">
+        <v>43301</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D26" s="109">
+        <v>1</v>
+      </c>
+      <c r="E26" s="104">
+        <v>298</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="82"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83"/>
       <c r="D27" s="109"/>
@@ -14842,78 +15224,410 @@
       <c r="G27" s="83"/>
       <c r="H27" s="83"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="139" t="s">
-        <v>934</v>
-      </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="105"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="104">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="82"/>
+      <c r="B29" s="83" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C29" s="83"/>
+      <c r="D29" s="109">
+        <v>1</v>
+      </c>
+      <c r="E29" s="104">
+        <v>1500</v>
+      </c>
       <c r="F29" s="83"/>
       <c r="G29" s="83"/>
       <c r="H29" s="83"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="82">
-        <v>43105</v>
-      </c>
+    <row r="30" spans="1:8">
+      <c r="A30" s="82"/>
       <c r="B30" s="83" t="s">
-        <v>755</v>
+        <v>69</v>
       </c>
       <c r="C30" s="83"/>
-      <c r="D30" s="83">
+      <c r="D30" s="109">
         <v>1</v>
       </c>
       <c r="E30" s="104">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="83"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="82"/>
+      <c r="B31" s="83" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="109">
+        <v>1</v>
+      </c>
+      <c r="E31" s="104">
+        <v>150</v>
+      </c>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="82"/>
+      <c r="B32" s="83" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="109">
+        <v>1</v>
+      </c>
+      <c r="E32" s="104">
+        <v>450</v>
+      </c>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="82"/>
+      <c r="B33" s="83" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="109">
+        <v>1</v>
+      </c>
+      <c r="E33" s="104">
+        <v>100</v>
+      </c>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="82"/>
+      <c r="B34" s="83" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="109">
+        <v>1</v>
+      </c>
+      <c r="E34" s="104">
+        <v>450</v>
+      </c>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="82"/>
+      <c r="B35" s="83" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="109">
+        <v>1</v>
+      </c>
+      <c r="E35" s="104"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="82"/>
+      <c r="B36" s="83" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="109">
+        <v>1</v>
+      </c>
+      <c r="E36" s="104"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="82"/>
+      <c r="B38" s="83" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C38" s="83"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="82"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="82"/>
+      <c r="B40" s="83" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="82"/>
+      <c r="B41" s="83" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="82"/>
+      <c r="B42" s="83" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C42" s="83"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="82"/>
+      <c r="B43" s="83" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C43" s="83"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="82"/>
+      <c r="B44" s="83" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C44" s="83"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="82"/>
+      <c r="B45" s="83" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C45" s="83"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="82"/>
+      <c r="B46" s="83" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="82"/>
+      <c r="B47" s="83" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="83"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="139" t="s">
+        <v>925</v>
+      </c>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="82">
+        <v>43105</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>755</v>
+      </c>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83">
+        <v>1</v>
+      </c>
+      <c r="E53" s="104">
+        <v>3000</v>
+      </c>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="76"/>
-      <c r="B31" s="101" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="82">
+        <v>43295</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83">
+        <v>1</v>
+      </c>
+      <c r="E54" s="104">
+        <v>1250</v>
+      </c>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="82"/>
+      <c r="B55" s="83" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83">
+        <v>1</v>
+      </c>
+      <c r="E55" s="104">
+        <v>100</v>
+      </c>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25">
+      <c r="A56" s="76"/>
+      <c r="B56" s="101" t="s">
         <v>625</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="106">
-        <f>SUM(E2:E30)</f>
-        <v>36771.5</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="103" t="s">
-        <v>933</v>
-      </c>
-      <c r="E32" s="106">
-        <f>SUM(E13:E19)</f>
-        <v>6598</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="107"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="106">
+        <f>SUM(E2:E55)</f>
+        <v>58654.5</v>
+      </c>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75">
+      <c r="D57" s="103" t="s">
+        <v>924</v>
+      </c>
+      <c r="E57" s="106">
+        <f>SUM(E28:E50)</f>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="E58" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A51:H51"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14922,14 +15636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
@@ -14939,7 +15653,7 @@
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="76" t="s">
         <v>626</v>
       </c>
@@ -14955,7 +15669,7 @@
       <c r="E1" s="76"/>
       <c r="F1" s="76"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="77" t="s">
         <v>628</v>
       </c>
@@ -14975,7 +15689,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="78" t="s">
         <v>259</v>
       </c>
@@ -14991,7 +15705,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="78" t="s">
         <v>259</v>
       </c>
@@ -15007,7 +15721,7 @@
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="78" t="s">
         <v>259</v>
       </c>
@@ -15023,7 +15737,7 @@
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="78" t="s">
         <v>259</v>
       </c>
@@ -15039,7 +15753,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="78"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="78" t="s">
         <v>635</v>
       </c>
@@ -15055,7 +15769,7 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="78" t="s">
         <v>637</v>
       </c>
@@ -15071,7 +15785,7 @@
       <c r="E8" s="78"/>
       <c r="F8" s="78"/>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="78" t="s">
         <v>258</v>
       </c>
@@ -15091,7 +15805,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="78" t="s">
         <v>261</v>
       </c>
@@ -15107,7 +15821,7 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="78" t="s">
         <v>265</v>
       </c>
@@ -15123,7 +15837,7 @@
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="78" t="s">
         <v>265</v>
       </c>
@@ -15141,7 +15855,7 @@
       </c>
       <c r="F12" s="78"/>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="78" t="s">
         <v>265</v>
       </c>
@@ -15157,7 +15871,7 @@
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="78" t="s">
         <v>268</v>
       </c>
@@ -15175,7 +15889,7 @@
       </c>
       <c r="F14" s="78"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="79" t="s">
         <v>271</v>
       </c>
@@ -15191,7 +15905,7 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="79" t="s">
         <v>645</v>
       </c>
@@ -15207,7 +15921,7 @@
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="79" t="s">
         <v>645</v>
       </c>
@@ -15223,7 +15937,7 @@
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="79" t="s">
         <v>648</v>
       </c>
@@ -15239,7 +15953,7 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="79" t="s">
         <v>273</v>
       </c>
@@ -15255,7 +15969,7 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="76" t="s">
         <v>275</v>
       </c>
@@ -15271,7 +15985,7 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="76" t="s">
         <v>277</v>
       </c>
@@ -15287,7 +16001,7 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="78" t="s">
         <v>277</v>
       </c>
@@ -15303,7 +16017,7 @@
       <c r="E22" s="78"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="78" t="s">
         <v>277</v>
       </c>
@@ -15319,7 +16033,7 @@
       <c r="E23" s="78"/>
       <c r="F23" s="76"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="76" t="s">
         <v>277</v>
       </c>
@@ -15337,7 +16051,7 @@
       </c>
       <c r="F24" s="76"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="76" t="s">
         <v>656</v>
       </c>
@@ -15353,7 +16067,7 @@
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" s="76" t="s">
         <v>656</v>
       </c>
@@ -15369,7 +16083,7 @@
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="76" t="s">
         <v>280</v>
       </c>
@@ -15385,7 +16099,7 @@
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" s="76" t="s">
         <v>279</v>
       </c>
@@ -15401,7 +16115,7 @@
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="76" t="s">
         <v>280</v>
       </c>
@@ -15417,7 +16131,7 @@
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="76" t="s">
         <v>663</v>
       </c>
@@ -15433,7 +16147,7 @@
       <c r="E30" s="76"/>
       <c r="F30" s="76"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="76" t="s">
         <v>665</v>
       </c>
@@ -15449,7 +16163,7 @@
       <c r="E31" s="76"/>
       <c r="F31" s="76"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6">
       <c r="A32" s="76" t="s">
         <v>667</v>
       </c>
@@ -15467,7 +16181,7 @@
       </c>
       <c r="F32" s="76"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" s="76" t="s">
         <v>285</v>
       </c>
@@ -15483,7 +16197,7 @@
       <c r="E33" s="76"/>
       <c r="F33" s="76"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="A34" s="76" t="s">
         <v>285</v>
       </c>
@@ -15499,7 +16213,7 @@
       <c r="E34" s="76"/>
       <c r="F34" s="76"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="76" t="s">
         <v>288</v>
       </c>
@@ -15517,7 +16231,7 @@
       </c>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="78" t="s">
         <v>290</v>
       </c>
@@ -15535,7 +16249,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="78" t="s">
         <v>292</v>
       </c>
@@ -15553,7 +16267,7 @@
       </c>
       <c r="F37" s="76"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" s="76" t="s">
         <v>293</v>
       </c>
@@ -15571,7 +16285,7 @@
       </c>
       <c r="F38" s="76"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" s="76" t="s">
         <v>677</v>
       </c>
@@ -15587,7 +16301,7 @@
       <c r="E39" s="76"/>
       <c r="F39" s="76"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" s="76" t="s">
         <v>293</v>
       </c>
@@ -15603,7 +16317,7 @@
       <c r="E40" s="76"/>
       <c r="F40" s="76"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="76" t="s">
         <v>679</v>
       </c>
@@ -15619,7 +16333,7 @@
       <c r="E41" s="76"/>
       <c r="F41" s="76"/>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="78" t="s">
         <v>681</v>
       </c>
@@ -15635,7 +16349,7 @@
       <c r="E42" s="76"/>
       <c r="F42" s="76"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" s="76" t="s">
         <v>298</v>
       </c>
@@ -15649,7 +16363,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="78" t="s">
         <v>683</v>
       </c>
@@ -15665,7 +16379,7 @@
       <c r="E44" s="78"/>
       <c r="F44" s="76"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" s="76" t="s">
         <v>305</v>
       </c>
@@ -15681,7 +16395,7 @@
       <c r="E45" s="76"/>
       <c r="F45" s="76"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" s="76" t="s">
         <v>302</v>
       </c>
@@ -15697,7 +16411,7 @@
       <c r="E46" s="76"/>
       <c r="F46" s="76"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="76" t="s">
         <v>305</v>
       </c>
@@ -15715,7 +16429,7 @@
       </c>
       <c r="F47" s="76"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" s="76" t="s">
         <v>689</v>
       </c>
@@ -15733,7 +16447,7 @@
       </c>
       <c r="F48" s="76"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" s="76" t="s">
         <v>689</v>
       </c>
@@ -15751,7 +16465,7 @@
       </c>
       <c r="F49" s="76"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" s="76" t="s">
         <v>308</v>
       </c>
@@ -15769,7 +16483,7 @@
       </c>
       <c r="F50" s="76"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" s="76" t="s">
         <v>308</v>
       </c>
@@ -15787,7 +16501,7 @@
       </c>
       <c r="F51" s="76"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" s="76" t="s">
         <v>311</v>
       </c>
@@ -15803,7 +16517,7 @@
       <c r="E52" s="76"/>
       <c r="F52" s="76"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" s="76" t="s">
         <v>313</v>
       </c>
@@ -15821,7 +16535,7 @@
       </c>
       <c r="F53" s="76"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" s="76" t="s">
         <v>312</v>
       </c>
@@ -15837,7 +16551,7 @@
       <c r="E54" s="76"/>
       <c r="F54" s="76"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" s="76" t="s">
         <v>312</v>
       </c>
@@ -15855,7 +16569,7 @@
       </c>
       <c r="F55" s="76"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" s="76" t="s">
         <v>312</v>
       </c>
@@ -15871,7 +16585,7 @@
       <c r="E56" s="76"/>
       <c r="F56" s="76"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" s="76" t="s">
         <v>704</v>
       </c>
@@ -15887,7 +16601,7 @@
       <c r="E57" s="76"/>
       <c r="F57" s="76"/>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15">
       <c r="A58" s="78" t="s">
         <v>707</v>
       </c>
@@ -15907,7 +16621,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" s="76" t="s">
         <v>316</v>
       </c>
@@ -15925,7 +16639,7 @@
       </c>
       <c r="F59" s="76"/>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="78" t="s">
         <v>318</v>
       </c>
@@ -15945,7 +16659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" s="76" t="s">
         <v>323</v>
       </c>
@@ -15963,7 +16677,7 @@
       </c>
       <c r="F61" s="76"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" s="76" t="s">
         <v>326</v>
       </c>
@@ -15981,7 +16695,7 @@
       </c>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" s="76" t="s">
         <v>326</v>
       </c>
@@ -15997,7 +16711,7 @@
       <c r="E63" s="76"/>
       <c r="F63" s="76"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" s="76" t="s">
         <v>326</v>
       </c>
@@ -16013,7 +16727,7 @@
       <c r="E64" s="76"/>
       <c r="F64" s="76"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" s="76" t="s">
         <v>326</v>
       </c>
@@ -16031,7 +16745,7 @@
       </c>
       <c r="F65" s="76"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" s="76" t="s">
         <v>332</v>
       </c>
@@ -16049,7 +16763,7 @@
       </c>
       <c r="F66" s="76"/>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="78" t="s">
         <v>332</v>
       </c>
@@ -16069,7 +16783,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15">
       <c r="A68" s="78" t="s">
         <v>332</v>
       </c>
@@ -16089,7 +16803,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" s="76" t="s">
         <v>338</v>
       </c>
@@ -16107,7 +16821,7 @@
       </c>
       <c r="F69" s="76"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" s="76" t="s">
         <v>338</v>
       </c>
@@ -16125,7 +16839,7 @@
       </c>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6">
       <c r="A71" s="76" t="s">
         <v>338</v>
       </c>
@@ -16141,7 +16855,7 @@
       <c r="E71" s="76"/>
       <c r="F71" s="76"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" s="76" t="s">
         <v>344</v>
       </c>
@@ -16157,7 +16871,7 @@
       <c r="E72" s="76"/>
       <c r="F72" s="76"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" s="76" t="s">
         <v>344</v>
       </c>
@@ -16175,7 +16889,7 @@
       </c>
       <c r="F73" s="76"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" s="76" t="s">
         <v>344</v>
       </c>
@@ -16191,7 +16905,7 @@
       <c r="E74" s="76"/>
       <c r="F74" s="76"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" s="76" t="s">
         <v>344</v>
       </c>
@@ -16209,7 +16923,7 @@
       </c>
       <c r="F75" s="76"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" s="76" t="s">
         <v>353</v>
       </c>
@@ -16225,7 +16939,7 @@
       <c r="E76" s="76"/>
       <c r="F76" s="76"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" s="76" t="s">
         <v>353</v>
       </c>
@@ -16241,7 +16955,7 @@
       <c r="E77" s="76"/>
       <c r="F77" s="76"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" s="76" t="s">
         <v>353</v>
       </c>
@@ -16257,7 +16971,7 @@
       <c r="E78" s="76"/>
       <c r="F78" s="76"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" s="76" t="s">
         <v>357</v>
       </c>
@@ -16273,7 +16987,7 @@
       <c r="E79" s="76"/>
       <c r="F79" s="76"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" s="76" t="s">
         <v>359</v>
       </c>
@@ -16289,7 +17003,7 @@
       <c r="E80" s="76"/>
       <c r="F80" s="76"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" s="76" t="s">
         <v>361</v>
       </c>
@@ -16307,7 +17021,7 @@
       </c>
       <c r="F81" s="76"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" s="76" t="s">
         <v>361</v>
       </c>
@@ -16325,7 +17039,7 @@
       </c>
       <c r="F82" s="76"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" s="76" t="s">
         <v>365</v>
       </c>
@@ -16339,7 +17053,7 @@
       <c r="E83" s="76"/>
       <c r="F83" s="76"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6">
       <c r="A84" s="76" t="s">
         <v>370</v>
       </c>
@@ -16357,7 +17071,7 @@
       </c>
       <c r="F84" s="76"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" s="76" t="s">
         <v>370</v>
       </c>
@@ -16375,7 +17089,7 @@
       </c>
       <c r="F85" s="76"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" s="76" t="s">
         <v>373</v>
       </c>
@@ -16391,7 +17105,7 @@
       <c r="E86" s="76"/>
       <c r="F86" s="76"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" s="76" t="s">
         <v>373</v>
       </c>
@@ -16409,7 +17123,7 @@
       </c>
       <c r="F87" s="76"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" s="76" t="s">
         <v>378</v>
       </c>
@@ -16425,7 +17139,7 @@
       <c r="E88" s="76"/>
       <c r="F88" s="76"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" s="76" t="s">
         <v>378</v>
       </c>
@@ -16443,7 +17157,7 @@
       </c>
       <c r="F89" s="76"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6">
       <c r="A90" s="76" t="s">
         <v>382</v>
       </c>
@@ -16459,7 +17173,7 @@
       <c r="E90" s="76"/>
       <c r="F90" s="76"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6">
       <c r="A91" s="76" t="s">
         <v>382</v>
       </c>
@@ -16475,7 +17189,7 @@
       <c r="E91" s="76"/>
       <c r="F91" s="76"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" s="76" t="s">
         <v>382</v>
       </c>
@@ -16491,7 +17205,7 @@
       <c r="E92" s="76"/>
       <c r="F92" s="76"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6">
       <c r="A93" s="76" t="s">
         <v>382</v>
       </c>
@@ -16507,7 +17221,7 @@
       <c r="E93" s="76"/>
       <c r="F93" s="76"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6">
       <c r="A94" s="76" t="s">
         <v>382</v>
       </c>
@@ -16523,7 +17237,7 @@
       <c r="E94" s="76"/>
       <c r="F94" s="76"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6">
       <c r="A95" s="76" t="s">
         <v>390</v>
       </c>
@@ -16539,7 +17253,7 @@
       <c r="E95" s="76"/>
       <c r="F95" s="76"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6">
       <c r="A96" s="76" t="s">
         <v>390</v>
       </c>
@@ -16555,7 +17269,7 @@
       <c r="E96" s="76"/>
       <c r="F96" s="76"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6">
       <c r="A97" s="76" t="s">
         <v>393</v>
       </c>
@@ -16573,7 +17287,7 @@
       </c>
       <c r="F97" s="76"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6">
       <c r="A98" s="76" t="s">
         <v>396</v>
       </c>
@@ -16589,7 +17303,7 @@
       <c r="E98" s="76"/>
       <c r="F98" s="76"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6">
       <c r="A99" s="76" t="s">
         <v>399</v>
       </c>
@@ -16605,7 +17319,7 @@
       <c r="E99" s="76"/>
       <c r="F99" s="76"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6">
       <c r="A100" s="76" t="s">
         <v>399</v>
       </c>
@@ -16623,7 +17337,7 @@
       </c>
       <c r="F100" s="76"/>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="78" t="s">
         <v>399</v>
       </c>
@@ -16641,7 +17355,7 @@
       </c>
       <c r="F101" s="76"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6">
       <c r="A102" s="76" t="s">
         <v>399</v>
       </c>
@@ -16659,7 +17373,7 @@
       </c>
       <c r="F102" s="76"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6">
       <c r="A103" s="76" t="s">
         <v>399</v>
       </c>
@@ -16677,7 +17391,7 @@
       </c>
       <c r="F103" s="76"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6">
       <c r="A104" s="76" t="s">
         <v>399</v>
       </c>
@@ -16695,7 +17409,7 @@
       </c>
       <c r="F104" s="76"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6">
       <c r="A105" s="76" t="s">
         <v>399</v>
       </c>
@@ -16713,7 +17427,7 @@
       </c>
       <c r="F105" s="76"/>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15">
       <c r="A106" s="78" t="s">
         <v>417</v>
       </c>
@@ -16727,7 +17441,7 @@
       <c r="E106" s="78"/>
       <c r="F106" s="76"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6">
       <c r="A107" s="76" t="s">
         <v>419</v>
       </c>
@@ -16745,7 +17459,7 @@
       </c>
       <c r="F107" s="76"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6">
       <c r="A108" s="76" t="s">
         <v>419</v>
       </c>
@@ -16763,7 +17477,7 @@
       </c>
       <c r="F108" s="76"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6">
       <c r="A109" s="76" t="s">
         <v>424</v>
       </c>
@@ -16781,7 +17495,7 @@
       </c>
       <c r="F109" s="76"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6">
       <c r="A110" s="76" t="s">
         <v>426</v>
       </c>
@@ -16799,7 +17513,7 @@
       </c>
       <c r="F110" s="76"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6">
       <c r="A111" s="76" t="s">
         <v>426</v>
       </c>
@@ -16815,7 +17529,7 @@
       <c r="E111" s="76"/>
       <c r="F111" s="76"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6">
       <c r="A112" s="76" t="s">
         <v>430</v>
       </c>
@@ -16831,7 +17545,7 @@
       <c r="E112" s="76"/>
       <c r="F112" s="76"/>
     </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="78" t="s">
         <v>430</v>
       </c>
@@ -16849,7 +17563,7 @@
       </c>
       <c r="F113" s="76"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6">
       <c r="A114" s="76" t="s">
         <v>430</v>
       </c>
@@ -16865,7 +17579,7 @@
       <c r="E114" s="76"/>
       <c r="F114" s="76"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6">
       <c r="A115" s="76" t="s">
         <v>436</v>
       </c>
@@ -16881,7 +17595,7 @@
       <c r="E115" s="76"/>
       <c r="F115" s="76"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6">
       <c r="A116" s="76" t="s">
         <v>436</v>
       </c>
@@ -16897,7 +17611,7 @@
       <c r="E116" s="76"/>
       <c r="F116" s="76"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6">
       <c r="A117" s="76" t="s">
         <v>440</v>
       </c>
@@ -16913,7 +17627,7 @@
       <c r="E117" s="76"/>
       <c r="F117" s="76"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6">
       <c r="A118" s="76" t="s">
         <v>440</v>
       </c>
@@ -16929,7 +17643,7 @@
       <c r="E118" s="76"/>
       <c r="F118" s="76"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6">
       <c r="A119" s="76" t="s">
         <v>721</v>
       </c>
@@ -16947,7 +17661,7 @@
       </c>
       <c r="F119" s="76"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="76" t="s">
         <v>445</v>
       </c>
@@ -16965,7 +17679,7 @@
       </c>
       <c r="F120" s="76"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6">
       <c r="A121" s="76" t="s">
         <v>448</v>
       </c>
@@ -16981,7 +17695,7 @@
       <c r="E121" s="76"/>
       <c r="F121" s="76"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6">
       <c r="A122" s="76" t="s">
         <v>450</v>
       </c>
@@ -16997,7 +17711,7 @@
       <c r="E122" s="76"/>
       <c r="F122" s="76"/>
     </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="78" t="s">
         <v>451</v>
       </c>
@@ -17015,7 +17729,7 @@
       </c>
       <c r="F123" s="76"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6">
       <c r="A124" s="76" t="s">
         <v>451</v>
       </c>
@@ -17033,7 +17747,7 @@
       </c>
       <c r="F124" s="76"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6">
       <c r="A125" s="76" t="s">
         <v>451</v>
       </c>
@@ -17051,7 +17765,7 @@
       </c>
       <c r="F125" s="76"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6">
       <c r="A126" s="76" t="s">
         <v>451</v>
       </c>
@@ -17069,7 +17783,7 @@
       </c>
       <c r="F126" s="76"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6">
       <c r="A127" s="76" t="s">
         <v>451</v>
       </c>
@@ -17087,7 +17801,7 @@
       </c>
       <c r="F127" s="76"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6">
       <c r="A128" s="76" t="s">
         <v>451</v>
       </c>
@@ -17103,7 +17817,7 @@
       <c r="E128" s="76"/>
       <c r="F128" s="76"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6">
       <c r="A129" s="76" t="s">
         <v>451</v>
       </c>
@@ -17119,7 +17833,7 @@
       <c r="E129" s="76"/>
       <c r="F129" s="76"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6">
       <c r="A130" s="76" t="s">
         <v>451</v>
       </c>
@@ -17135,7 +17849,7 @@
       <c r="E130" s="76"/>
       <c r="F130" s="76"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6">
       <c r="A131" s="76" t="s">
         <v>451</v>
       </c>
@@ -17151,7 +17865,7 @@
       <c r="E131" s="76"/>
       <c r="F131" s="76"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6">
       <c r="A132" s="76" t="s">
         <v>451</v>
       </c>
@@ -17169,7 +17883,7 @@
       </c>
       <c r="F132" s="76"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6">
       <c r="A133" s="76" t="s">
         <v>451</v>
       </c>
@@ -17185,7 +17899,7 @@
       <c r="E133" s="76"/>
       <c r="F133" s="76"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6">
       <c r="A134" s="76" t="s">
         <v>451</v>
       </c>
@@ -17201,7 +17915,7 @@
       <c r="E134" s="76"/>
       <c r="F134" s="76"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6">
       <c r="A135" s="76" t="s">
         <v>451</v>
       </c>
@@ -17219,7 +17933,7 @@
       </c>
       <c r="F135" s="76"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6">
       <c r="A136" s="76" t="s">
         <v>451</v>
       </c>
@@ -17235,7 +17949,7 @@
       <c r="E136" s="76"/>
       <c r="F136" s="76"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6">
       <c r="A137" s="76" t="s">
         <v>451</v>
       </c>
@@ -17253,7 +17967,7 @@
       </c>
       <c r="F137" s="76"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6">
       <c r="A138" s="76" t="s">
         <v>451</v>
       </c>
@@ -17269,7 +17983,7 @@
       <c r="E138" s="76"/>
       <c r="F138" s="76"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6">
       <c r="A139" s="76" t="s">
         <v>451</v>
       </c>
@@ -17285,7 +17999,7 @@
       <c r="E139" s="76"/>
       <c r="F139" s="76"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6">
       <c r="A140" s="76" t="s">
         <v>451</v>
       </c>
@@ -17301,7 +18015,7 @@
       <c r="E140" s="76"/>
       <c r="F140" s="76"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6">
       <c r="A141" s="76" t="s">
         <v>451</v>
       </c>
@@ -17317,7 +18031,7 @@
       <c r="E141" s="76"/>
       <c r="F141" s="76"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6">
       <c r="A142" s="76" t="s">
         <v>451</v>
       </c>
@@ -17333,7 +18047,7 @@
       <c r="E142" s="76"/>
       <c r="F142" s="76"/>
     </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="78" t="s">
         <v>451</v>
       </c>
@@ -17349,7 +18063,7 @@
       <c r="E143" s="78"/>
       <c r="F143" s="76"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6">
       <c r="A144" s="76" t="s">
         <v>451</v>
       </c>
@@ -17367,7 +18081,7 @@
       </c>
       <c r="F144" s="76"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6">
       <c r="A145" s="76" t="s">
         <v>451</v>
       </c>
@@ -17383,7 +18097,7 @@
       <c r="E145" s="76"/>
       <c r="F145" s="76"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6">
       <c r="A146" s="76" t="s">
         <v>482</v>
       </c>
@@ -17399,7 +18113,7 @@
       <c r="E146" s="76"/>
       <c r="F146" s="76"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6">
       <c r="A147" s="76" t="s">
         <v>482</v>
       </c>
@@ -17415,7 +18129,7 @@
       </c>
       <c r="F147" s="76"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6">
       <c r="A148" s="76" t="s">
         <v>487</v>
       </c>
@@ -17431,7 +18145,7 @@
       <c r="E148" s="76"/>
       <c r="F148" s="76"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6">
       <c r="A149" s="76" t="s">
         <v>487</v>
       </c>
@@ -17447,7 +18161,7 @@
       <c r="E149" s="76"/>
       <c r="F149" s="76"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6">
       <c r="A150" s="76" t="s">
         <v>487</v>
       </c>
@@ -17463,7 +18177,7 @@
       <c r="E150" s="76"/>
       <c r="F150" s="76"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6">
       <c r="A151" s="76" t="s">
         <v>487</v>
       </c>
@@ -17479,7 +18193,7 @@
       <c r="E151" s="76"/>
       <c r="F151" s="76"/>
     </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="15">
       <c r="A152" s="78" t="s">
         <v>493</v>
       </c>
@@ -17495,7 +18209,7 @@
       <c r="E152" s="78"/>
       <c r="F152" s="76"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6">
       <c r="A153" s="76" t="s">
         <v>493</v>
       </c>
@@ -17513,7 +18227,7 @@
       </c>
       <c r="F153" s="76"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6">
       <c r="A154" s="76" t="s">
         <v>493</v>
       </c>
@@ -17531,7 +18245,7 @@
       </c>
       <c r="F154" s="76"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6">
       <c r="A155" s="76" t="s">
         <v>501</v>
       </c>
@@ -17549,7 +18263,7 @@
       </c>
       <c r="F155" s="76"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6">
       <c r="A156" s="76" t="s">
         <v>501</v>
       </c>
@@ -17567,7 +18281,7 @@
       </c>
       <c r="F156" s="76"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6">
       <c r="A157" s="76" t="s">
         <v>506</v>
       </c>
@@ -17585,7 +18299,7 @@
       </c>
       <c r="F157" s="76"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6">
       <c r="A158" s="76" t="s">
         <v>506</v>
       </c>
@@ -17603,7 +18317,7 @@
       </c>
       <c r="F158" s="76"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6">
       <c r="A159" s="76" t="s">
         <v>510</v>
       </c>
@@ -17619,7 +18333,7 @@
       <c r="E159" s="76"/>
       <c r="F159" s="76"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6">
       <c r="A160" s="76" t="s">
         <v>512</v>
       </c>
@@ -17635,7 +18349,7 @@
       <c r="E160" s="76"/>
       <c r="F160" s="76"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6">
       <c r="A161" s="76" t="s">
         <v>515</v>
       </c>
@@ -17651,7 +18365,7 @@
       <c r="E161" s="76"/>
       <c r="F161" s="76"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6">
       <c r="A162" s="76" t="s">
         <v>515</v>
       </c>
@@ -17667,7 +18381,7 @@
       <c r="E162" s="76"/>
       <c r="F162" s="76"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6">
       <c r="A163" s="76" t="s">
         <v>515</v>
       </c>
@@ -17685,7 +18399,7 @@
       </c>
       <c r="F163" s="76"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6">
       <c r="A164" s="76" t="s">
         <v>515</v>
       </c>
@@ -17701,7 +18415,7 @@
       <c r="E164" s="76"/>
       <c r="F164" s="76"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6">
       <c r="A165" s="76" t="s">
         <v>515</v>
       </c>
@@ -17719,7 +18433,7 @@
       </c>
       <c r="F165" s="76"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6">
       <c r="A166" s="76" t="s">
         <v>515</v>
       </c>
@@ -17737,7 +18451,7 @@
       </c>
       <c r="F166" s="76"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6">
       <c r="A167" s="76" t="s">
         <v>515</v>
       </c>
@@ -17755,7 +18469,7 @@
       </c>
       <c r="F167" s="76"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6">
       <c r="A168" s="76" t="s">
         <v>515</v>
       </c>
@@ -17773,7 +18487,7 @@
       </c>
       <c r="F168" s="76"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6">
       <c r="A169" s="76" t="s">
         <v>515</v>
       </c>
@@ -17791,7 +18505,7 @@
       </c>
       <c r="F169" s="76"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6">
       <c r="A170" s="76" t="s">
         <v>530</v>
       </c>
@@ -17809,7 +18523,7 @@
       </c>
       <c r="F170" s="76"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6">
       <c r="A171" s="76" t="s">
         <v>530</v>
       </c>
@@ -17827,7 +18541,7 @@
       </c>
       <c r="F171" s="76"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6">
       <c r="A172" s="76" t="s">
         <v>535</v>
       </c>
@@ -17845,7 +18559,7 @@
       </c>
       <c r="F172" s="76"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6">
       <c r="A173" s="76" t="s">
         <v>535</v>
       </c>
@@ -17863,7 +18577,7 @@
       </c>
       <c r="F173" s="76"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6">
       <c r="A174" s="76" t="s">
         <v>535</v>
       </c>
@@ -17879,7 +18593,7 @@
       <c r="E174" s="76"/>
       <c r="F174" s="76"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6">
       <c r="A175" s="76" t="s">
         <v>542</v>
       </c>
@@ -17895,7 +18609,7 @@
       <c r="E175" s="76"/>
       <c r="F175" s="76"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6">
       <c r="A176" s="76" t="s">
         <v>544</v>
       </c>
@@ -17911,7 +18625,7 @@
       <c r="E176" s="76"/>
       <c r="F176" s="76"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6">
       <c r="A177" s="76" t="s">
         <v>547</v>
       </c>
@@ -17927,7 +18641,7 @@
       <c r="E177" s="76"/>
       <c r="F177" s="76"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6">
       <c r="A178" s="76" t="s">
         <v>731</v>
       </c>
@@ -17945,7 +18659,7 @@
       </c>
       <c r="F178" s="76"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6">
       <c r="A179" s="76" t="s">
         <v>552</v>
       </c>
@@ -17961,7 +18675,7 @@
       <c r="E179" s="76"/>
       <c r="F179" s="76"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6">
       <c r="A180" s="76" t="s">
         <v>555</v>
       </c>
@@ -17977,7 +18691,7 @@
       <c r="E180" s="76"/>
       <c r="F180" s="76"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6">
       <c r="A181" s="76" t="s">
         <v>557</v>
       </c>
@@ -17993,7 +18707,7 @@
       <c r="E181" s="76"/>
       <c r="F181" s="76"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6">
       <c r="A182" s="76" t="s">
         <v>557</v>
       </c>
@@ -18011,7 +18725,7 @@
       </c>
       <c r="F182" s="76"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6">
       <c r="A183" s="76" t="s">
         <v>562</v>
       </c>
@@ -18027,7 +18741,7 @@
       <c r="E183" s="76"/>
       <c r="F183" s="76"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6">
       <c r="A184" s="76" t="s">
         <v>562</v>
       </c>
@@ -18043,7 +18757,7 @@
       <c r="E184" s="76"/>
       <c r="F184" s="76"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6">
       <c r="A185" s="76" t="s">
         <v>562</v>
       </c>
@@ -18061,7 +18775,7 @@
       </c>
       <c r="F185" s="76"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6">
       <c r="A186" s="76" t="s">
         <v>562</v>
       </c>
@@ -18079,7 +18793,7 @@
       </c>
       <c r="F186" s="76"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6">
       <c r="A187" s="76" t="s">
         <v>562</v>
       </c>
@@ -18095,7 +18809,7 @@
       <c r="E187" s="76"/>
       <c r="F187" s="76"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6">
       <c r="A188" s="76" t="s">
         <v>562</v>
       </c>
@@ -18113,7 +18827,7 @@
       </c>
       <c r="F188" s="76"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6">
       <c r="A189" s="76" t="s">
         <v>562</v>
       </c>
@@ -18131,7 +18845,7 @@
       </c>
       <c r="F189" s="76"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6">
       <c r="A190" s="76" t="s">
         <v>574</v>
       </c>
@@ -18149,7 +18863,7 @@
       </c>
       <c r="F190" s="76"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6">
       <c r="A191" s="76" t="s">
         <v>574</v>
       </c>
@@ -18167,7 +18881,7 @@
       </c>
       <c r="F191" s="76"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6">
       <c r="A192" s="76" t="s">
         <v>574</v>
       </c>
@@ -18185,7 +18899,7 @@
       </c>
       <c r="F192" s="76"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6">
       <c r="A193" s="76" t="s">
         <v>574</v>
       </c>
@@ -18203,7 +18917,7 @@
       </c>
       <c r="F193" s="76"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6">
       <c r="A194" s="76" t="s">
         <v>574</v>
       </c>
@@ -18221,7 +18935,7 @@
       </c>
       <c r="F194" s="76"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6">
       <c r="A195" s="76" t="s">
         <v>585</v>
       </c>
@@ -18239,7 +18953,7 @@
       </c>
       <c r="F195" s="76"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6">
       <c r="A196" s="76" t="s">
         <v>589</v>
       </c>
@@ -18257,7 +18971,7 @@
       </c>
       <c r="F196" s="76"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6">
       <c r="A197" s="76" t="s">
         <v>593</v>
       </c>
@@ -18275,7 +18989,7 @@
       </c>
       <c r="F197" s="76"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6">
       <c r="A198" s="76" t="s">
         <v>595</v>
       </c>
@@ -18293,7 +19007,7 @@
       </c>
       <c r="F198" s="76"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6">
       <c r="A199" s="76" t="s">
         <v>595</v>
       </c>
@@ -18311,7 +19025,7 @@
       </c>
       <c r="F199" s="76"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6">
       <c r="A200" s="76" t="s">
         <v>602</v>
       </c>
@@ -18329,7 +19043,7 @@
       </c>
       <c r="F200" s="76"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6">
       <c r="A201" s="76" t="s">
         <v>602</v>
       </c>
@@ -18349,7 +19063,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6">
       <c r="A202" s="76" t="s">
         <v>610</v>
       </c>
@@ -18365,7 +19079,7 @@
       <c r="E202" s="76"/>
       <c r="F202" s="76"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6">
       <c r="A203" s="76" t="s">
         <v>612</v>
       </c>
@@ -18381,7 +19095,7 @@
       <c r="E203" s="76"/>
       <c r="F203" s="76"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6">
       <c r="A204" s="76" t="s">
         <v>614</v>
       </c>
@@ -18397,7 +19111,7 @@
       <c r="E204" s="76"/>
       <c r="F204" s="76"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6">
       <c r="A205" s="76" t="s">
         <v>614</v>
       </c>
@@ -18413,7 +19127,7 @@
       <c r="E205" s="76"/>
       <c r="F205" s="76"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6">
       <c r="A206" s="76" t="s">
         <v>618</v>
       </c>
@@ -18431,7 +19145,7 @@
       </c>
       <c r="F206" s="76"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6">
       <c r="A207" s="76" t="s">
         <v>618</v>
       </c>
@@ -18447,7 +19161,7 @@
       <c r="E207" s="76"/>
       <c r="F207" s="76"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6">
       <c r="A208" s="76" t="s">
         <v>622</v>
       </c>
@@ -18463,7 +19177,7 @@
       </c>
       <c r="F208" s="76"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6">
       <c r="A209" s="76"/>
       <c r="B209" s="76" t="s">
         <v>625</v>
@@ -18483,14 +19197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.125" customWidth="1"/>
@@ -18498,7 +19212,7 @@
     <col min="9" max="9" width="24.625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -18527,7 +19241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="70"/>
       <c r="B2" s="71"/>
       <c r="C2" s="125" t="s">
@@ -18545,10 +19259,10 @@
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
       <c r="I2" s="112" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
       <c r="C3" s="126"/>
@@ -18569,7 +19283,7 @@
       </c>
       <c r="M3" s="93"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="99"/>
       <c r="B4" s="98"/>
       <c r="C4" s="126"/>
@@ -18582,7 +19296,7 @@
       <c r="L4" s="93"/>
       <c r="M4" s="93"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="70"/>
       <c r="B5" s="71"/>
       <c r="C5" s="126"/>
@@ -18602,7 +19316,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="70"/>
       <c r="B6" s="71"/>
       <c r="C6" s="126"/>
@@ -18616,7 +19330,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="70"/>
       <c r="B7" s="71"/>
       <c r="C7" s="127"/>
@@ -18627,7 +19341,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="112"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="100">
         <v>1</v>
       </c>
@@ -18649,10 +19363,10 @@
       <c r="G8" s="39"/>
       <c r="H8" s="73"/>
       <c r="I8" s="112" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="73">
         <v>2</v>
       </c>
@@ -18670,10 +19384,10 @@
       <c r="G9" s="39"/>
       <c r="H9" s="73"/>
       <c r="I9" s="113" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="73">
         <v>3</v>
       </c>
@@ -18691,10 +19405,10 @@
       <c r="G10" s="39"/>
       <c r="H10" s="73"/>
       <c r="I10" s="113" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="73">
         <v>4</v>
       </c>
@@ -18712,10 +19426,10 @@
       <c r="G11" s="39"/>
       <c r="H11" s="73"/>
       <c r="I11" s="113" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="73">
         <v>5</v>
       </c>
@@ -18733,10 +19447,10 @@
       <c r="G12" s="39"/>
       <c r="H12" s="73"/>
       <c r="I12" s="119" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="73">
         <v>6</v>
       </c>
@@ -18754,10 +19468,10 @@
       <c r="G13" s="39"/>
       <c r="H13" s="73"/>
       <c r="I13" s="113" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="73">
         <v>7</v>
       </c>
@@ -18775,23 +19489,23 @@
       <c r="G14" s="90"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="100"/>
       <c r="B15" s="126"/>
       <c r="C15" s="124"/>
       <c r="D15" s="89"/>
       <c r="E15" s="89" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F15" s="89"/>
       <c r="G15" s="90"/>
       <c r="H15" s="89"/>
       <c r="I15" s="89"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="100"/>
       <c r="B16" s="126"/>
       <c r="C16" s="124"/>
@@ -18807,10 +19521,10 @@
       <c r="G16" s="90"/>
       <c r="H16" s="89"/>
       <c r="I16" s="89" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="73">
         <v>8</v>
       </c>
@@ -18831,7 +19545,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="22.5">
       <c r="A18" s="73">
         <v>9</v>
       </c>
@@ -18849,10 +19563,10 @@
       <c r="G18" s="90"/>
       <c r="H18" s="89"/>
       <c r="I18" s="89" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="73">
         <v>10</v>
       </c>
@@ -18871,7 +19585,7 @@
       <c r="H19" s="89"/>
       <c r="I19" s="89"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="73">
         <v>11</v>
       </c>
@@ -18892,7 +19606,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="73">
         <v>11</v>
       </c>
@@ -18901,7 +19615,7 @@
         <v>809</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>825</v>
@@ -18912,10 +19626,10 @@
       <c r="G21" s="90"/>
       <c r="H21" s="89"/>
       <c r="I21" s="112" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="113"/>
       <c r="B22" s="126"/>
       <c r="C22" s="124"/>
@@ -18926,7 +19640,7 @@
       <c r="H22" s="89"/>
       <c r="I22" s="112"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="73">
         <v>12</v>
       </c>
@@ -18945,7 +19659,7 @@
       <c r="H23" s="89"/>
       <c r="I23" s="89"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="73"/>
       <c r="B24" s="126"/>
       <c r="C24" s="124"/>
@@ -18964,7 +19678,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="73"/>
       <c r="B25" s="126"/>
       <c r="C25" s="124"/>
@@ -18981,7 +19695,7 @@
       <c r="H25" s="89"/>
       <c r="I25" s="89"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="73"/>
       <c r="B26" s="126"/>
       <c r="C26" s="124"/>
@@ -18998,7 +19712,7 @@
       <c r="H26" s="89"/>
       <c r="I26" s="89"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="73">
         <v>13</v>
       </c>
@@ -19011,7 +19725,7 @@
       <c r="H27" s="89"/>
       <c r="I27" s="89"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="73">
         <v>14</v>
       </c>
@@ -19026,7 +19740,7 @@
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="73">
         <v>15</v>
       </c>
@@ -19039,7 +19753,7 @@
       <c r="H29" s="89"/>
       <c r="I29" s="89"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="73">
         <v>16</v>
       </c>
@@ -19057,10 +19771,10 @@
       <c r="G30" s="90"/>
       <c r="H30" s="89"/>
       <c r="I30" s="89" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="73">
         <v>17</v>
       </c>
@@ -19078,10 +19792,10 @@
       <c r="G31" s="90"/>
       <c r="H31" s="89"/>
       <c r="I31" s="89" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="73">
         <v>18</v>
       </c>
@@ -19099,10 +19813,10 @@
       <c r="G32" s="90"/>
       <c r="H32" s="89"/>
       <c r="I32" s="89" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="22.5">
       <c r="A33" s="73">
         <v>19</v>
       </c>
@@ -19120,10 +19834,10 @@
       <c r="G33" s="90"/>
       <c r="H33" s="89"/>
       <c r="I33" s="89" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="73">
         <v>20</v>
       </c>
@@ -19136,7 +19850,7 @@
       <c r="H34" s="89"/>
       <c r="I34" s="89"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="73">
         <v>14</v>
       </c>
@@ -19148,7 +19862,7 @@
         <v>835</v>
       </c>
       <c r="E35" s="89" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F35" s="89">
         <v>1</v>
@@ -19156,10 +19870,10 @@
       <c r="G35" s="90"/>
       <c r="H35" s="89"/>
       <c r="I35" s="112" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="73">
         <v>15</v>
       </c>
@@ -19180,7 +19894,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="73">
         <v>16</v>
       </c>
@@ -19201,7 +19915,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="73">
         <v>17</v>
       </c>
@@ -19222,7 +19936,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="73">
         <v>18</v>
       </c>
@@ -19243,7 +19957,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="73">
         <v>19</v>
       </c>
@@ -19262,7 +19976,7 @@
       <c r="H40" s="89"/>
       <c r="I40" s="89"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="73"/>
       <c r="B41" s="126"/>
       <c r="C41" s="126"/>
@@ -19278,10 +19992,10 @@
       <c r="G41" s="90"/>
       <c r="H41" s="89"/>
       <c r="I41" s="89" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="73"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -19297,10 +20011,10 @@
       <c r="G42" s="90"/>
       <c r="H42" s="89"/>
       <c r="I42" s="89" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="73"/>
       <c r="B43" s="126"/>
       <c r="C43" s="126"/>
@@ -19319,7 +20033,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="73"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
@@ -19335,10 +20049,10 @@
       <c r="G44" s="90"/>
       <c r="H44" s="89"/>
       <c r="I44" s="89" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="73"/>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -19354,10 +20068,10 @@
       <c r="G45" s="90"/>
       <c r="H45" s="89"/>
       <c r="I45" s="119" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="73"/>
       <c r="B46" s="126"/>
       <c r="C46" s="126"/>
@@ -19373,10 +20087,10 @@
       <c r="G46" s="90"/>
       <c r="H46" s="89"/>
       <c r="I46" s="89" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="73"/>
       <c r="B47" s="126"/>
       <c r="C47" s="126"/>
@@ -19392,10 +20106,10 @@
       <c r="G47" s="90"/>
       <c r="H47" s="89"/>
       <c r="I47" s="89" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="73"/>
       <c r="B48" s="126"/>
       <c r="C48" s="126"/>
@@ -19411,10 +20125,10 @@
       <c r="G48" s="90"/>
       <c r="H48" s="89"/>
       <c r="I48" s="89" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="73">
         <v>20</v>
       </c>
@@ -19432,10 +20146,10 @@
       <c r="G49" s="90"/>
       <c r="H49" s="89"/>
       <c r="I49" s="89" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="73">
         <v>14</v>
       </c>
@@ -19455,10 +20169,10 @@
       <c r="G50" s="90"/>
       <c r="H50" s="89"/>
       <c r="I50" s="121" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="73">
         <v>15</v>
       </c>
@@ -19479,7 +20193,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="73">
         <v>16</v>
       </c>
@@ -19495,10 +20209,10 @@
       <c r="G52" s="90"/>
       <c r="H52" s="89"/>
       <c r="I52" s="89" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="73">
         <v>17</v>
       </c>
@@ -19515,7 +20229,7 @@
       <c r="H53" s="89"/>
       <c r="I53" s="89"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="73">
         <v>18</v>
       </c>
@@ -19532,7 +20246,7 @@
       <c r="H54" s="89"/>
       <c r="I54" s="89"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" s="73">
         <v>19</v>
       </c>
@@ -19545,7 +20259,7 @@
       <c r="H55" s="89"/>
       <c r="I55" s="89"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" s="73">
         <v>20</v>
       </c>
@@ -19558,7 +20272,7 @@
       <c r="H56" s="89"/>
       <c r="I56" s="89"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" s="73">
         <v>14</v>
       </c>
@@ -19576,10 +20290,10 @@
       <c r="G57" s="90"/>
       <c r="H57" s="89"/>
       <c r="I57" s="121" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="73">
         <v>15</v>
       </c>
@@ -19598,7 +20312,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="73">
         <v>16</v>
       </c>
@@ -19615,7 +20329,7 @@
       <c r="H59" s="89"/>
       <c r="I59" s="89"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" s="73">
         <v>17</v>
       </c>
@@ -19631,10 +20345,10 @@
       <c r="G60" s="90"/>
       <c r="H60" s="89"/>
       <c r="I60" s="89" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="73">
         <v>18</v>
       </c>
@@ -19650,10 +20364,10 @@
       <c r="G61" s="90"/>
       <c r="H61" s="89"/>
       <c r="I61" s="89" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="73">
         <v>19</v>
       </c>
@@ -19666,7 +20380,7 @@
       <c r="H62" s="89"/>
       <c r="I62" s="89"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" s="73">
         <v>20</v>
       </c>
@@ -19679,7 +20393,7 @@
       <c r="H63" s="89"/>
       <c r="I63" s="89"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" s="73">
         <v>14</v>
       </c>
@@ -19697,10 +20411,10 @@
       <c r="G64" s="90"/>
       <c r="H64" s="89"/>
       <c r="I64" s="119" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="73">
         <v>15</v>
       </c>
@@ -19716,10 +20430,10 @@
       <c r="G65" s="90"/>
       <c r="H65" s="89"/>
       <c r="I65" s="89" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="73">
         <v>16</v>
       </c>
@@ -19732,7 +20446,7 @@
       <c r="H66" s="89"/>
       <c r="I66" s="89"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67" s="73">
         <v>17</v>
       </c>
@@ -19745,7 +20459,7 @@
       <c r="H67" s="89"/>
       <c r="I67" s="89"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68" s="73">
         <v>18</v>
       </c>
@@ -19758,7 +20472,7 @@
       <c r="H68" s="89"/>
       <c r="I68" s="89"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" s="73">
         <v>19</v>
       </c>
@@ -19771,7 +20485,7 @@
       <c r="H69" s="89"/>
       <c r="I69" s="89"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="A70" s="73">
         <v>20</v>
       </c>
@@ -19784,7 +20498,7 @@
       <c r="H70" s="89"/>
       <c r="I70" s="89"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="A71" s="73">
         <v>30</v>
       </c>
@@ -19822,14 +20536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.75" style="109" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="109"/>
@@ -19839,96 +20553,96 @@
     <col min="8" max="16384" width="9" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="E1" s="109" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="109" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C2" s="109" t="s">
+        <v>988</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>984</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>985</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>986</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>996</v>
+      </c>
+      <c r="I2" s="120" t="s">
         <v>997</v>
       </c>
-      <c r="E2" s="109" t="s">
-        <v>993</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>994</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>995</v>
-      </c>
-      <c r="H2" s="120" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I2" s="120" t="s">
-        <v>1006</v>
-      </c>
       <c r="J2" s="120" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="109">
         <v>1</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="109">
         <v>2</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="109">
         <v>3</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="109">
         <v>4</v>
       </c>
       <c r="B6" s="109" t="s">
+        <v>993</v>
+      </c>
+      <c r="C6" s="109" t="s">
         <v>1002</v>
       </c>
-      <c r="C6" s="109" t="s">
-        <v>1011</v>
-      </c>
       <c r="H6" s="120" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="I6" s="120">
         <v>4200</v>
       </c>
       <c r="J6" s="120" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="109" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="H7" s="120">
         <v>5200</v>
@@ -19937,24 +20651,24 @@
         <v>4400</v>
       </c>
       <c r="J7" s="120" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36">
       <c r="A8" s="109">
         <v>5</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="120" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="I8" s="120">
         <v>3599</v>
@@ -19963,18 +20677,18 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="109">
         <v>6</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="H9" s="120" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="I9" s="120">
         <v>3399</v>
@@ -19983,162 +20697,162 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="109">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="109">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="109">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="109">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="109">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="109">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="109">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="109">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="109">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="109">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="109">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="109">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="109">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="109">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="109">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="109">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="109">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="109">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="109">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="109">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="109">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="109">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="109">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="109">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="109">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="109">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="109">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="109">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="109">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="109">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="109">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="109">
         <v>38</v>
       </c>
